--- a/JPADSandBox_v2/out/IRON_LOOP1_UPDATED/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/IRON_LOOP1_UPDATED/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -7307,97 +7307,97 @@
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.020225326890872985</v>
+        <v>0.005825929922538228</v>
       </c>
       <c r="D82" t="n">
-        <v>0.019940155645697524</v>
+        <v>0.005459440976818556</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01967374529344249</v>
+        <v>0.005260466852366906</v>
       </c>
       <c r="F82" t="n">
-        <v>0.019438798768858522</v>
+        <v>0.005241710483933928</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01923186273107272</v>
+        <v>0.005399718530646712</v>
       </c>
       <c r="H82" t="n">
-        <v>0.019050630293971742</v>
+        <v>0.0057321841063919165</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01890307190559326</v>
+        <v>0.006247077659207221</v>
       </c>
       <c r="J82" t="n">
-        <v>0.018779255209096547</v>
+        <v>0.006934466832251891</v>
       </c>
       <c r="K82" t="n">
-        <v>0.018696943072163002</v>
+        <v>0.007812114493207332</v>
       </c>
       <c r="L82" t="n">
-        <v>0.018637744348231185</v>
+        <v>0.008861629495512096</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01861457378584165</v>
+        <v>0.01009592658770675</v>
       </c>
       <c r="N82" t="n">
-        <v>0.018614152988565332</v>
+        <v>0.01150172737336221</v>
       </c>
       <c r="O82" t="n">
-        <v>0.018646182676975466</v>
+        <v>0.013088732573051725</v>
       </c>
       <c r="P82" t="n">
-        <v>0.018702973556179142</v>
+        <v>0.014849252891882384</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.018790562048425743</v>
+        <v>0.016789324752103568</v>
       </c>
       <c r="R82" t="n">
         <v>0.018903087089933823</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01904495491959511</v>
+        <v>0.02119494614426489</v>
       </c>
       <c r="T82" t="n">
-        <v>0.019213860728054366</v>
+        <v>0.023662597105741524</v>
       </c>
       <c r="U82" t="n">
-        <v>0.01941413165446968</v>
+        <v>0.026310367113521815</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01964660041923903</v>
+        <v>0.029139088888003734</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0199088207957795</v>
+        <v>0.032146316202604386</v>
       </c>
       <c r="X82" t="n">
-        <v>0.02020450086268403</v>
+        <v>0.03533575713591669</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.020525107183644777</v>
+        <v>0.03869887825163282</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.020877793295228153</v>
+        <v>0.042242833086319174</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.021254542966279186</v>
+        <v>0.04595960540882078</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.02166425844975125</v>
+        <v>0.04985809747209102</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.022096085599820563</v>
+        <v>0.05392745513030612</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.02256159698647075</v>
+        <v>0.058179250953449675</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.02304938726777251</v>
+        <v>0.06260207959959242</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.02357203979311382</v>
+        <v>0.06720852441812229</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.024119322567493412</v>
+        <v>0.0719830432425292</v>
       </c>
     </row>
     <row r="83">
@@ -11519,7 +11519,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15853969659117387</v>
+        <v>-0.026240589416081</v>
       </c>
     </row>
     <row r="17">
@@ -17987,97 +17987,97 @@
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.005237599496685359</v>
+        <v>0.012221260456910372</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005228006594179508</v>
+        <v>0.011234919718700737</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0052212520952869485</v>
+        <v>0.010453771638654644</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00521536647605533</v>
+        <v>0.009728572134835972</v>
       </c>
       <c r="G82" t="n">
-        <v>0.005209554809839136</v>
+        <v>0.009058008087178574</v>
       </c>
       <c r="H82" t="n">
-        <v>0.005203844508950679</v>
+        <v>0.008441599847089618</v>
       </c>
       <c r="I82" t="n">
-        <v>0.005198366470162428</v>
+        <v>0.007878982300288238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005194339258354523</v>
+        <v>0.007370888963237522</v>
       </c>
       <c r="K82" t="n">
-        <v>0.005190901449110522</v>
+        <v>0.006915984235291453</v>
       </c>
       <c r="L82" t="n">
-        <v>0.005187562229802654</v>
+        <v>0.006513313908708429</v>
       </c>
       <c r="M82" t="n">
-        <v>0.005184258588374657</v>
+        <v>0.006162362255549783</v>
       </c>
       <c r="N82" t="n">
-        <v>0.005181100015988398</v>
+        <v>0.0058627966293881605</v>
       </c>
       <c r="O82" t="n">
-        <v>0.005179363426853755</v>
+        <v>0.005615462295731007</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0051782280998063195</v>
+        <v>0.0054191172593180586</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.005177095811096593</v>
+        <v>0.005272752293869003</v>
       </c>
       <c r="R82" t="n">
         <v>0.005175966700397133</v>
       </c>
       <c r="S82" t="n">
-        <v>0.0051748390022563024</v>
+        <v>0.005128367929322663</v>
       </c>
       <c r="T82" t="n">
-        <v>0.005174946595406433</v>
+        <v>0.005130809018969658</v>
       </c>
       <c r="U82" t="n">
-        <v>0.005176068830962414</v>
+        <v>0.005182698311650066</v>
       </c>
       <c r="V82" t="n">
-        <v>0.005177186496083082</v>
+        <v>0.005282655304066259</v>
       </c>
       <c r="W82" t="n">
-        <v>0.005178301633050641</v>
+        <v>0.00543033035213811</v>
       </c>
       <c r="X82" t="n">
-        <v>0.005179414088651624</v>
+        <v>0.005625381105280913</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.005181158468572772</v>
+        <v>0.005868109344982558</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.005184223701535731</v>
+        <v>0.006158880432531272</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.005187409953132664</v>
+        <v>0.0064961801059762615</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.005190610292036049</v>
+        <v>0.006879596029107527</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.005193898773527901</v>
+        <v>0.007309420469940458</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.005197569028853467</v>
+        <v>0.007793389146413214</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.0052030128754643485</v>
+        <v>0.00835522608247285</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.0052087800602567</v>
+        <v>0.008972422847771128</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.005215220465368995</v>
+        <v>0.009711166106525757</v>
       </c>
     </row>
     <row r="83">
@@ -22438,97 +22438,97 @@
         <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>0.00563759949668536</v>
+        <v>0.012621260456910371</v>
       </c>
       <c r="D167" t="n">
-        <v>0.005628006594179508</v>
+        <v>0.011634919718700737</v>
       </c>
       <c r="E167" t="n">
-        <v>0.005621252095286949</v>
+        <v>0.010853771638654643</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00561536647605533</v>
+        <v>0.010128572134835971</v>
       </c>
       <c r="G167" t="n">
-        <v>0.005609554809839136</v>
+        <v>0.009458008087178574</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0056038445089506795</v>
+        <v>0.008841599847089618</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0055983664701624285</v>
+        <v>0.008278982300288238</v>
       </c>
       <c r="J167" t="n">
-        <v>0.005594339258354523</v>
+        <v>0.007770888963237522</v>
       </c>
       <c r="K167" t="n">
-        <v>0.005590901449110522</v>
+        <v>0.007315984235291453</v>
       </c>
       <c r="L167" t="n">
-        <v>0.005587562229802654</v>
+        <v>0.00691331390870843</v>
       </c>
       <c r="M167" t="n">
-        <v>0.005584258588374657</v>
+        <v>0.006562362255549783</v>
       </c>
       <c r="N167" t="n">
-        <v>0.005581100015988398</v>
+        <v>0.006262796629388161</v>
       </c>
       <c r="O167" t="n">
-        <v>0.005579363426853755</v>
+        <v>0.0060154622957310075</v>
       </c>
       <c r="P167" t="n">
-        <v>0.00557822809980632</v>
+        <v>0.005819117259318059</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.005577095811096593</v>
+        <v>0.0056727522938690034</v>
       </c>
       <c r="R167" t="n">
         <v>0.005575966700397133</v>
       </c>
       <c r="S167" t="n">
-        <v>0.005574839002256303</v>
+        <v>0.005528367929322663</v>
       </c>
       <c r="T167" t="n">
-        <v>0.005574946595406433</v>
+        <v>0.0055308090189696586</v>
       </c>
       <c r="U167" t="n">
-        <v>0.005576068830962414</v>
+        <v>0.0055826983116500665</v>
       </c>
       <c r="V167" t="n">
-        <v>0.005577186496083082</v>
+        <v>0.005682655304066259</v>
       </c>
       <c r="W167" t="n">
-        <v>0.005578301633050641</v>
+        <v>0.00583033035213811</v>
       </c>
       <c r="X167" t="n">
-        <v>0.005579414088651624</v>
+        <v>0.006025381105280913</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.005581158468572772</v>
+        <v>0.006268109344982558</v>
       </c>
       <c r="Z167" t="n">
-        <v>0.0055842237015357316</v>
+        <v>0.0065588804325312725</v>
       </c>
       <c r="AA167" t="n">
-        <v>0.005587409953132665</v>
+        <v>0.006896180105976262</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.005590610292036049</v>
+        <v>0.007279596029107527</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.005593898773527901</v>
+        <v>0.007709420469940458</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.0055975690288534675</v>
+        <v>0.008193389146413214</v>
       </c>
       <c r="AE167" t="n">
-        <v>0.005603012875464349</v>
+        <v>0.00875522608247285</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.0056087800602567005</v>
+        <v>0.009372422847771128</v>
       </c>
       <c r="AG167" t="n">
-        <v>0.005615220465368995</v>
+        <v>0.010111166106525757</v>
       </c>
     </row>
     <row r="168">
@@ -23049,7 +23049,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07256528790779941</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -29430,64 +29430,64 @@
         <v>0.011048396501457728</v>
       </c>
       <c r="D82" t="n">
-        <v>0.011078103619112843</v>
+        <v>0.011746086233236887</v>
       </c>
       <c r="E82" t="n">
-        <v>0.011215749791911556</v>
+        <v>0.013887680248407735</v>
       </c>
       <c r="F82" t="n">
-        <v>0.011443071777984438</v>
+        <v>0.017454915305100835</v>
       </c>
       <c r="G82" t="n">
-        <v>0.011743974488787612</v>
+        <v>0.022431696314772324</v>
       </c>
       <c r="H82" t="n">
-        <v>0.012158139101537771</v>
+        <v>0.028857704454638887</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01262689595266599</v>
+        <v>0.03667427006113158</v>
       </c>
       <c r="J82" t="n">
-        <v>0.013210396726998256</v>
+        <v>0.04594154481907642</v>
       </c>
       <c r="K82" t="n">
-        <v>0.013856548304048345</v>
+        <v>0.056606303382907806</v>
       </c>
       <c r="L82" t="n">
-        <v>0.014603765031795777</v>
+        <v>0.06868923740322262</v>
       </c>
       <c r="M82" t="n">
-        <v>0.015438157079743383</v>
+        <v>0.08213478380239407</v>
       </c>
       <c r="N82" t="n">
-        <v>0.016362791757423244</v>
+        <v>0.09688237351848422</v>
       </c>
       <c r="O82" t="n">
-        <v>0.017386969328977868</v>
+        <v>0.1128525926106235</v>
       </c>
       <c r="P82" t="n">
-        <v>0.01848518483032132</v>
+        <v>0.12990315365651942</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.019678125296596252</v>
+        <v>0.14790723456079363</v>
       </c>
       <c r="R82" t="n">
-        <v>0.020950238751181426</v>
+        <v>0.16666882549662923</v>
       </c>
       <c r="S82" t="n">
-        <v>0.022305524340031156</v>
+        <v>0.1859768506497102</v>
       </c>
       <c r="T82" t="n">
-        <v>0.023761168115793676</v>
+        <v>0.20559781946807126</v>
       </c>
       <c r="U82" t="n">
-        <v>0.02529476237963178</v>
+        <v>0.22522288843892455</v>
       </c>
       <c r="V82" t="n">
-        <v>0.026934752748379316</v>
+        <v>0.2445591335872094</v>
       </c>
       <c r="W82" t="n">
-        <v>0.028648367550039248</v>
+        <v>0.2632194572399567</v>
       </c>
     </row>
     <row r="83">
@@ -33701,64 +33701,64 @@
         <v>0.011448396501457727</v>
       </c>
       <c r="D167" t="n">
-        <v>0.011478103619112843</v>
+        <v>0.012146086233236887</v>
       </c>
       <c r="E167" t="n">
-        <v>0.011615749791911555</v>
+        <v>0.014287680248407734</v>
       </c>
       <c r="F167" t="n">
-        <v>0.011843071777984437</v>
+        <v>0.017854915305100836</v>
       </c>
       <c r="G167" t="n">
-        <v>0.012143974488787611</v>
+        <v>0.022831696314772325</v>
       </c>
       <c r="H167" t="n">
-        <v>0.01255813910153777</v>
+        <v>0.029257704454638888</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01302689595266599</v>
+        <v>0.03707427006113158</v>
       </c>
       <c r="J167" t="n">
-        <v>0.013610396726998255</v>
+        <v>0.046341544819076416</v>
       </c>
       <c r="K167" t="n">
-        <v>0.014256548304048345</v>
+        <v>0.057006303382907804</v>
       </c>
       <c r="L167" t="n">
-        <v>0.015003765031795777</v>
+        <v>0.06908923740322262</v>
       </c>
       <c r="M167" t="n">
-        <v>0.015838157079743384</v>
+        <v>0.08253478380239407</v>
       </c>
       <c r="N167" t="n">
-        <v>0.016762791757423245</v>
+        <v>0.09728237351848422</v>
       </c>
       <c r="O167" t="n">
-        <v>0.01778696932897787</v>
+        <v>0.1132525926106235</v>
       </c>
       <c r="P167" t="n">
-        <v>0.01888518483032132</v>
+        <v>0.13030315365651943</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.020078125296596253</v>
+        <v>0.14830723456079364</v>
       </c>
       <c r="R167" t="n">
-        <v>0.021350238751181427</v>
+        <v>0.16706882549662924</v>
       </c>
       <c r="S167" t="n">
-        <v>0.022705524340031157</v>
+        <v>0.1863768506497102</v>
       </c>
       <c r="T167" t="n">
-        <v>0.024161168115793677</v>
+        <v>0.20599781946807127</v>
       </c>
       <c r="U167" t="n">
-        <v>0.02569476237963178</v>
+        <v>0.22562288843892456</v>
       </c>
       <c r="V167" t="n">
-        <v>0.027334752748379317</v>
+        <v>0.24495913358720942</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02904836755003925</v>
+        <v>0.2636194572399567</v>
       </c>
     </row>
     <row r="168">
@@ -36465,97 +36465,97 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00563759949668536</v>
+        <v>0.012621260456910371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005628006594179508</v>
+        <v>0.011634919718700737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005621252095286949</v>
+        <v>0.010853771638654643</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00561536647605533</v>
+        <v>0.010128572134835971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005609554809839136</v>
+        <v>0.009458008087178574</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0056038445089506795</v>
+        <v>0.008841599847089618</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0055983664701624285</v>
+        <v>0.008278982300288238</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005594339258354523</v>
+        <v>0.007770888963237522</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005590901449110522</v>
+        <v>0.007315984235291453</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005587562229802654</v>
+        <v>0.00691331390870843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005584258588374657</v>
+        <v>0.006562362255549783</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005581100015988398</v>
+        <v>0.006262796629388161</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005579363426853755</v>
+        <v>0.0060154622957310075</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00557822809980632</v>
+        <v>0.005819117259318059</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005577095811096593</v>
+        <v>0.0056727522938690034</v>
       </c>
       <c r="R8" t="n">
         <v>0.005575966700397133</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005574839002256303</v>
+        <v>0.005528367929322663</v>
       </c>
       <c r="T8" t="n">
-        <v>0.005574946595406433</v>
+        <v>0.0055308090189696586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.005576068830962414</v>
+        <v>0.0055826983116500665</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005577186496083082</v>
+        <v>0.005682655304066259</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005578301633050641</v>
+        <v>0.00583033035213811</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005579414088651624</v>
+        <v>0.006025381105280913</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.005581158468572772</v>
+        <v>0.006268109344982558</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0055842237015357316</v>
+        <v>0.0065588804325312725</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.005587409953132665</v>
+        <v>0.006896180105976262</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.005590610292036049</v>
+        <v>0.007279596029107527</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.005593898773527901</v>
+        <v>0.007709420469940458</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0055975690288534675</v>
+        <v>0.008193389146413214</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.005603012875464349</v>
+        <v>0.00875522608247285</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0056087800602567005</v>
+        <v>0.009372422847771128</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.005615220465368995</v>
+        <v>0.010111166106525757</v>
       </c>
     </row>
     <row r="9">
@@ -36566,97 +36566,97 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0324691664013625</v>
+        <v>0.020275677151646354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.032058384497777544</v>
+        <v>0.0194750551833597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03167541944405283</v>
+        <v>0.01891492101539149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.031331890664223296</v>
+        <v>0.018560374905674124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.031025659901472057</v>
+        <v>0.01840911491721313</v>
       </c>
       <c r="H9" t="n">
-        <v>0.030755894650177522</v>
+        <v>0.018460148380603048</v>
       </c>
       <c r="I9" t="n">
-        <v>0.030531985008891357</v>
+        <v>0.018722708720894755</v>
       </c>
       <c r="J9" t="n">
-        <v>0.030345686400765792</v>
+        <v>0.019188398150474212</v>
       </c>
       <c r="K9" t="n">
-        <v>0.030215728031377426</v>
+        <v>0.01987579609831649</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03012474774487963</v>
+        <v>0.02076739403737164</v>
       </c>
       <c r="M9" t="n">
-        <v>0.030086779118304093</v>
+        <v>0.02187708254668432</v>
       </c>
       <c r="N9" t="n">
-        <v>0.030089680037969174</v>
+        <v>0.023192579855919132</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03014462666109648</v>
+        <v>0.024724925778736636</v>
       </c>
       <c r="P9" t="n">
-        <v>0.030244719621629508</v>
+        <v>0.026467087882514673</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0303968385481501</v>
+        <v>0.028425815973717402</v>
       </c>
       <c r="R9" t="n">
         <v>0.0305961428293257</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03084805139834778</v>
+        <v>0.032983363946738654</v>
       </c>
       <c r="T9" t="n">
-        <v>0.031151659281419396</v>
+        <v>0.03558645405725939</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03151223429547261</v>
+        <v>0.03841056378839933</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03193130079449412</v>
+        <v>0.041457103374428976</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03240743239655989</v>
+        <v>0.044724535347324124</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0329453639526008</v>
+        <v>0.04821748646917414</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.033537798503293026</v>
+        <v>0.05192855465248916</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03419315363955385</v>
+        <v>0.05586605528392668</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0349040918821931</v>
+        <v>0.06002255156702613</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.035680551317623106</v>
+        <v>0.06440788512088975</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.03651279120402111</v>
+        <v>0.06901238412988628</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03741369489458577</v>
+        <v>0.07385128265647303</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.038373767544735864</v>
+        <v>0.07892213986212133</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03940592130880601</v>
+        <v>0.08423121631885269</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0405022348085368</v>
+        <v>0.08978607614074692</v>
       </c>
     </row>
     <row r="10">
@@ -36778,97 +36778,97 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3224566230346805</v>
+        <v>-0.3170385632082173</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3350240026576221</v>
+        <v>-0.3298040683151025</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3436848479414104</v>
+        <v>-0.3386540755713343</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.35214688117280224</v>
+        <v>-0.34732642821392035</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.36040596577768325</v>
+        <v>-0.355818839334464</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3684583030625285</v>
+        <v>-0.3641293327131241</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3763032020618749</v>
+        <v>-0.37225901280255425</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.38393481651217465</v>
+        <v>-0.38020380184122526</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.39135576587905346</v>
+        <v>-0.38796806102259496</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3985582421566488</v>
+        <v>-0.39554569743817786</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.40512115461335346</v>
+        <v>-0.402517308969809</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4119072331097898</v>
+        <v>-0.4097472877549697</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.41847053186665323</v>
+        <v>-0.4167913241017333</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.4248068166397743</v>
+        <v>-0.4236467938143769</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.43091595875473176</v>
+        <v>-0.4303151523776042</v>
       </c>
       <c r="R13" t="n">
         <v>-0.4367943573389891</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.4424415568351248</v>
+        <v>-0.4430854859726366</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.4478551456011051</v>
+        <v>-0.4491876340297849</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.45303490209785163</v>
+        <v>-0.4551020620763901</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.4579796930179511</v>
+        <v>-0.4608290937713428</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.46268743663467654</v>
+        <v>-0.46636807936430164</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.4671580043386858</v>
+        <v>-0.4717202973803325</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.47138766348187555</v>
+        <v>-0.4768833976106742</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.4753775414405221</v>
+        <v>-0.48185986532160535</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.47912428898100573</v>
+        <v>-0.4866476847645728</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.48262977106264493</v>
+        <v>-0.49125003012197166</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.48591356679531206</v>
+        <v>-0.4956877754485778</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.489293117739829</v>
+        <v>-0.5002798470087133</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.4935311513749189</v>
+        <v>-0.5057912134351216</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.4976378266240218</v>
+        <v>-0.511233096256428</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.5032874227359647</v>
+        <v>-0.518282996776015</v>
       </c>
     </row>
     <row r="14">
@@ -36889,97 +36889,97 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3430633702596013</v>
+        <v>-0.33739013798932904</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3398401199514883</v>
+        <v>-0.3343831514734504</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.33300890448905196</v>
+        <v>-0.3277644390509506</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.32597552309302924</v>
+        <v>-0.3209679044527235</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.31873772815736856</v>
+        <v>-0.3139921038934434</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3112936264149734</v>
+        <v>-0.306835921458652</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3036445108969419</v>
+        <v>-0.29950140133379116</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2957863167765584</v>
+        <v>-0.2919852039210199</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.28772361461170304</v>
+        <v>-0.28429259935694134</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.27945030326335013</v>
+        <v>-0.27641816070829955</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.27054713304067624</v>
+        <v>-0.2679432873971317</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.26187860120585754</v>
+        <v>-0.259733100986539</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.25300052288987823</v>
+        <v>-0.25134401637728937</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.24391043432095572</v>
+        <v>-0.24277414532057184</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.23460990943251578</v>
+        <v>-0.23402561330946</v>
       </c>
       <c r="R16" t="n">
         <v>-0.22509710488970386</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.21537322416364135</v>
+        <v>-0.21599032801848916</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.20543755177200362</v>
+        <v>-0.20670504858951622</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1952914562860838</v>
+        <v>-0.19724309372435195</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.18493541061562538</v>
+        <v>-0.1876053723411388</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.1743689778029961</v>
+        <v>-0.17779186123204466</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.16359353353151126</v>
+        <v>-0.16780432785408636</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.1526071011932012</v>
+        <v>-0.15764116567845526</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.1414121869459322</v>
+        <v>-0.14730522952809486</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.13000720025705081</v>
+        <v>-0.13679525640055912</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.11839527300566416</v>
+        <v>-0.12611468484812127</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.1065959104577282</v>
+        <v>-0.11528331063481809</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.09490231687201903</v>
+        <v>-0.10459473964494634</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.08401737639475734</v>
+        <v>-0.09475282086946804</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.07303233460735464</v>
+        <v>-0.08484907472668929</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.06476270339701595</v>
+        <v>-0.07770058192943818</v>
       </c>
     </row>
     <row r="17">
@@ -37207,97 +37207,97 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005237599496685359</v>
+        <v>0.012221260456910372</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005228006594179508</v>
+        <v>0.011234919718700737</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0052212520952869485</v>
+        <v>0.010453771638654644</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00521536647605533</v>
+        <v>0.009728572134835972</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005209554809839136</v>
+        <v>0.009058008087178574</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005203844508950679</v>
+        <v>0.008441599847089618</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005198366470162428</v>
+        <v>0.007878982300288238</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005194339258354523</v>
+        <v>0.007370888963237522</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005190901449110522</v>
+        <v>0.006915984235291453</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005187562229802654</v>
+        <v>0.006513313908708429</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005184258588374657</v>
+        <v>0.006162362255549783</v>
       </c>
       <c r="N22" t="n">
-        <v>0.005181100015988398</v>
+        <v>0.0058627966293881605</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005179363426853755</v>
+        <v>0.005615462295731007</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0051782280998063195</v>
+        <v>0.0054191172593180586</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005177095811096593</v>
+        <v>0.005272752293869003</v>
       </c>
       <c r="R22" t="n">
         <v>0.005175966700397133</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0051748390022563024</v>
+        <v>0.005128367929322663</v>
       </c>
       <c r="T22" t="n">
-        <v>0.005174946595406433</v>
+        <v>0.005130809018969658</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005176068830962414</v>
+        <v>0.005182698311650066</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005177186496083082</v>
+        <v>0.005282655304066259</v>
       </c>
       <c r="W22" t="n">
-        <v>0.005178301633050641</v>
+        <v>0.00543033035213811</v>
       </c>
       <c r="X22" t="n">
-        <v>0.005179414088651624</v>
+        <v>0.005625381105280913</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.005181158468572772</v>
+        <v>0.005868109344982558</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.005184223701535731</v>
+        <v>0.006158880432531272</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.005187409953132664</v>
+        <v>0.0064961801059762615</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.005190610292036049</v>
+        <v>0.006879596029107527</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.005193898773527901</v>
+        <v>0.007309420469940458</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.005197569028853467</v>
+        <v>0.007793389146413214</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0052030128754643485</v>
+        <v>0.00835522608247285</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0052087800602567</v>
+        <v>0.008972422847771128</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.005215220465368995</v>
+        <v>0.009711166106525757</v>
       </c>
     </row>
     <row r="23">
@@ -37308,97 +37308,97 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03234281961957099</v>
+        <v>0.02014933036985484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03193203771598604</v>
+        <v>0.019348708401568188</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03154907266226133</v>
+        <v>0.018788574233599982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.031205543882431783</v>
+        <v>0.018434028123882618</v>
       </c>
       <c r="G23" t="n">
-        <v>0.030899313119680544</v>
+        <v>0.01828276813542162</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03062954786838601</v>
+        <v>0.018333801598811535</v>
       </c>
       <c r="I23" t="n">
-        <v>0.030405638227099845</v>
+        <v>0.018596361939103245</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03021933961897428</v>
+        <v>0.019062051368682702</v>
       </c>
       <c r="K23" t="n">
-        <v>0.030089381249585913</v>
+        <v>0.01974944931652498</v>
       </c>
       <c r="L23" t="n">
-        <v>0.029998400963088125</v>
+        <v>0.020641047255580126</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02996043233651258</v>
+        <v>0.02175073576489281</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02996333325617766</v>
+        <v>0.023066233074127623</v>
       </c>
       <c r="O23" t="n">
-        <v>0.030018279879304968</v>
+        <v>0.024598578996945123</v>
       </c>
       <c r="P23" t="n">
-        <v>0.030118372839837995</v>
+        <v>0.02634074110072316</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.030270491766358588</v>
+        <v>0.02829946919192589</v>
       </c>
       <c r="R23" t="n">
         <v>0.03046979604753419</v>
       </c>
       <c r="S23" t="n">
-        <v>0.030721704616556267</v>
+        <v>0.03285701716494714</v>
       </c>
       <c r="T23" t="n">
-        <v>0.031025312499627884</v>
+        <v>0.035460107275467875</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0313858875136811</v>
+        <v>0.038284217006607814</v>
       </c>
       <c r="V23" t="n">
-        <v>0.031804954012702606</v>
+        <v>0.04133075659263747</v>
       </c>
       <c r="W23" t="n">
-        <v>0.032281085614768376</v>
+        <v>0.04459818856553261</v>
       </c>
       <c r="X23" t="n">
-        <v>0.032819017170809296</v>
+        <v>0.048091139687382635</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03341145172150152</v>
+        <v>0.051802207870697656</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.03406680685776234</v>
+        <v>0.055739708502135166</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03477774510040159</v>
+        <v>0.05989620478523462</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.035554204535831586</v>
+        <v>0.06428153833909823</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.036386444422229595</v>
+        <v>0.06888603734809476</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.037287348112794265</v>
+        <v>0.07372493587468153</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03824742076294435</v>
+        <v>0.07879579308032983</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.03927957452701449</v>
+        <v>0.08410486953706119</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.04037588802674529</v>
+        <v>0.0896597293589554</v>
       </c>
     </row>
     <row r="24">
@@ -37520,97 +37520,97 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.03492899498176966</v>
+        <v>-0.029510935155306395</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04716705719953812</v>
+        <v>-0.04194712285701857</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05551254639427275</v>
+        <v>-0.050481774024196596</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.06367320022274119</v>
+        <v>-0.05885274726385929</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07164489679963615</v>
+        <v>-0.06705777035641691</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.07942385143831972</v>
+        <v>-0.07509488108891522</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.08700938649761306</v>
+        <v>-0.08296519723829238</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.09439566835500102</v>
+        <v>-0.0906646536840516</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.10158532843327382</v>
+        <v>-0.09819762357681529</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.1085705699992826</v>
+        <v>-0.10555802528081165</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.11493031290913336</v>
+        <v>-0.11232646726558884</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.12152729692564565</v>
+        <v>-0.11936735157082562</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.12791558548571316</v>
+        <v>-0.1262363777207932</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.13409095287491624</v>
+        <v>-0.1329309300495188</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.14005327826172018</v>
+        <v>-0.13945247188459262</v>
       </c>
       <c r="R27" t="n">
         <v>-0.1457989679292286</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.1513275727880654</v>
+        <v>-0.15197150192557718</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.15663668697633204</v>
+        <v>-0.15796917540501176</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.16172609404689364</v>
+        <v>-0.16379325402543202</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.16659466509584048</v>
+        <v>-0.16944406584923222</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.17124032211129486</v>
+        <v>-0.17492096484091996</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.17566293950992756</v>
+        <v>-0.1802252325515743</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.1798587869806658</v>
+        <v>-0.18535452110946446</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.18382899354771898</v>
+        <v>-0.1903113174288023</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.18757021093622334</v>
+        <v>-0.19509360671979037</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.191084304375029</v>
+        <v>-0.19970456343435572</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.194390852554303</v>
+        <v>-0.20416506120756878</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.19780729592594518</v>
+        <v>-0.20879402519482967</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.20209636017059365</v>
+        <v>-0.2143564222307965</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.2062682017245289</v>
+        <v>-0.2198634713569351</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.21199709666046357</v>
+        <v>-0.22699267070051404</v>
       </c>
     </row>
     <row r="28">
@@ -37631,97 +37631,97 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07896462596953183</v>
+        <v>-0.07329139369925955</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0754231900236312</v>
+        <v>-0.06996622154559336</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.06828660780623871</v>
+        <v>-0.0630421423681373</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.06096069342123604</v>
+        <v>-0.0559530747809303</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.053443213520216803</v>
+        <v>-0.04869758925629172</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.045732288467535354</v>
+        <v>-0.041274583511213936</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03782922429888119</v>
+        <v>-0.033686114735730466</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.029729968564637804</v>
+        <v>-0.025928855709099252</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.02143910357168826</v>
+        <v>-0.018008088316926567</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.012950539301341244</v>
+        <v>-0.009918396746290668</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0038450365538970493</v>
+        <v>-0.0012411909103525187</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00501289754706633</v>
+        <v>0.007158397766384791</v>
       </c>
       <c r="O30" t="n">
-        <v>0.014067438639365468</v>
+        <v>0.015723945151954345</v>
       </c>
       <c r="P30" t="n">
-        <v>0.023321041894236155</v>
+        <v>0.024457330894620013</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03277212540877753</v>
+        <v>0.033356421531833304</v>
       </c>
       <c r="R30" t="n">
         <v>0.042422525179829126</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05227103103007225</v>
+        <v>0.05165392717522446</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06231835236777876</v>
+        <v>0.06105085555026619</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0725631151800436</v>
+        <v>0.0706114777417754</v>
       </c>
       <c r="V30" t="n">
-        <v>0.08300484174821651</v>
+        <v>0.08033488002270309</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09364396485396412</v>
+        <v>0.09022108142491557</v>
       </c>
       <c r="X30" t="n">
-        <v>0.10447910527114881</v>
+        <v>0.1002683109485736</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.11551223669823406</v>
+        <v>0.11047817221297998</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.12674085070130592</v>
+        <v>0.12084780811914325</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.13816653617053948</v>
+        <v>0.13137848002703112</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.14978616021799812</v>
+        <v>0.14206674837554104</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1615802172025949</v>
+        <v>0.1528928170255051</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.17325550312413943</v>
+        <v>0.16356308035121211</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.18410913472870077</v>
+        <v>0.1733736902539901</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.19504986796081755</v>
+        <v>0.18323312784148302</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.2032621930928214</v>
+        <v>0.19032431456039933</v>
       </c>
     </row>
     <row r="31">
@@ -37949,97 +37949,97 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0056175994966853595</v>
+        <v>0.012601260456910372</v>
       </c>
       <c r="D36" t="n">
-        <v>0.005608006594179508</v>
+        <v>0.011614919718700737</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005601252095286949</v>
+        <v>0.010833771638654644</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00559536647605533</v>
+        <v>0.010108572134835972</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005589554809839136</v>
+        <v>0.009438008087178575</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0055838445089506795</v>
+        <v>0.008821599847089618</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0055783664701624285</v>
+        <v>0.008258982300288239</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005574339258354523</v>
+        <v>0.007750888963237522</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005570901449110522</v>
+        <v>0.007295984235291453</v>
       </c>
       <c r="L36" t="n">
-        <v>0.005567562229802654</v>
+        <v>0.0068933139087084296</v>
       </c>
       <c r="M36" t="n">
-        <v>0.005564258588374657</v>
+        <v>0.006542362255549783</v>
       </c>
       <c r="N36" t="n">
-        <v>0.005561100015988398</v>
+        <v>0.006242796629388161</v>
       </c>
       <c r="O36" t="n">
-        <v>0.005559363426853755</v>
+        <v>0.005995462295731007</v>
       </c>
       <c r="P36" t="n">
-        <v>0.00555822809980632</v>
+        <v>0.005799117259318059</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.005557095811096593</v>
+        <v>0.005652752293869003</v>
       </c>
       <c r="R36" t="n">
         <v>0.005555966700397133</v>
       </c>
       <c r="S36" t="n">
-        <v>0.005554839002256303</v>
+        <v>0.005508367929322663</v>
       </c>
       <c r="T36" t="n">
-        <v>0.005554946595406433</v>
+        <v>0.0055108090189696585</v>
       </c>
       <c r="U36" t="n">
-        <v>0.005556068830962414</v>
+        <v>0.0055626983116500665</v>
       </c>
       <c r="V36" t="n">
-        <v>0.005557186496083082</v>
+        <v>0.005662655304066259</v>
       </c>
       <c r="W36" t="n">
-        <v>0.005558301633050641</v>
+        <v>0.00581033035213811</v>
       </c>
       <c r="X36" t="n">
-        <v>0.005559414088651624</v>
+        <v>0.006005381105280913</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.005561158468572772</v>
+        <v>0.006248109344982558</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0055642237015357315</v>
+        <v>0.0065388804325312725</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0055674099531326645</v>
+        <v>0.006876180105976262</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.005570610292036049</v>
+        <v>0.007259596029107527</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.005573898773527901</v>
+        <v>0.007689420469940458</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0055775690288534675</v>
+        <v>0.008173389146413215</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.005583012875464349</v>
+        <v>0.00873522608247285</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0055887800602567005</v>
+        <v>0.009352422847771128</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.005595220465368995</v>
+        <v>0.010091166106525757</v>
       </c>
     </row>
     <row r="37">
@@ -38050,97 +38050,97 @@
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.032462849062272925</v>
+        <v>0.02026935981255678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03205206715868797</v>
+        <v>0.019468737844270126</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03166910210496326</v>
+        <v>0.018908603676301917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.031325573325133714</v>
+        <v>0.01855405756658455</v>
       </c>
       <c r="G37" t="n">
-        <v>0.031019342562382483</v>
+        <v>0.018402797578123554</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03074957731108794</v>
+        <v>0.01845383104151347</v>
       </c>
       <c r="I37" t="n">
-        <v>0.030525667669801783</v>
+        <v>0.01871639138180518</v>
       </c>
       <c r="J37" t="n">
-        <v>0.030339369061676218</v>
+        <v>0.019182080811384637</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03020941069228785</v>
+        <v>0.019869478759226913</v>
       </c>
       <c r="L37" t="n">
-        <v>0.030118430405790056</v>
+        <v>0.020761076698282064</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03008046177921451</v>
+        <v>0.021870765207594744</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0300833626988796</v>
+        <v>0.023186262516829557</v>
       </c>
       <c r="O37" t="n">
-        <v>0.030138309322006906</v>
+        <v>0.02471860843964706</v>
       </c>
       <c r="P37" t="n">
-        <v>0.030238402282539933</v>
+        <v>0.026460770543425098</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.030390521209060526</v>
+        <v>0.028419498634627827</v>
       </c>
       <c r="R37" t="n">
         <v>0.030589825490236127</v>
       </c>
       <c r="S37" t="n">
-        <v>0.030841734059258205</v>
+        <v>0.03297704660764908</v>
       </c>
       <c r="T37" t="n">
-        <v>0.031145341942329822</v>
+        <v>0.035580136718169814</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03150591695638303</v>
+        <v>0.03840424644930975</v>
       </c>
       <c r="V37" t="n">
-        <v>0.031924983455404544</v>
+        <v>0.0414507860353394</v>
       </c>
       <c r="W37" t="n">
-        <v>0.032401115057470314</v>
+        <v>0.04471821800823455</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03293904661351122</v>
+        <v>0.04821116913008457</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03353148116420346</v>
+        <v>0.05192223731339958</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.03418683630046428</v>
+        <v>0.055859737944837104</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.03489777454310353</v>
+        <v>0.06001623422793655</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.035674233978533525</v>
+        <v>0.06440156778180017</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.036506473864931534</v>
+        <v>0.0690060667907967</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.03740737755549619</v>
+        <v>0.07384496531738345</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.03836745020564629</v>
+        <v>0.07891582252303175</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.03939960396971643</v>
+        <v>0.08422489897976311</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.04049591746944722</v>
+        <v>0.08977975880165734</v>
       </c>
     </row>
     <row r="38">
@@ -38262,97 +38262,97 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25274876608517793</v>
+        <v>0.258166825911641</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24083373030601107</v>
+        <v>0.24605366464853062</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2327972992234333</v>
+        <v>0.23782807159350963</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2249317201176213</v>
+        <v>0.22975217307650314</v>
       </c>
       <c r="G41" t="n">
-        <v>0.21724110049235584</v>
+        <v>0.22182822693557525</v>
       </c>
       <c r="H41" t="n">
-        <v>0.20972921133498157</v>
+        <v>0.21405818168438612</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2023967172702819</v>
+        <v>0.20644090652960273</v>
       </c>
       <c r="J41" t="n">
-        <v>0.19524943958791116</v>
+        <v>0.19898045425886063</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1882847352163528</v>
+        <v>0.19167244007281137</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1815103899247319</v>
+        <v>0.18452293464320277</v>
       </c>
       <c r="M41" t="n">
-        <v>0.17534747357815547</v>
+        <v>0.1779513192217</v>
       </c>
       <c r="N41" t="n">
-        <v>0.16893323682075512</v>
+        <v>0.1710931821755751</v>
       </c>
       <c r="O41" t="n">
-        <v>0.16271360730879342</v>
+        <v>0.16439281507371337</v>
       </c>
       <c r="P41" t="n">
-        <v>0.15669280253648588</v>
+        <v>0.1578528253618834</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.15087093580220365</v>
+        <v>0.1514717421793312</v>
       </c>
       <c r="R41" t="n">
         <v>0.1452515939770863</v>
       </c>
       <c r="S41" t="n">
-        <v>0.13983521999249438</v>
+        <v>0.13919129085498258</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1346242142403521</v>
+        <v>0.13329172581167226</v>
       </c>
       <c r="U41" t="n">
-        <v>0.12961878838612725</v>
+        <v>0.12755162840758885</v>
       </c>
       <c r="V41" t="n">
-        <v>0.12482006724060382</v>
+        <v>0.12197066648721211</v>
       </c>
       <c r="W41" t="n">
-        <v>0.12023012541127366</v>
+        <v>0.11654948268164857</v>
       </c>
       <c r="X41" t="n">
-        <v>0.11584908576598645</v>
+        <v>0.11128679272433968</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.11168067658937395</v>
+        <v>0.1061849424605753</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.10772376751992291</v>
+        <v>0.10124144363883958</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.10398170618439596</v>
+        <v>0.09645831040082888</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.10045262739507563</v>
+        <v>0.09183236833574884</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0971169531921598</v>
+        <v>0.087342744538894</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.09365724454330987</v>
+        <v>0.08267051527442543</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.08931077787657637</v>
+        <v>0.07705071581637359</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.08506739955339201</v>
+        <v>0.07147212992098576</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.07925283698764506</v>
+        <v>0.06425726294759466</v>
       </c>
     </row>
     <row r="42">
@@ -38373,97 +38373,97 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1852790954335837</v>
+        <v>0.19095232770385587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18913294092435046</v>
+        <v>0.19458990940238818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.19656910701964928</v>
+        <v>0.2018135724577508</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2041817650143038</v>
+        <v>0.2091893836546096</v>
       </c>
       <c r="G44" t="n">
-        <v>0.21197313428124073</v>
+        <v>0.21671875854516595</v>
       </c>
       <c r="H44" t="n">
-        <v>0.21994508110712493</v>
+        <v>0.2244027860634463</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2280962867344335</v>
+        <v>0.23223939629758422</v>
       </c>
       <c r="J44" t="n">
-        <v>0.23643079151871857</v>
+        <v>0.24023190437425715</v>
       </c>
       <c r="K44" t="n">
-        <v>0.24494400168739022</v>
+        <v>0.24837501694215186</v>
       </c>
       <c r="L44" t="n">
-        <v>0.25364199642234947</v>
+        <v>0.25667413897740005</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2629440047159508</v>
+        <v>0.26554785035949535</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2719855098672131</v>
+        <v>0.2741310100865316</v>
       </c>
       <c r="O44" t="n">
-        <v>0.2812106785669589</v>
+        <v>0.2828671850795477</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2906219576702749</v>
+        <v>0.29175824667065886</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3002177575893622</v>
+        <v>0.30080205371241797</v>
       </c>
       <c r="R44" t="n">
         <v>0.30999990726778687</v>
       </c>
       <c r="S44" t="n">
-        <v>0.31996719010692537</v>
+        <v>0.3193500862520776</v>
       </c>
       <c r="T44" t="n">
-        <v>0.330120309726027</v>
+        <v>0.3288528129085144</v>
       </c>
       <c r="U44" t="n">
-        <v>0.34045788695572743</v>
+        <v>0.3385062495174593</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3509794395537329</v>
+        <v>0.3483094778282194</v>
       </c>
       <c r="W44" t="n">
-        <v>0.36168539641110165</v>
+        <v>0.35826251298205314</v>
       </c>
       <c r="X44" t="n">
-        <v>0.3725743750443137</v>
+        <v>0.36836358072173836</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3836483465278334</v>
+        <v>0.3786142820425794</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.3949048004372605</v>
+        <v>0.3890117578550978</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.40634532430589193</v>
+        <v>0.3995572681623835</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.4179667845225886</v>
+        <v>0.4102473726801315</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.42974967535677144</v>
+        <v>0.42106227517968153</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.4414007933524722</v>
+        <v>0.4317083705795448</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.4522172564336706</v>
+        <v>0.44148181195895997</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.4631078223564468</v>
+        <v>0.4512910822371123</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.4712569838382163</v>
+        <v>0.45831910530579417</v>
       </c>
     </row>
     <row r="45">
@@ -38691,97 +38691,97 @@
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.006777599496685359</v>
+        <v>0.013761260456910372</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006768006594179508</v>
+        <v>0.012774919718700737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006761252095286948</v>
+        <v>0.011993771638654643</v>
       </c>
       <c r="F50" t="n">
-        <v>0.006755366476055329</v>
+        <v>0.011268572134835972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0067495548098391355</v>
+        <v>0.010598008087178574</v>
       </c>
       <c r="H50" t="n">
-        <v>0.006743844508950679</v>
+        <v>0.009981599847089618</v>
       </c>
       <c r="I50" t="n">
-        <v>0.006738366470162428</v>
+        <v>0.009418982300288238</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0067343392583545224</v>
+        <v>0.008910888963237521</v>
       </c>
       <c r="K50" t="n">
-        <v>0.006730901449110521</v>
+        <v>0.008455984235291453</v>
       </c>
       <c r="L50" t="n">
-        <v>0.006727562229802654</v>
+        <v>0.008053313908708429</v>
       </c>
       <c r="M50" t="n">
-        <v>0.006724258588374657</v>
+        <v>0.007702362255549783</v>
       </c>
       <c r="N50" t="n">
-        <v>0.006721100015988398</v>
+        <v>0.00740279662938816</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0067193634268537545</v>
+        <v>0.007155462295731007</v>
       </c>
       <c r="P50" t="n">
-        <v>0.006718228099806319</v>
+        <v>0.006959117259318058</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.006717095811096593</v>
+        <v>0.006812752293869003</v>
       </c>
       <c r="R50" t="n">
         <v>0.006715966700397133</v>
       </c>
       <c r="S50" t="n">
-        <v>0.006714839002256302</v>
+        <v>0.006668367929322663</v>
       </c>
       <c r="T50" t="n">
-        <v>0.006714946595406433</v>
+        <v>0.006670809018969658</v>
       </c>
       <c r="U50" t="n">
-        <v>0.006716068830962414</v>
+        <v>0.006722698311650066</v>
       </c>
       <c r="V50" t="n">
-        <v>0.006717186496083082</v>
+        <v>0.006822655304066259</v>
       </c>
       <c r="W50" t="n">
-        <v>0.006718301633050641</v>
+        <v>0.00697033035213811</v>
       </c>
       <c r="X50" t="n">
-        <v>0.006719414088651623</v>
+        <v>0.007165381105280913</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.006721158468572771</v>
+        <v>0.007408109344982558</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.006724223701535731</v>
+        <v>0.007698880432531272</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.006727409953132664</v>
+        <v>0.008036180105976261</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.006730610292036049</v>
+        <v>0.008419596029107527</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.006733898773527901</v>
+        <v>0.008849420469940458</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.006737569028853467</v>
+        <v>0.009333389146413214</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.006743012875464348</v>
+        <v>0.00989522608247285</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.0067487800602567</v>
+        <v>0.010512422847771128</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.006755220465368994</v>
+        <v>0.011251166106525757</v>
       </c>
     </row>
     <row r="51">
@@ -38792,97 +38792,97 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03282925472946831</v>
+        <v>0.020635765479752162</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03241847282588335</v>
+        <v>0.01983514351146551</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03203550777215864</v>
+        <v>0.019275009343497296</v>
       </c>
       <c r="F51" t="n">
-        <v>0.031691978992329096</v>
+        <v>0.01892046323377993</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03138574822957786</v>
+        <v>0.018769203245318937</v>
       </c>
       <c r="H51" t="n">
-        <v>0.031115982978283323</v>
+        <v>0.018820236708708853</v>
       </c>
       <c r="I51" t="n">
-        <v>0.030892073336997165</v>
+        <v>0.019082797049000563</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0307057747288716</v>
+        <v>0.01954848647858002</v>
       </c>
       <c r="K51" t="n">
-        <v>0.030575816359483234</v>
+        <v>0.020235884426422296</v>
       </c>
       <c r="L51" t="n">
-        <v>0.03048483607298544</v>
+        <v>0.021127482365477446</v>
       </c>
       <c r="M51" t="n">
-        <v>0.030446867446409894</v>
+        <v>0.022237170874790126</v>
       </c>
       <c r="N51" t="n">
-        <v>0.03044976836607498</v>
+        <v>0.023552668184024936</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03050471498920229</v>
+        <v>0.025085014106842444</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03060480794973531</v>
+        <v>0.02682717621062048</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03075692687625591</v>
+        <v>0.02878590430182321</v>
       </c>
       <c r="R51" t="n">
         <v>0.03095623115743151</v>
       </c>
       <c r="S51" t="n">
-        <v>0.031208139726453588</v>
+        <v>0.03334345227484446</v>
       </c>
       <c r="T51" t="n">
-        <v>0.03151174760952521</v>
+        <v>0.035946542385365196</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03187232262357841</v>
+        <v>0.038770652116505135</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03229138912259993</v>
+        <v>0.041817191702534784</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0327675207246657</v>
+        <v>0.04508462367542993</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0333054522807066</v>
+        <v>0.048577574797279956</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.03389788683139884</v>
+        <v>0.05228864298059496</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03455324196765966</v>
+        <v>0.056226143612032486</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03526418021029891</v>
+        <v>0.060382639895131936</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.03604063964572891</v>
+        <v>0.06476797344899556</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.036872879532126916</v>
+        <v>0.06937247245799208</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.03777378322269157</v>
+        <v>0.07421137098457883</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.03873385587284167</v>
+        <v>0.07928222819022714</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.03976600963691181</v>
+        <v>0.08459130464695849</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.0408623231366426</v>
+        <v>0.09014616446885272</v>
       </c>
     </row>
     <row r="52">
@@ -39004,97 +39004,97 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5366426685663884</v>
+        <v>0.5420607283928515</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5250370583334937</v>
+        <v>0.5302569926760131</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5172963905091681</v>
+        <v>0.5223271628792441</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5097128979585037</v>
+        <v>0.5145333509173855</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5022906744367817</v>
+        <v>0.5068778008800009</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4950334778500982</v>
+        <v>0.4993624481995026</v>
       </c>
       <c r="I55" t="n">
-        <v>0.48794196040988064</v>
+        <v>0.49198614966920146</v>
       </c>
       <c r="J55" t="n">
-        <v>0.48102193166092255</v>
+        <v>0.48475294633187205</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4742707374559148</v>
+        <v>0.47765844231237325</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4676961531577982</v>
+        <v>0.4707086978762693</v>
       </c>
       <c r="M55" t="n">
-        <v>0.46171923889561095</v>
+        <v>0.4643230845391555</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4554772362480052</v>
+        <v>0.4576371816028252</v>
       </c>
       <c r="O55" t="n">
-        <v>0.4494160644767963</v>
+        <v>0.45109527224171625</v>
       </c>
       <c r="P55" t="n">
-        <v>0.443539933353193</v>
+        <v>0.4446999561785903</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4378489491243766</v>
+        <v>0.4384497555015043</v>
       </c>
       <c r="R55" t="n">
         <v>0.43234669228245826</v>
       </c>
       <c r="S55" t="n">
-        <v>0.4270336000522416</v>
+        <v>0.42638967091472996</v>
       </c>
       <c r="T55" t="n">
-        <v>0.4219120677918436</v>
+        <v>0.42057957936316387</v>
       </c>
       <c r="U55" t="n">
-        <v>0.41698230280592086</v>
+        <v>0.41491514282738257</v>
       </c>
       <c r="V55" t="n">
-        <v>0.41224542621765264</v>
+        <v>0.40939602546426107</v>
       </c>
       <c r="W55" t="n">
-        <v>0.4077035096203149</v>
+        <v>0.4040228668906898</v>
       </c>
       <c r="X55" t="n">
-        <v>0.4033566735410751</v>
+        <v>0.3987943804994284</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.39920864459753125</v>
+        <v>0.3937129104687326</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.3952582914348665</v>
+        <v>0.38877596755378324</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.3915089613603178</v>
+        <v>0.3839855655767506</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.3879587895404358</v>
+        <v>0.37933853048110894</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.3845881990434627</v>
+        <v>0.37481399039019697</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.3810797525388312</v>
+        <v>0.37009302326994675</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.37667072883000596</v>
+        <v>0.36441066676980316</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.37235097732736155</v>
+        <v>0.3587557076949552</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.36644622916710734</v>
+        <v>0.351450655127057</v>
       </c>
     </row>
     <row r="56">
@@ -39115,97 +39115,97 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4462590624390388</v>
+        <v>0.45193229470931096</v>
       </c>
       <c r="D58" t="n">
-        <v>0.45041247507581333</v>
+        <v>0.4558694435538511</v>
       </c>
       <c r="E58" t="n">
-        <v>0.458135663302473</v>
+        <v>0.46338012874057455</v>
       </c>
       <c r="F58" t="n">
-        <v>0.46602278442478723</v>
+        <v>0.47103040306509264</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4740760444387371</v>
+        <v>0.4788216687026623</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4822972968668022</v>
+        <v>0.4867550018231237</v>
       </c>
       <c r="I58" t="n">
-        <v>0.49068521080065614</v>
+        <v>0.49482832036380703</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4992438150590224</v>
+        <v>0.5030449279145608</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5079685049470182</v>
+        <v>0.5113995202017798</v>
       </c>
       <c r="L58" t="n">
-        <v>0.516865349339322</v>
+        <v>0.5198974918943725</v>
       </c>
       <c r="M58" t="n">
-        <v>0.5263535675366362</v>
+        <v>0.5289574131801807</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5355686337623717</v>
+        <v>0.5377141339816901</v>
       </c>
       <c r="O58" t="n">
-        <v>0.5449547062482294</v>
+        <v>0.5466112127608181</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5545142240070723</v>
+        <v>0.5556505130074563</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5642455902261586</v>
+        <v>0.5648298863492144</v>
       </c>
       <c r="R58" t="n">
         <v>0.5741506272417441</v>
       </c>
       <c r="S58" t="n">
-        <v>0.5842281124658497</v>
+        <v>0.5836110086110019</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5944787441466161</v>
+        <v>0.5932112473291034</v>
       </c>
       <c r="U58" t="n">
-        <v>0.6049011383620786</v>
+        <v>0.6029495009238104</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6154948087360832</v>
+        <v>0.6128248470105697</v>
       </c>
       <c r="W58" t="n">
-        <v>0.6262601806447696</v>
+        <v>0.622837297215721</v>
       </c>
       <c r="X58" t="n">
-        <v>0.6371958687088118</v>
+        <v>0.6329850743862366</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.6483038417261229</v>
+        <v>0.6432697772408688</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.659581587615115</v>
+        <v>0.6536885450329524</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.6710306928713448</v>
+        <v>0.6642426367278365</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.6826480234654282</v>
+        <v>0.674928611622971</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.6944140738680578</v>
+        <v>0.6857266736909678</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.7060356414440446</v>
+        <v>0.6963432186711175</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.7168098455576142</v>
+        <v>0.7060744010829034</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.7276454460244888</v>
+        <v>0.7158287059051542</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.735726938241023</v>
+        <v>0.7227890597086009</v>
       </c>
     </row>
     <row r="59">
@@ -39433,97 +39433,97 @@
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.008717599496685359</v>
+        <v>0.015701260456910372</v>
       </c>
       <c r="D64" t="n">
-        <v>0.008708006594179508</v>
+        <v>0.014714919718700738</v>
       </c>
       <c r="E64" t="n">
-        <v>0.008701252095286948</v>
+        <v>0.013933771638654644</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00869536647605533</v>
+        <v>0.013208572134835972</v>
       </c>
       <c r="G64" t="n">
-        <v>0.008689554809839135</v>
+        <v>0.012538008087178575</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00868384450895068</v>
+        <v>0.011921599847089619</v>
       </c>
       <c r="I64" t="n">
-        <v>0.008678366470162428</v>
+        <v>0.011358982300288239</v>
       </c>
       <c r="J64" t="n">
-        <v>0.008674339258354523</v>
+        <v>0.010850888963237522</v>
       </c>
       <c r="K64" t="n">
-        <v>0.008670901449110521</v>
+        <v>0.010395984235291453</v>
       </c>
       <c r="L64" t="n">
-        <v>0.008667562229802655</v>
+        <v>0.00999331390870843</v>
       </c>
       <c r="M64" t="n">
-        <v>0.008664258588374657</v>
+        <v>0.009642362255549783</v>
       </c>
       <c r="N64" t="n">
-        <v>0.008661100015988398</v>
+        <v>0.00934279662938816</v>
       </c>
       <c r="O64" t="n">
-        <v>0.008659363426853755</v>
+        <v>0.009095462295731008</v>
       </c>
       <c r="P64" t="n">
-        <v>0.00865822809980632</v>
+        <v>0.008899117259318058</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.008657095811096593</v>
+        <v>0.008752752293869003</v>
       </c>
       <c r="R64" t="n">
         <v>0.008655966700397134</v>
       </c>
       <c r="S64" t="n">
-        <v>0.008654839002256302</v>
+        <v>0.008608367929322663</v>
       </c>
       <c r="T64" t="n">
-        <v>0.008654946595406433</v>
+        <v>0.008610809018969658</v>
       </c>
       <c r="U64" t="n">
-        <v>0.008656068830962415</v>
+        <v>0.008662698311650067</v>
       </c>
       <c r="V64" t="n">
-        <v>0.008657186496083082</v>
+        <v>0.00876265530406626</v>
       </c>
       <c r="W64" t="n">
-        <v>0.008658301633050642</v>
+        <v>0.00891033035213811</v>
       </c>
       <c r="X64" t="n">
-        <v>0.008659414088651623</v>
+        <v>0.009105381105280913</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.008661158468572771</v>
+        <v>0.009348109344982558</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.008664223701535731</v>
+        <v>0.009638880432531272</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.008667409953132664</v>
+        <v>0.009976180105976262</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.008670610292036049</v>
+        <v>0.010359596029107528</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.0086738987735279</v>
+        <v>0.010789420469940457</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.008677569028853468</v>
+        <v>0.011273389146413215</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.008683012875464349</v>
+        <v>0.01183522608247285</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.0086887800602567</v>
+        <v>0.012452422847771129</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.008695220465368995</v>
+        <v>0.013191166106525758</v>
       </c>
     </row>
     <row r="65">
@@ -39534,97 +39534,97 @@
         <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.033442036621157134</v>
+        <v>0.02124854737144099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.033031254717572185</v>
+        <v>0.020447925403154335</v>
       </c>
       <c r="E65" t="n">
-        <v>0.032648289663847474</v>
+        <v>0.01988779123518613</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03230476088401793</v>
+        <v>0.019533245125468765</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03199853012126669</v>
+        <v>0.019381985137007767</v>
       </c>
       <c r="H65" t="n">
-        <v>0.031728764869972156</v>
+        <v>0.019433018600397683</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03150485522868599</v>
+        <v>0.019695578940689393</v>
       </c>
       <c r="J65" t="n">
-        <v>0.03131855662056043</v>
+        <v>0.02016126837026885</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03118859825117206</v>
+        <v>0.020848666318111126</v>
       </c>
       <c r="L65" t="n">
-        <v>0.031097617964674272</v>
+        <v>0.021740264257166273</v>
       </c>
       <c r="M65" t="n">
-        <v>0.031059649338098728</v>
+        <v>0.022849952766478956</v>
       </c>
       <c r="N65" t="n">
-        <v>0.031062550257763808</v>
+        <v>0.02416545007571377</v>
       </c>
       <c r="O65" t="n">
-        <v>0.031117496880891115</v>
+        <v>0.02569779599853127</v>
       </c>
       <c r="P65" t="n">
-        <v>0.031217589841424143</v>
+        <v>0.027439958102309307</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.03136970876794473</v>
+        <v>0.029398686193512037</v>
       </c>
       <c r="R65" t="n">
         <v>0.03156901304912033</v>
       </c>
       <c r="S65" t="n">
-        <v>0.031820921618142414</v>
+        <v>0.03395623416653329</v>
       </c>
       <c r="T65" t="n">
-        <v>0.03212452950121403</v>
+        <v>0.03655932427705402</v>
       </c>
       <c r="U65" t="n">
-        <v>0.032485104515267246</v>
+        <v>0.03938343400819396</v>
       </c>
       <c r="V65" t="n">
-        <v>0.032904171014288754</v>
+        <v>0.04242997359422362</v>
       </c>
       <c r="W65" t="n">
-        <v>0.033380302616354524</v>
+        <v>0.04569740556711876</v>
       </c>
       <c r="X65" t="n">
-        <v>0.033918234172395444</v>
+        <v>0.04919035668896878</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.03451066872308767</v>
+        <v>0.0529014248722838</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.035166023859348486</v>
+        <v>0.05683892550372131</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.035876962101987736</v>
+        <v>0.06099542178682077</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.036653421537417734</v>
+        <v>0.06538075534068438</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.03748566142381574</v>
+        <v>0.0699852543496809</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.03838656511438041</v>
+        <v>0.07482415287626767</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.0393466377645305</v>
+        <v>0.07989501008191598</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.04037879152860064</v>
+        <v>0.08520408653864733</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.04147510502833144</v>
+        <v>0.09075894636054155</v>
       </c>
     </row>
     <row r="66">
@@ -39746,97 +39746,97 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7726258123811969</v>
+        <v>0.7780438722076599</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7612672917717743</v>
+        <v>0.7664872261142941</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7537624444068647</v>
+        <v>0.7587932167769407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7464034916580025</v>
+        <v>0.7512239446168842</v>
       </c>
       <c r="G69" t="n">
-        <v>0.739194516336716</v>
+        <v>0.7437816427799351</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7321392659556852</v>
+        <v>0.7364682363050895</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7252383828837643</v>
+        <v>0.7292825721430849</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7184976673744964</v>
+        <v>0.722228682045446</v>
       </c>
       <c r="K69" t="n">
-        <v>0.7119144565410986</v>
+        <v>0.715302161397557</v>
       </c>
       <c r="L69" t="n">
-        <v>0.7054965175592385</v>
+        <v>0.7085090622777095</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6996649029232829</v>
+        <v>0.7022687485668274</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6935568471301855</v>
+        <v>0.6957167924850057</v>
       </c>
       <c r="O69" t="n">
-        <v>0.6876182629133806</v>
+        <v>0.6892974706783005</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6818533540693321</v>
+        <v>0.6830133768947296</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.676262221424405</v>
+        <v>0.6768630278015326</v>
       </c>
       <c r="R69" t="n">
         <v>0.6708484406040848</v>
       </c>
       <c r="S69" t="n">
-        <v>0.6656124445209785</v>
+        <v>0.6649685153834667</v>
       </c>
       <c r="T69" t="n">
-        <v>0.660556624775646</v>
+        <v>0.6592241363469663</v>
       </c>
       <c r="U69" t="n">
-        <v>0.6556811854700082</v>
+        <v>0.6536140254914697</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6509872450794878</v>
+        <v>0.6481378443260961</v>
       </c>
       <c r="W69" t="n">
-        <v>0.6464768731047108</v>
+        <v>0.6427962303750856</v>
       </c>
       <c r="X69" t="n">
-        <v>0.642150188535404</v>
+        <v>0.6375878954937573</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.6380109170070098</v>
+        <v>0.6325151828782112</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.634057926737887</v>
+        <v>0.6275756028568036</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.6302945651638013</v>
+        <v>0.6227711693802344</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.626718968135179</v>
+        <v>0.6180987090758521</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.6233115599594512</v>
+        <v>0.6135373513061855</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.6197549051004921</v>
+        <v>0.6087681758316077</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.6152862847113735</v>
+        <v>0.6030262226511707</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.6108955511071285</v>
+        <v>0.5973002814747222</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.6049084388835335</v>
+        <v>0.589912864843483</v>
       </c>
     </row>
     <row r="70">
@@ -39857,97 +39857,97 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6633502664070919</v>
+        <v>0.6690234986773641</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6677432929657463</v>
+        <v>0.6732002614437842</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6756957470810798</v>
+        <v>0.6809402125191814</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6838017748847653</v>
+        <v>0.688809393525071</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6920635717035821</v>
+        <v>0.6968091959675073</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7004829808962191</v>
+        <v>0.7049406858525405</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7090586618964698</v>
+        <v>0.7132017714596206</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7177946343715546</v>
+        <v>0.7215957472270933</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7266862849819151</v>
+        <v>0.7301173002366769</v>
       </c>
       <c r="L72" t="n">
-        <v>0.7357396744647988</v>
+        <v>0.7387718170198495</v>
       </c>
       <c r="M72" t="n">
-        <v>0.7453740144911223</v>
+        <v>0.7479778601346668</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7547247721625239</v>
+        <v>0.7568702723818425</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7642360990972951</v>
+        <v>0.7658926056098839</v>
       </c>
       <c r="P72" t="n">
-        <v>0.7739104282035735</v>
+        <v>0.7750467172039577</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7837461570728748</v>
+        <v>0.7843304531959306</v>
       </c>
       <c r="R72" t="n">
         <v>0.7937451029549658</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8039060386848823</v>
+        <v>0.8032889348300345</v>
       </c>
       <c r="T72" t="n">
-        <v>0.8142296584435045</v>
+        <v>0.812962161625992</v>
       </c>
       <c r="U72" t="n">
-        <v>0.8247145747515323</v>
+        <v>0.8227629373132642</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8353602981855728</v>
+        <v>0.8326903364600593</v>
       </c>
       <c r="W72" t="n">
-        <v>0.8461672515847734</v>
+        <v>0.8427443681557246</v>
       </c>
       <c r="X72" t="n">
-        <v>0.8571340475431842</v>
+        <v>0.852923253220609</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.8682626533425635</v>
+        <v>0.8632285888573095</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.8795505558957115</v>
+        <v>0.8736575133135491</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.8909993412031629</v>
+        <v>0.8842112850596546</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.9026058752511275</v>
+        <v>0.8948864634086702</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.9143506530365063</v>
+        <v>0.9056632528594163</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.9259404729609076</v>
+        <v>0.9162480501879803</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.9366724559358928</v>
+        <v>0.9259370114611821</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.947455363834983</v>
+        <v>0.9356386237156484</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.9554736946226938</v>
+        <v>0.9425358160902717</v>
       </c>
     </row>
     <row r="73">
@@ -40175,97 +40175,97 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01143759949668536</v>
+        <v>0.018421260456910372</v>
       </c>
       <c r="D78" t="n">
-        <v>0.011428006594179509</v>
+        <v>0.017434919718700738</v>
       </c>
       <c r="E78" t="n">
-        <v>0.011421252095286948</v>
+        <v>0.016653771638654644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01141536647605533</v>
+        <v>0.01592857213483597</v>
       </c>
       <c r="G78" t="n">
-        <v>0.011409554809839136</v>
+        <v>0.015258008087178573</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01140384450895068</v>
+        <v>0.014641599847089619</v>
       </c>
       <c r="I78" t="n">
-        <v>0.011398366470162428</v>
+        <v>0.014078982300288239</v>
       </c>
       <c r="J78" t="n">
-        <v>0.011394339258354522</v>
+        <v>0.01357088896323752</v>
       </c>
       <c r="K78" t="n">
-        <v>0.011390901449110521</v>
+        <v>0.013115984235291454</v>
       </c>
       <c r="L78" t="n">
-        <v>0.011387562229802653</v>
+        <v>0.012713313908708428</v>
       </c>
       <c r="M78" t="n">
-        <v>0.011384258588374656</v>
+        <v>0.012362362255549783</v>
       </c>
       <c r="N78" t="n">
-        <v>0.011381100015988398</v>
+        <v>0.01206279662938816</v>
       </c>
       <c r="O78" t="n">
-        <v>0.011379363426853754</v>
+        <v>0.011815462295731008</v>
       </c>
       <c r="P78" t="n">
-        <v>0.01137822809980632</v>
+        <v>0.011619117259318058</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.011377095811096593</v>
+        <v>0.011472752293869003</v>
       </c>
       <c r="R78" t="n">
         <v>0.011375966700397134</v>
       </c>
       <c r="S78" t="n">
-        <v>0.011374839002256302</v>
+        <v>0.011328367929322663</v>
       </c>
       <c r="T78" t="n">
-        <v>0.011374946595406433</v>
+        <v>0.011330809018969658</v>
       </c>
       <c r="U78" t="n">
-        <v>0.011376068830962413</v>
+        <v>0.011382698311650067</v>
       </c>
       <c r="V78" t="n">
-        <v>0.011377186496083082</v>
+        <v>0.01148265530406626</v>
       </c>
       <c r="W78" t="n">
-        <v>0.01137830163305064</v>
+        <v>0.01163033035213811</v>
       </c>
       <c r="X78" t="n">
-        <v>0.011379414088651623</v>
+        <v>0.011825381105280912</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.011381158468572771</v>
+        <v>0.012068109344982557</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.011384223701535731</v>
+        <v>0.012358880432531272</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.011387409953132664</v>
+        <v>0.01269618010597626</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.011390610292036049</v>
+        <v>0.013079596029107528</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.011393898773527901</v>
+        <v>0.013509420469940457</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.011397569028853468</v>
+        <v>0.013993389146413213</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.011403012875464347</v>
+        <v>0.014555226082472849</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.0114087800602567</v>
+        <v>0.015172422847771129</v>
       </c>
       <c r="AG78" t="n">
-        <v>0.011415220465368994</v>
+        <v>0.015911166106525758</v>
       </c>
     </row>
     <row r="79">
@@ -40276,97 +40276,97 @@
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03430119473733941</v>
+        <v>0.022107705487623266</v>
       </c>
       <c r="D79" t="n">
-        <v>0.033890412833754456</v>
+        <v>0.021307083519336613</v>
       </c>
       <c r="E79" t="n">
-        <v>0.033507447780029745</v>
+        <v>0.020746949351368407</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03316391900020021</v>
+        <v>0.020392403241651036</v>
       </c>
       <c r="G79" t="n">
-        <v>0.032857688237448966</v>
+        <v>0.02024114325319004</v>
       </c>
       <c r="H79" t="n">
-        <v>0.032587922986154434</v>
+        <v>0.02029217671657996</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03236401334486827</v>
+        <v>0.020554737056871667</v>
       </c>
       <c r="J79" t="n">
-        <v>0.032177714736742705</v>
+        <v>0.021020426486451124</v>
       </c>
       <c r="K79" t="n">
-        <v>0.03204775636735433</v>
+        <v>0.021707824434293404</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03195677608085654</v>
+        <v>0.02259942237334855</v>
       </c>
       <c r="M79" t="n">
-        <v>0.031918807454280995</v>
+        <v>0.02370911088266123</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03192170837394609</v>
+        <v>0.02502460819189604</v>
       </c>
       <c r="O79" t="n">
-        <v>0.031976654997073396</v>
+        <v>0.02655695411471355</v>
       </c>
       <c r="P79" t="n">
-        <v>0.032076747957606414</v>
+        <v>0.028299116218491585</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.03222886688412701</v>
+        <v>0.030257844309694314</v>
       </c>
       <c r="R79" t="n">
         <v>0.03242817116530261</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0326800797343247</v>
+        <v>0.03481539228271557</v>
       </c>
       <c r="T79" t="n">
-        <v>0.032983687617396305</v>
+        <v>0.0374184823932363</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03334426263144952</v>
+        <v>0.04024259212437624</v>
       </c>
       <c r="V79" t="n">
-        <v>0.03376332913047103</v>
+        <v>0.043289131710405895</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0342394607325368</v>
+        <v>0.046556563683301036</v>
       </c>
       <c r="X79" t="n">
-        <v>0.034777392288577715</v>
+        <v>0.05004951480515105</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.03536982683926994</v>
+        <v>0.053760582988466074</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.036025181975530764</v>
+        <v>0.05769808361990359</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.036736120218170014</v>
+        <v>0.06185457990300304</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.03751257965360002</v>
+        <v>0.06623991345686667</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.03834481953999802</v>
+        <v>0.07084441246586319</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.03924572323056268</v>
+        <v>0.07568331099244995</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.040205795880712776</v>
+        <v>0.08075416819809825</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.041237949644782924</v>
+        <v>0.0860632446548296</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.04233426314451371</v>
+        <v>0.09161810447672383</v>
       </c>
     </row>
     <row r="80">
@@ -40488,97 +40488,97 @@
         <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8159724439779281</v>
+        <v>0.8213905038043912</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8046340973552558</v>
+        <v>0.8098540316977754</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7971475960897911</v>
+        <v>0.8021783684598671</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7898051606589069</v>
+        <v>0.7946256136177889</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7826108730691002</v>
+        <v>0.7871979995123195</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7755684801171915</v>
+        <v>0.7798974504665958</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7686786235453817</v>
+        <v>0.7727228128047026</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7619471030697987</v>
+        <v>0.7656781177407481</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7553712553555059</v>
+        <v>0.7587589602119642</v>
       </c>
       <c r="L83" t="n">
-        <v>0.7489588472193027</v>
+        <v>0.751971391937774</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7431309308859917</v>
+        <v>0.7457347765295362</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7370247406722747</v>
+        <v>0.7391846860270948</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7310861892206614</v>
+        <v>0.7327653969855814</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7253194803260187</v>
+        <v>0.7264795031514161</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.719724714902443</v>
+        <v>0.7203255212795705</v>
       </c>
       <c r="R83" t="n">
         <v>0.7143054687524765</v>
       </c>
       <c r="S83" t="n">
-        <v>0.7090621750550993</v>
+        <v>0.7084182459175874</v>
       </c>
       <c r="T83" t="n">
-        <v>0.7039972257665459</v>
+        <v>0.7026647373378662</v>
       </c>
       <c r="U83" t="n">
-        <v>0.6991108254336988</v>
+        <v>0.6970436654551603</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6944040930662052</v>
+        <v>0.6915546923128137</v>
       </c>
       <c r="W83" t="n">
-        <v>0.6898790987881545</v>
+        <v>0.6861984560585295</v>
       </c>
       <c r="X83" t="n">
-        <v>0.6855359623019439</v>
+        <v>0.6809736692602972</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.6813784100448586</v>
+        <v>0.6758826759160599</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.6774053111262344</v>
+        <v>0.670922987245151</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.6736200139619049</v>
+        <v>0.6660966181783378</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.6700206554714053</v>
+        <v>0.6614003964120784</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.6665876611202671</v>
+        <v>0.6568134524670015</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.6630035966193984</v>
+        <v>0.6520168673505141</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.658505744457779</v>
+        <v>0.6462456823975761</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.6540839583751564</v>
+        <v>0.64048868874275</v>
       </c>
       <c r="AG83" t="n">
-        <v>0.6480639744807617</v>
+        <v>0.6330684004407114</v>
       </c>
     </row>
     <row r="84">
@@ -40599,97 +40599,97 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7036529501170713</v>
+        <v>0.7093261823873435</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7080665426510411</v>
+        <v>0.7135235111290785</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7160378831930057</v>
+        <v>0.7212823486311072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7241611169541411</v>
+        <v>0.7291687355944467</v>
       </c>
       <c r="G86" t="n">
-        <v>0.732438438422632</v>
+        <v>0.7371840626865569</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7408716902005175</v>
+        <v>0.7453293951568389</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7494595310469232</v>
+        <v>0.7536026406100738</v>
       </c>
       <c r="J86" t="n">
-        <v>0.758205980036416</v>
+        <v>0.7620070928919546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.7671064233188268</v>
+        <v>0.7705374385735886</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7761669212028608</v>
+        <v>0.7791990637579116</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7858066850129811</v>
+        <v>0.7884105306565256</v>
       </c>
       <c r="N86" t="n">
-        <v>0.7951611815864783</v>
+        <v>0.7973066818057968</v>
       </c>
       <c r="O86" t="n">
-        <v>0.8046745623594154</v>
+        <v>0.806331068872004</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8143492601398284</v>
+        <v>0.8154855491402125</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.8241836725012645</v>
+        <v>0.8247679686243201</v>
       </c>
       <c r="R86" t="n">
         <v>0.8341796167576551</v>
       </c>
       <c r="S86" t="n">
-        <v>0.8443358658903314</v>
+        <v>0.8437187620354835</v>
       </c>
       <c r="T86" t="n">
-        <v>0.8546531143085917</v>
+        <v>0.853385617491079</v>
       </c>
       <c r="U86" t="n">
-        <v>0.8651299748436656</v>
+        <v>0.8631783374053973</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8757659584647874</v>
+        <v>0.873095996739274</v>
       </c>
       <c r="W86" t="n">
-        <v>0.8865614884858093</v>
+        <v>0.8831386050567606</v>
       </c>
       <c r="X86" t="n">
-        <v>0.897515178057541</v>
+        <v>0.8933043837349658</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.9086289951005273</v>
+        <v>0.9035949306152732</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.9199004272483514</v>
+        <v>0.9140073846661888</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.9313310613042927</v>
+        <v>0.9245430051607844</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.9429177641392268</v>
+        <v>0.9351983522967698</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.9546410317166008</v>
+        <v>0.9459536315395108</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.9662076634863996</v>
+        <v>0.9565152407134723</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.9769147814903427</v>
+        <v>0.9661793370156321</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.987671148813835</v>
+        <v>0.9758544086945005</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.9956612647149422</v>
+        <v>0.9827233861825201</v>
       </c>
     </row>
     <row r="87">
@@ -40917,97 +40917,97 @@
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>0.014937599496685359</v>
+        <v>0.021921260456910372</v>
       </c>
       <c r="D92" t="n">
-        <v>0.014928006594179508</v>
+        <v>0.020934919718700738</v>
       </c>
       <c r="E92" t="n">
-        <v>0.014921252095286948</v>
+        <v>0.020153771638654644</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01491536647605533</v>
+        <v>0.019428572134835974</v>
       </c>
       <c r="G92" t="n">
-        <v>0.014909554809839135</v>
+        <v>0.018758008087178576</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01490384450895068</v>
+        <v>0.01814159984708962</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01489836647016243</v>
+        <v>0.01757898230028824</v>
       </c>
       <c r="J92" t="n">
-        <v>0.014894339258354523</v>
+        <v>0.017070888963237524</v>
       </c>
       <c r="K92" t="n">
-        <v>0.014890901449110521</v>
+        <v>0.016615984235291453</v>
       </c>
       <c r="L92" t="n">
-        <v>0.014887562229802654</v>
+        <v>0.016213313908708428</v>
       </c>
       <c r="M92" t="n">
-        <v>0.014884258588374657</v>
+        <v>0.015862362255549784</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0148811000159884</v>
+        <v>0.01556279662938816</v>
       </c>
       <c r="O92" t="n">
-        <v>0.014879363426853755</v>
+        <v>0.015315462295731008</v>
       </c>
       <c r="P92" t="n">
-        <v>0.01487822809980632</v>
+        <v>0.015119117259318058</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.014877095811096593</v>
+        <v>0.014972752293869004</v>
       </c>
       <c r="R92" t="n">
         <v>0.014875966700397134</v>
       </c>
       <c r="S92" t="n">
-        <v>0.014874839002256304</v>
+        <v>0.014828367929322663</v>
       </c>
       <c r="T92" t="n">
-        <v>0.014874946595406432</v>
+        <v>0.01483080901896966</v>
       </c>
       <c r="U92" t="n">
-        <v>0.014876068830962414</v>
+        <v>0.014882698311650067</v>
       </c>
       <c r="V92" t="n">
-        <v>0.014877186496083081</v>
+        <v>0.01498265530406626</v>
       </c>
       <c r="W92" t="n">
-        <v>0.014878301633050641</v>
+        <v>0.015130330352138111</v>
       </c>
       <c r="X92" t="n">
-        <v>0.014879414088651625</v>
+        <v>0.015325381105280913</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.014881158468572773</v>
+        <v>0.015568109344982558</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.01488422370153573</v>
+        <v>0.015858880432531273</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.014887409953132664</v>
+        <v>0.01619618010597626</v>
       </c>
       <c r="AB92" t="n">
-        <v>0.01489061029203605</v>
+        <v>0.016579596029107527</v>
       </c>
       <c r="AC92" t="n">
-        <v>0.0148938987735279</v>
+        <v>0.01700942046994046</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.014897569028853468</v>
+        <v>0.017493389146413213</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.014903012875464349</v>
+        <v>0.01805522608247285</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.0149087800602567</v>
+        <v>0.01867242284777113</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.014915220465368995</v>
+        <v>0.019411166106525757</v>
       </c>
     </row>
     <row r="93">
@@ -41018,97 +41018,97 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>0.035406729078015134</v>
+        <v>0.02321323982829899</v>
       </c>
       <c r="D93" t="n">
-        <v>0.034995947174430185</v>
+        <v>0.022412617860012335</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03461298212070547</v>
+        <v>0.02185248369204413</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03426945334087593</v>
+        <v>0.02149793758232676</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03396322257812469</v>
+        <v>0.021346677593865767</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03369345732683016</v>
+        <v>0.021397711057255683</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03346954768554399</v>
+        <v>0.021660271397547393</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03328324907741843</v>
+        <v>0.022125960827126846</v>
       </c>
       <c r="K93" t="n">
-        <v>0.03315329070803006</v>
+        <v>0.022813358774969126</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03306231042153227</v>
+        <v>0.02370495671402427</v>
       </c>
       <c r="M93" t="n">
-        <v>0.033024341794956724</v>
+        <v>0.024814645223336953</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03302724271462181</v>
+        <v>0.02613014253257177</v>
       </c>
       <c r="O93" t="n">
-        <v>0.03308218933774912</v>
+        <v>0.02766248845538927</v>
       </c>
       <c r="P93" t="n">
-        <v>0.033182282298282136</v>
+        <v>0.029404650559167307</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.03333440122480273</v>
+        <v>0.03136337865037003</v>
       </c>
       <c r="R93" t="n">
         <v>0.03353370550597833</v>
       </c>
       <c r="S93" t="n">
-        <v>0.03378561407500042</v>
+        <v>0.03592092662339129</v>
       </c>
       <c r="T93" t="n">
-        <v>0.03408922195807203</v>
+        <v>0.03852401673391202</v>
       </c>
       <c r="U93" t="n">
-        <v>0.034449796972125246</v>
+        <v>0.04134812646505196</v>
       </c>
       <c r="V93" t="n">
-        <v>0.034868863471146753</v>
+        <v>0.04439466605108162</v>
       </c>
       <c r="W93" t="n">
-        <v>0.03534499507321252</v>
+        <v>0.04766209802397676</v>
       </c>
       <c r="X93" t="n">
-        <v>0.035882926629253444</v>
+        <v>0.05115504914582678</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.03647536117994567</v>
+        <v>0.05486611732914179</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.037130716316206486</v>
+        <v>0.05880361796057931</v>
       </c>
       <c r="AA93" t="n">
-        <v>0.037841654558845736</v>
+        <v>0.06296011424367876</v>
       </c>
       <c r="AB93" t="n">
-        <v>0.038618113994275734</v>
+        <v>0.06734544779754238</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.03945035388067374</v>
+        <v>0.0719499468065389</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.04035125757123841</v>
+        <v>0.07678884533312567</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.0413113302213885</v>
+        <v>0.08185970253877396</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.04234348398545864</v>
+        <v>0.08716877899550533</v>
       </c>
       <c r="AG93" t="n">
-        <v>0.04343979748518944</v>
+        <v>0.09272363881739955</v>
       </c>
     </row>
     <row r="94">
@@ -41230,97 +41230,97 @@
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8764533586036407</v>
+        <v>0.8818714184301042</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8651478768315818</v>
+        <v>0.8703678111741013</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8576915926191517</v>
+        <v>0.8627223649892279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8503767249709864</v>
+        <v>0.8551971779298686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8432073545499679</v>
+        <v>0.8477944809931872</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8361872269384895</v>
+        <v>0.8405161972878942</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8293169827935711</v>
+        <v>0.8333611720528917</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8226024208754578</v>
+        <v>0.8263334355464071</v>
       </c>
       <c r="K97" t="n">
-        <v>0.816040877022677</v>
+        <v>0.8194285818791358</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8096401173548791</v>
+        <v>0.8126526620733501</v>
       </c>
       <c r="M97" t="n">
-        <v>0.8038211935291351</v>
+        <v>0.8064250391726797</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7977213394238658</v>
+        <v>0.7998812847786859</v>
       </c>
       <c r="O97" t="n">
-        <v>0.791786467372768</v>
+        <v>0.7934656751376881</v>
       </c>
       <c r="P97" t="n">
-        <v>0.786020780991379</v>
+        <v>0.7871808038167764</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.78042438114396</v>
+        <v>0.7810251875210874</v>
       </c>
       <c r="R97" t="n">
         <v>0.7750008437127125</v>
       </c>
       <c r="S97" t="n">
-        <v>0.7697506020857676</v>
+        <v>0.7691066729482556</v>
       </c>
       <c r="T97" t="n">
-        <v>0.7646760485579923</v>
+        <v>0.7633435601293124</v>
       </c>
       <c r="U97" t="n">
-        <v>0.7597773881443657</v>
+        <v>0.7577102281658273</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7550557404520744</v>
+        <v>0.7522063396986827</v>
       </c>
       <c r="W97" t="n">
-        <v>0.7505131763321593</v>
+        <v>0.7468325336025343</v>
       </c>
       <c r="X97" t="n">
-        <v>0.7461498163433478</v>
+        <v>0.7415875233017009</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.7419693879085891</v>
+        <v>0.7364736537797905</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.7379707612521722</v>
+        <v>0.7314884373710886</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.734157286034116</v>
+        <v>0.7266338902505491</v>
       </c>
       <c r="AB97" t="n">
-        <v>0.7305271005473152</v>
+        <v>0.7219068414879884</v>
       </c>
       <c r="AC97" t="n">
-        <v>0.727060631759765</v>
+        <v>0.717286423106499</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.7234404470138708</v>
+        <v>0.7124537177449861</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.7189038305590613</v>
+        <v>0.7066437684988583</v>
       </c>
       <c r="AF97" t="n">
-        <v>0.7144406380244014</v>
+        <v>0.7008453683919952</v>
       </c>
       <c r="AG97" t="n">
-        <v>0.7083766075372144</v>
+        <v>0.6933810334971642</v>
       </c>
     </row>
     <row r="98">
@@ -41341,97 +41341,97 @@
         <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7597208075750855</v>
+        <v>0.7653940398453579</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7641675392094194</v>
+        <v>0.769624507687457</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7721695861269837</v>
+        <v>0.7774140515650853</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7803210920423682</v>
+        <v>0.7853287106826741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7886242500658122</v>
+        <v>0.7933698743297373</v>
       </c>
       <c r="H100" t="n">
-        <v>0.7970809015401186</v>
+        <v>0.8015386064964405</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8056897040839444</v>
+        <v>0.8098328136470954</v>
       </c>
       <c r="J100" t="n">
-        <v>0.814454675750213</v>
+        <v>0.8182557886057517</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8233712017859857</v>
+        <v>0.8268022170407476</v>
       </c>
       <c r="L100" t="n">
-        <v>0.832445341716118</v>
+        <v>0.8354774842711685</v>
       </c>
       <c r="M100" t="n">
-        <v>0.8420963062001772</v>
+        <v>0.8447001518437217</v>
       </c>
       <c r="N100" t="n">
-        <v>0.8514595615295505</v>
+        <v>0.853605061748869</v>
       </c>
       <c r="O100" t="n">
-        <v>0.8609792587134107</v>
+        <v>0.8626357652259994</v>
       </c>
       <c r="P100" t="n">
-        <v>0.8706578302519413</v>
+        <v>0.8717941192523252</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.8804936735298876</v>
+        <v>0.8810779696529434</v>
       </c>
       <c r="R100" t="n">
         <v>0.8904886057914403</v>
       </c>
       <c r="S100" t="n">
-        <v>0.9006414000672539</v>
+        <v>0.9000242962124061</v>
       </c>
       <c r="T100" t="n">
-        <v>0.9109527509350115</v>
+        <v>0.9096852541174988</v>
       </c>
       <c r="U100" t="n">
-        <v>0.9214212715133812</v>
+        <v>0.9194696340751128</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9320464731780741</v>
+        <v>0.9293765114525605</v>
       </c>
       <c r="W100" t="n">
-        <v>0.9428287797684405</v>
+        <v>0.939405896339392</v>
       </c>
       <c r="X100" t="n">
-        <v>0.953766805079782</v>
+        <v>0.9495560107572066</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.9648625177960963</v>
+        <v>0.9598284533108422</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.9761134064333464</v>
+        <v>0.9702203638511837</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.987521058796073</v>
+        <v>0.9807330026525647</v>
       </c>
       <c r="AB100" t="n">
-        <v>0.999082342875248</v>
+        <v>0.9913629310327909</v>
       </c>
       <c r="AC100" t="n">
-        <v>1.0107777558731919</v>
+        <v>1.0020903556961018</v>
       </c>
       <c r="AD100" t="n">
-        <v>1.0223140985974828</v>
+        <v>1.0126216758245554</v>
       </c>
       <c r="AE100" t="n">
-        <v>1.0329884945660857</v>
+        <v>1.022253050091375</v>
       </c>
       <c r="AF100" t="n">
-        <v>1.0437097084592308</v>
+        <v>1.0318929683398963</v>
       </c>
       <c r="AG100" t="n">
-        <v>1.0516622412483128</v>
+        <v>1.0387243627158906</v>
       </c>
     </row>
     <row r="101">
@@ -41659,97 +41659,97 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01921759949668536</v>
+        <v>0.026201260456910375</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01920800659417951</v>
+        <v>0.02521491971870074</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01920125209528695</v>
+        <v>0.024433771638654643</v>
       </c>
       <c r="F106" t="n">
-        <v>0.019195366476055332</v>
+        <v>0.023708572134835973</v>
       </c>
       <c r="G106" t="n">
-        <v>0.019189554809839138</v>
+        <v>0.023038008087178576</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01918384450895068</v>
+        <v>0.02242159984708962</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01917836647016243</v>
+        <v>0.021858982300288238</v>
       </c>
       <c r="J106" t="n">
-        <v>0.019174339258354524</v>
+        <v>0.021350888963237523</v>
       </c>
       <c r="K106" t="n">
-        <v>0.019170901449110524</v>
+        <v>0.020895984235291452</v>
       </c>
       <c r="L106" t="n">
-        <v>0.019167562229802655</v>
+        <v>0.02049331390870843</v>
       </c>
       <c r="M106" t="n">
-        <v>0.019164258588374658</v>
+        <v>0.020142362255549783</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0191611000159884</v>
+        <v>0.019842796629388162</v>
       </c>
       <c r="O106" t="n">
-        <v>0.019159363426853756</v>
+        <v>0.01959546229573101</v>
       </c>
       <c r="P106" t="n">
-        <v>0.019158228099806322</v>
+        <v>0.01939911725931806</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.019157095811096595</v>
+        <v>0.019252752293869003</v>
       </c>
       <c r="R106" t="n">
         <v>0.019155966700397133</v>
       </c>
       <c r="S106" t="n">
-        <v>0.019154839002256303</v>
+        <v>0.019108367929322665</v>
       </c>
       <c r="T106" t="n">
-        <v>0.019154946595406435</v>
+        <v>0.01911080901896966</v>
       </c>
       <c r="U106" t="n">
-        <v>0.019156068830962415</v>
+        <v>0.019162698311650066</v>
       </c>
       <c r="V106" t="n">
-        <v>0.019157186496083084</v>
+        <v>0.019262655304066262</v>
       </c>
       <c r="W106" t="n">
-        <v>0.019158301633050642</v>
+        <v>0.01941033035213811</v>
       </c>
       <c r="X106" t="n">
-        <v>0.019159414088651624</v>
+        <v>0.019605381105280914</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.019161158468572772</v>
+        <v>0.01984810934498256</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.019164223701535733</v>
+        <v>0.020138880432531273</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.019167409953132666</v>
+        <v>0.020476180105976263</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.01917061029203605</v>
+        <v>0.02085959602910753</v>
       </c>
       <c r="AC106" t="n">
-        <v>0.019173898773527903</v>
+        <v>0.021289420469940458</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.019177569028853467</v>
+        <v>0.021773389146413216</v>
       </c>
       <c r="AE106" t="n">
-        <v>0.01918301287546435</v>
+        <v>0.02233522608247285</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.0191887800602567</v>
+        <v>0.02295242284777113</v>
       </c>
       <c r="AG106" t="n">
-        <v>0.019195220465368996</v>
+        <v>0.02369116610652576</v>
       </c>
     </row>
     <row r="107">
@@ -41760,97 +41760,97 @@
         <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0367586396431843</v>
+        <v>0.02456515039346816</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03634785773959935</v>
+        <v>0.023764528425181505</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03596489268587464</v>
+        <v>0.023204394257213296</v>
       </c>
       <c r="F107" t="n">
-        <v>0.035621363906045096</v>
+        <v>0.02284984814749593</v>
       </c>
       <c r="G107" t="n">
-        <v>0.035315133143293855</v>
+        <v>0.022698588159034937</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03504536789199932</v>
+        <v>0.02274962162242485</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03482145825071316</v>
+        <v>0.02301218196271656</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03463515964258759</v>
+        <v>0.023477871392296016</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03450520127319922</v>
+        <v>0.024165269340138292</v>
       </c>
       <c r="L107" t="n">
-        <v>0.034414220986701445</v>
+        <v>0.025056867279193443</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03437625236012589</v>
+        <v>0.026166555788506126</v>
       </c>
       <c r="N107" t="n">
-        <v>0.034379153279790985</v>
+        <v>0.027482053097740936</v>
       </c>
       <c r="O107" t="n">
-        <v>0.034434099902918285</v>
+        <v>0.029014399020558444</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0345341928634513</v>
+        <v>0.03075656112433648</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.034686311789971905</v>
+        <v>0.0327152892155392</v>
       </c>
       <c r="R107" t="n">
         <v>0.0348856160711475</v>
       </c>
       <c r="S107" t="n">
-        <v>0.03513752464016959</v>
+        <v>0.03727283718856046</v>
       </c>
       <c r="T107" t="n">
-        <v>0.035441132523241194</v>
+        <v>0.039875927299081196</v>
       </c>
       <c r="U107" t="n">
-        <v>0.03580170753729441</v>
+        <v>0.042700037030221134</v>
       </c>
       <c r="V107" t="n">
-        <v>0.03622077403631593</v>
+        <v>0.045746576616250784</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0366969056383817</v>
+        <v>0.049014008589145924</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0372348371944226</v>
+        <v>0.052506959710995955</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.03782727174511484</v>
+        <v>0.05621802789431096</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.03848262688137566</v>
+        <v>0.06015552852574848</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.03919356512401491</v>
+        <v>0.06431202480884793</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.03997002455944491</v>
+        <v>0.06869735836271156</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.040802264445842916</v>
+        <v>0.07330185737170808</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.04170316813640757</v>
+        <v>0.07814075589829483</v>
       </c>
       <c r="AE107" t="n">
-        <v>0.04266324078655767</v>
+        <v>0.08321161310394314</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.04369539455062781</v>
+        <v>0.08852068956067449</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.0447917080503586</v>
+        <v>0.09407554938256872</v>
       </c>
     </row>
     <row r="108">
@@ -41972,97 +41972,97 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9709648127875483</v>
+        <v>0.9763828726140114</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9597242504391867</v>
+        <v>0.9649441847817066</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9523285886886306</v>
+        <v>0.9573593610587068</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9450700435858621</v>
+        <v>0.9498904965447441</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9379526930486823</v>
+        <v>0.9425398194919019</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9309802801241093</v>
+        <v>0.9353092504735142</v>
       </c>
       <c r="I111" t="n">
-        <v>0.924153443143616</v>
+        <v>0.9281976324029364</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9174779787518431</v>
+        <v>0.9212089934227925</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9109512208817605</v>
+        <v>0.9143389257382191</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9045809339575981</v>
+        <v>0.9075934786760693</v>
       </c>
       <c r="M111" t="n">
-        <v>0.8987881681512289</v>
+        <v>0.9013920137947733</v>
       </c>
       <c r="N111" t="n">
-        <v>0.892710156066169</v>
+        <v>0.8948701014209891</v>
       </c>
       <c r="O111" t="n">
-        <v>0.8867928089715652</v>
+        <v>0.888472016736485</v>
       </c>
       <c r="P111" t="n">
-        <v>0.8810403296288135</v>
+        <v>0.8822003524542109</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.8754528182584829</v>
+        <v>0.8760536246356103</v>
       </c>
       <c r="R111" t="n">
         <v>0.8700338503095629</v>
       </c>
       <c r="S111" t="n">
-        <v>0.8647838589474739</v>
+        <v>0.8641399298099619</v>
       </c>
       <c r="T111" t="n">
-        <v>0.8597052364548861</v>
+        <v>0.8583727480262061</v>
       </c>
       <c r="U111" t="n">
-        <v>0.8547981880450941</v>
+        <v>0.8527310280665555</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8500638337341033</v>
+        <v>0.8472144329807116</v>
       </c>
       <c r="W111" t="n">
-        <v>0.8455042449922576</v>
+        <v>0.8418236022626326</v>
       </c>
       <c r="X111" t="n">
-        <v>0.84111954320804</v>
+        <v>0.8365572501663935</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.8369134568445695</v>
+        <v>0.831417722715771</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.8328848573766654</v>
+        <v>0.826402533495582</v>
       </c>
       <c r="AA111" t="n">
-        <v>0.8290370959251802</v>
+        <v>0.8215137001416131</v>
       </c>
       <c r="AB111" t="n">
-        <v>0.8253683124540697</v>
+        <v>0.8167480533947432</v>
       </c>
       <c r="AC111" t="n">
-        <v>0.8218589358125421</v>
+        <v>0.8120847271592762</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.8181915354342698</v>
+        <v>0.8072048061653854</v>
       </c>
       <c r="AE111" t="n">
-        <v>0.8136033978699057</v>
+        <v>0.8013433358097027</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.8090843812595804</v>
+        <v>0.7954891116271742</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.802960226451404</v>
+        <v>0.7879646524113539</v>
       </c>
     </row>
     <row r="112">
@@ -42083,97 +42083,97 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8470587017494994</v>
+        <v>0.8527319340197718</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8515698639790297</v>
+        <v>0.8570268324570673</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8596323941829851</v>
+        <v>0.8648768596210864</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8678404331280869</v>
+        <v>0.8728480517683925</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8761961711692338</v>
+        <v>0.8809417954331591</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8847014470865533</v>
+        <v>0.8891591520428748</v>
       </c>
       <c r="I114" t="n">
-        <v>0.8933549161288148</v>
+        <v>0.8974980256919658</v>
       </c>
       <c r="J114" t="n">
-        <v>0.90216059417196</v>
+        <v>0.9059617070274989</v>
       </c>
       <c r="K114" t="n">
-        <v>0.9111138644790796</v>
+        <v>0.9145448797338414</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9202207847841639</v>
+        <v>0.9232529273392147</v>
       </c>
       <c r="M114" t="n">
-        <v>0.929900564149112</v>
+        <v>0.9325044097926564</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9392886674609138</v>
+        <v>0.9414341676802322</v>
       </c>
       <c r="O114" t="n">
-        <v>0.9488292445176862</v>
+        <v>0.9504857510302751</v>
       </c>
       <c r="P114" t="n">
-        <v>0.9585247268019581</v>
+        <v>0.959661015802342</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.9683735108742683</v>
+        <v>0.968957806997324</v>
       </c>
       <c r="R114" t="n">
         <v>0.9783774133480918</v>
       </c>
       <c r="S114" t="n">
-        <v>0.9885352068168869</v>
+        <v>0.987918102962039</v>
       </c>
       <c r="T114" t="n">
-        <v>0.9988475856146837</v>
+        <v>0.9975800887971711</v>
       </c>
       <c r="U114" t="n">
-        <v>1.0093131628100502</v>
+        <v>1.007361525371782</v>
       </c>
       <c r="V114" t="n">
-        <v>1.0199314499221543</v>
+        <v>1.017261488196641</v>
       </c>
       <c r="W114" t="n">
-        <v>1.0307028711273516</v>
+        <v>1.0272799876983032</v>
       </c>
       <c r="X114" t="n">
-        <v>1.0416260407514815</v>
+        <v>1.0374152464289061</v>
       </c>
       <c r="Y114" t="n">
-        <v>1.0527029282025873</v>
+        <v>1.0476688637173335</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.0639310229141494</v>
+        <v>1.0580379803319866</v>
       </c>
       <c r="AA114" t="n">
-        <v>1.0753119138016516</v>
+        <v>1.068523857658143</v>
       </c>
       <c r="AB114" t="n">
-        <v>1.0868424701603818</v>
+        <v>1.0791230583179252</v>
       </c>
       <c r="AC114" t="n">
-        <v>1.0985031906902878</v>
+        <v>1.089815790513198</v>
       </c>
       <c r="AD114" t="n">
-        <v>1.1100008778898085</v>
+        <v>1.1003084551168811</v>
       </c>
       <c r="AE114" t="n">
-        <v>1.120632657160925</v>
+        <v>1.1098972126862143</v>
       </c>
       <c r="AF114" t="n">
-        <v>1.1313072952609453</v>
+        <v>1.1194905551416108</v>
       </c>
       <c r="AG114" t="n">
-        <v>1.1392092954313027</v>
+        <v>1.1262714168988803</v>
       </c>
     </row>
   </sheetData>
@@ -42420,7 +42420,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.23286873770200842</v>
+        <v>-0.22937249042563274</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -42461,7 +42461,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.12117721163163592</v>
+        <v>-0.1200728626523424</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -42502,7 +42502,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0052775994966853595</v>
+        <v>0.012261260456910372</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -42543,7 +42543,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.032355454297750136</v>
+        <v>0.020161965048033994</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -42584,7 +42584,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.491783045657948</v>
+        <v>1.5622558863143565</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -42625,7 +42625,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36410493106125896</v>
+        <v>0.36832045657980395</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -42666,7 +42666,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.264104931061259</v>
+        <v>-0.2683204565798039</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -42707,7 +42707,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.745186530731608</v>
+        <v>-5.955414681370593</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -42748,7 +42748,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>31.679241643033222</v>
+        <v>19.012892248115016</v>
       </c>
     </row>
     <row r="14">
@@ -42769,7 +42769,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.26735547292781336</v>
+        <v>-0.2632682306469078</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -42810,7 +42810,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1320704316573269</v>
+        <v>-0.1307794068858404</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -42851,7 +42851,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0052775994966853595</v>
+        <v>0.012261260456910372</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -42892,7 +42892,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.032355454297750136</v>
+        <v>0.020161965048033994</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -42933,7 +42933,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7966439424400225</v>
+        <v>0.879029297713001</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -42974,7 +42974,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.32980260775750186</v>
+        <v>0.3340930915505447</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -43015,7 +43015,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07019739224249814</v>
+        <v>0.06590690844945533</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -43056,7 +43056,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.081859906584916</v>
+        <v>-6.486441503805343</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -43097,7 +43097,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>34.65218623424504</v>
+        <v>20.73087579819923</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON_LOOP1_UPDATED/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
+++ b/JPADSandBox_v2/out/IRON_LOOP1_UPDATED/AERODYNAMIC_AND_STABILITY_CRUISE/Aerodynamic_and_Stability_CRUISE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="163">
   <si>
     <t>Description</t>
   </si>
@@ -394,12 +394,6 @@
     <t>CL total</t>
   </si>
   <si>
-    <t>CD horizontal tail</t>
-  </si>
-  <si>
-    <t>CD total</t>
-  </si>
-  <si>
     <t>CM horizontal Tail</t>
   </si>
   <si>
@@ -36263,97 +36257,97 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.059002055094086264</v>
+        <v>-0.1395789775280886</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03690299673395339</v>
+        <v>-0.11747991916795572</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0180803739860029</v>
+        <v>-0.09865729642000523</v>
       </c>
       <c r="F6" t="n">
-        <v>6.841245216628877E-4</v>
+        <v>-0.07989279791233944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.019391358080900423</v>
+        <v>-0.06118556435310191</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03804218467372891</v>
+        <v>-0.04253473776027342</v>
       </c>
       <c r="I6" t="n">
-        <v>0.056637460674880014</v>
+        <v>-0.023939461759122316</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07517804058813765</v>
+        <v>-0.005398881845864678</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09366477678951735</v>
+        <v>0.013087854355515016</v>
       </c>
       <c r="L6" t="n">
-        <v>0.11209851915691632</v>
+        <v>0.03152159672291399</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1304801150446685</v>
+        <v>0.04990319261066618</v>
       </c>
       <c r="N6" t="n">
-        <v>0.14881040925867373</v>
+        <v>0.06823348682467141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.16709024315538568</v>
+        <v>0.08651332072138336</v>
       </c>
       <c r="P6" t="n">
-        <v>0.18532045497182328</v>
+        <v>0.10474353253782095</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2035018794894027</v>
+        <v>0.12292495705540038</v>
       </c>
       <c r="R6" t="n">
-        <v>0.22163534784575756</v>
+        <v>0.14105842541175523</v>
       </c>
       <c r="S6" t="n">
-        <v>0.23972168735526198</v>
+        <v>0.15914476492125965</v>
       </c>
       <c r="T6" t="n">
-        <v>0.25776172133798947</v>
+        <v>0.17718479890398714</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2757562689568395</v>
+        <v>0.1951793465228372</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937061450625672</v>
+        <v>0.21312922262856487</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3116121600464536</v>
+        <v>0.23103523761245126</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3294751197003571</v>
+        <v>0.24889819726635476</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.34729582508389045</v>
+        <v>0.2667189026498881</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.36507507239846837</v>
+        <v>0.2844981499644661</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3828136528679804</v>
+        <v>0.30223673043397814</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4005123526258418</v>
+        <v>0.31993543019183945</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.418192181199906</v>
+        <v>0.33761525876590365</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4361232539042948</v>
+        <v>0.35554633147029246</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.45496313923679665</v>
+        <v>0.37438621680279427</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.47386244660726345</v>
+        <v>0.3932855241732611</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4945999614950852</v>
+        <v>0.4140230390610829</v>
       </c>
     </row>
     <row r="7">
@@ -36364,97 +36358,97 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06625847211094324</v>
+        <v>-0.09171005920144426</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01377937104886849</v>
+        <v>-0.039230958139369526</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03766481227484039</v>
+        <v>0.012213225184339361</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08909063607178916</v>
+        <v>0.06363904898128812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1404983717638795</v>
+        <v>0.11504678467337846</v>
       </c>
       <c r="H7" t="n">
-        <v>0.19188829035927882</v>
+        <v>0.16643670326877777</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2432606623584655</v>
+        <v>0.21780907526796445</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2946157576709474</v>
+        <v>0.26916417058044634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.34595384553414055</v>
+        <v>0.3205022584436395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3972751943963881</v>
+        <v>0.37182360730588704</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4485800719089228</v>
+        <v>0.42312848481842175</v>
       </c>
       <c r="N7" t="n">
-        <v>0.49986874491801137</v>
+        <v>0.47441715782751037</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5511414791803545</v>
+        <v>0.5256898920898535</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6023985394673265</v>
+        <v>0.5769469523768254</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6536401894587909</v>
+        <v>0.6281886023682899</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7048666916836608</v>
+        <v>0.6794151045931598</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7560783074632079</v>
+        <v>0.7306267203727069</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8072752968570365</v>
+        <v>0.7818237097665354</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8584579186116368</v>
+        <v>0.8330063315211358</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9096264301114352</v>
+        <v>0.8841748430209341</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9607810873322574</v>
+        <v>0.9353295002417564</v>
       </c>
       <c r="X7" t="n">
-        <v>1.011922144797124</v>
+        <v>0.9864705577066231</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.063049855534295</v>
+        <v>1.037598268443794</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.1141644710374867</v>
+        <v>1.0887128839469857</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.1652662412281791</v>
+        <v>1.1398146541376781</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.21635541441994</v>
+        <v>1.1909038273294388</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2674386268283473</v>
+        <v>1.2419870397378463</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.318601198955031</v>
+        <v>1.29314961186453</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.3700508349587486</v>
+        <v>1.3445992478682476</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.4215192404206272</v>
+        <v>1.3960676533301262</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.469171344871903</v>
+        <v>1.443719757781402</v>
       </c>
     </row>
     <row r="8">
@@ -36465,521 +36459,329 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.012621260456910371</v>
+        <v>-0.007124516651282628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.011634919718700737</v>
+        <v>-0.006948284571634282</v>
       </c>
       <c r="E8" t="n">
-        <v>0.010853771638654643</v>
+        <v>-0.006798180893131313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.010128572134835971</v>
+        <v>-0.006648540734637941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009458008087178574</v>
+        <v>-0.006499357243609228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008841599847089618</v>
+        <v>-0.006350623577945691</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008278982300288238</v>
+        <v>-0.006202332908365393</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007770888963237522</v>
+        <v>-0.006054478420506562</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007315984235291453</v>
+        <v>-0.00590705331697558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00691331390870843</v>
+        <v>-0.005760050820300452</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006562362255549783</v>
+        <v>-0.005613464173133702</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006262796629388161</v>
+        <v>-0.005467286638450683</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0060154622957310075</v>
+        <v>-0.005321511506734856</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005819117259318059</v>
+        <v>-0.00517613209334606</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0056727522938690034</v>
+        <v>-0.005031141741201328</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005575966700397133</v>
+        <v>-0.00488653382227555</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005528367929322663</v>
+        <v>-0.0047423017390327464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0055308090189696586</v>
+        <v>-0.0045984389257900556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0055826983116500665</v>
+        <v>-0.0044549388500165895</v>
       </c>
       <c r="V8" t="n">
-        <v>0.005682655304066259</v>
+        <v>-0.004311795013569262</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00583033035213811</v>
+        <v>-0.004169000953867707</v>
       </c>
       <c r="X8" t="n">
-        <v>0.006025381105280913</v>
+        <v>-0.0040265502450103</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006268109344982558</v>
+        <v>-0.0038844364988333845</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0065588804325312725</v>
+        <v>-0.0037426533659156913</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.006896180105976262</v>
+        <v>-0.003601194536529936</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007279596029107527</v>
+        <v>-0.003460053741543543</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.007709420469940458</v>
+        <v>-0.0033190634374926434</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.008193389146413214</v>
+        <v>-0.0031760695514399606</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.00875522608247285</v>
+        <v>-0.0030258282100046616</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.009372422847771128</v>
+        <v>-0.002875112999087816</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.010111166106525757</v>
+        <v>-0.002709738741241041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.020275677151646354</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0194750551833597</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01891492101539149</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.018560374905674124</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01840911491721313</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.018460148380603048</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.018722708720894755</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.019188398150474212</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01987579609831649</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.02076739403737164</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.02187708254668432</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.023192579855919132</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.024724925778736636</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.026467087882514673</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.028425815973717402</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0305961428293257</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.032983363946738654</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.03558645405725939</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.03841056378839933</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.041457103374428976</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.044724535347324124</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.04821748646917414</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.05192855465248916</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.05586605528392668</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.06002255156702613</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.06440788512088975</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.06901238412988628</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.07385128265647303</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.07892213986212133</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.08423121631885269</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.08978607614074692</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.007124516651282628</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.006948284571634282</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.006798180893131313</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.006648540734637941</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.006499357243609228</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.006350623577945691</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.006202332908365393</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-0.006054478420506562</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.00590705331697558</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-0.005760050820300452</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.005613464173133702</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-0.005467286638450683</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.005321511506734856</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-0.00517613209334606</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.005031141741201328</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-0.00488653382227555</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-0.0047423017390327464</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-0.0045984389257900556</v>
-      </c>
-      <c r="U10" t="n">
-        <v>-0.0044549388500165895</v>
-      </c>
-      <c r="V10" t="n">
-        <v>-0.004311795013569262</v>
-      </c>
-      <c r="W10" t="n">
-        <v>-0.004169000953867707</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-0.0040265502450103</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-0.0038844364988333845</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-0.0037426533659156913</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>-0.003601194536529936</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-0.003460053741543543</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-0.0033190634374926434</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>-0.0031760695514399606</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>-0.0030258282100046616</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-0.002875112999087816</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>-0.002709738741241041</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2240034297229897</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.23666293248395884</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.24541147696183244</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.2539869113387708</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.262386953430037</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.27060963151772577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.27865605433448426</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.28652214817662525</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.29421227807309946</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.3017203547283781</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.30862697941454087</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.31579654743643626</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.32278475204647294</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.329588971770088</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.3362106645898375</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.34264779032771775</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.3489014283087157</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.3549706761113111</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.36085679590497194</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.3665601127282935</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.37207997798676334</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.37741767113734576</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.38257084267920083</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.3875419783625178</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.3923290626986186</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.3969352699057265</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.40138147385039624</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.40598660038468926</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.41151561750506715</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.41697974587988607</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.42405648572831106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.3170385632082173</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.3298040683151025</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.3386540755713343</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.34732642821392035</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.355818839334464</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.3641293327131241</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.37225901280255425</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.38020380184122526</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.38796806102259496</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.39554569743817786</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-0.402517308969809</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.4097472877549697</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-0.4167913241017333</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.4236467938143769</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.4303151523776042</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-0.4367943573389891</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-0.4430854859726366</v>
-      </c>
-      <c r="T13" t="n">
-        <v>-0.4491876340297849</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-0.4551020620763901</v>
-      </c>
-      <c r="V13" t="n">
-        <v>-0.4608290937713428</v>
-      </c>
-      <c r="W13" t="n">
-        <v>-0.46636807936430164</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-0.4717202973803325</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.4768833976106742</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.48185986532160535</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>-0.4866476847645728</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-0.49125003012197166</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-0.4956877754485778</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>-0.5002798470087133</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>-0.5057912134351216</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>-0.511233096256428</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>-0.518282996776015</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.25197188099516366</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.24886242490147875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.242145411060734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.23525474799489576</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.22818899650632704</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.22094704506465102</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.21353094203556977</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.20593735179747805</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.19817154825899624</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.19022810805448293</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.18168843396901396</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.17341765072398876</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.16497217617357934</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.15635012481734123</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.14755362469154196</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.13858136267982982</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.12943504887187893</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.12011445108836416</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.11062139817221908</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.10095680055726158</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.09112063634556872</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.08111467409823789</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-0.07093730818465727</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.06059139412004097</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.050075669388252086</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.039393572821888795</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.02856490025931513</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.017883257453153306</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.008052493056695115</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0018358730554016156</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.00896476091991022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.33739013798932904</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.3343831514734504</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.3277644390509506</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.3209679044527235</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.3139921038934434</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.306835921458652</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-0.29950140133379116</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.2919852039210199</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.28429259935694134</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-0.27641816070829955</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-0.2679432873971317</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-0.259733100986539</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-0.25134401637728937</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-0.24277414532057184</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.23402561330946</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.22509710488970386</v>
-      </c>
-      <c r="S16" t="n">
-        <v>-0.21599032801848916</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.20670504858951622</v>
-      </c>
-      <c r="U16" t="n">
-        <v>-0.19724309372435195</v>
-      </c>
-      <c r="V16" t="n">
-        <v>-0.1876053723411388</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-0.17779186123204466</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-0.16780432785408636</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>-0.15764116567845526</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-0.14730522952809486</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0.13679525640055912</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>-0.12611468484812127</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>-0.11528331063481809</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>-0.10459473964494634</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>-0.09475282086946804</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>-0.08484907472668929</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>-0.07770058192943818</v>
       </c>
     </row>
     <row r="17">
@@ -36988,750 +36790,846 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>130</v>
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.30687799235592483</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.28477893399579196</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.26595631124784147</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.24719181274017568</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.22848457918093815</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.20983375258810966</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.19123847658695856</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.17269789667370092</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.15421116047232122</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.13577741810492225</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.11739582221717006</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.09906552800316483</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.08078569410645288</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.06255548229001529</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.04437405777243586</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.026240589416081</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.00815424990657659</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.009885784076150914</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.027880331695000968</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.04583020780072863</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.06373622278461503</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.08159918243851853</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.09941988782205188</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.11719913513662983</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.13493771560614187</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.15263641536400321</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1703162439380674</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.18824731664245622</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.20708720197495806</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.22598650934542489</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.24672402423324666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.1445542895024128</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.09207518844033807</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.04063100511662919</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.010794818680319576</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06220255437240993</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.11359247296780924</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1649648449669959</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2163199402794778</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.267658028142671</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3189793770049185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3702842545174532</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4215729275265418</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.47284566178888493</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5241027220758568</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5753443720673213</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6265708742921913</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.6777824900717383</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.7289794794655668</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.7801621012201673</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.8313306127199656</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8824852699407879</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9336263274056545</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9847540381428256</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.035868653646017</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.0869704238367095</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.1380595970284704</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.1891428094368777</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.2403053815635614</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.291755017567279</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.3432234230291575</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.3908755274804334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.30687799235592483</v>
+        <v>-0.002447253532163425</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.28477893399579196</v>
+        <v>-0.0022710214525150795</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.26595631124784147</v>
+        <v>-0.0021209177740121104</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.24719181274017568</v>
+        <v>-0.001971277615518739</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.22848457918093815</v>
+        <v>-0.0018220941244900253</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.20983375258810966</v>
+        <v>-0.0016733604588264888</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.19123847658695856</v>
+        <v>-0.0015250697892461903</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.17269789667370092</v>
+        <v>-0.001377215301387359</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.15421116047232122</v>
+        <v>-0.001229790197856377</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.13577741810492225</v>
+        <v>-0.0010827877011812493</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.11739582221717006</v>
+        <v>-9.362010540144996E-4</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.09906552800316483</v>
+        <v>-7.900235193314801E-4</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.08078569410645288</v>
+        <v>-6.442483876156534E-4</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.06255548229001529</v>
+        <v>-4.988689742268577E-4</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.04437405777243586</v>
+        <v>-3.5387862208212536E-4</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.026240589416081</v>
+        <v>-2.0927070315634755E-4</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.00815424990657659</v>
+        <v>-6.503861991354412E-5</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009885784076150914</v>
+        <v>7.882419332914678E-5</v>
       </c>
       <c r="U20" t="n">
-        <v>0.027880331695000968</v>
+        <v>2.223242691026133E-4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04583020780072863</v>
+        <v>3.654681055499399E-4</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06373622278461503</v>
+        <v>5.082621652514959E-4</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08159918243851853</v>
+        <v>6.507128741089028E-4</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09941988782205188</v>
+        <v>7.92826620285818E-4</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.11719913513662983</v>
+        <v>9.346097532035112E-4</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.13493771560614187</v>
+        <v>0.0010760685825892664</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.15263641536400321</v>
+        <v>0.0012172093775756599</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1703162439380674</v>
+        <v>0.0013581996816265593</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.18824731664245622</v>
+        <v>0.0015011935676792422</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.20708720197495806</v>
+        <v>0.0016514349091145413</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.22598650934542489</v>
+        <v>0.001802150120031387</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.24672402423324666</v>
+        <v>0.0019675243778781615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.1445542895024128</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.09207518844033807</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.04063100511662919</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.010794818680319576</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.06220255437240993</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.11359247296780924</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1649648449669959</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.2163199402794778</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.267658028142671</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.3189793770049185</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.3702842545174532</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.4215729275265418</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.47284566178888493</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.5241027220758568</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.5753443720673213</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.6265708742921913</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.6777824900717383</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.7289794794655668</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.7801621012201673</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.8313306127199656</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.8824852699407879</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.9336263274056545</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.9847540381428256</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.035868653646017</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.0869704238367095</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.1380595970284704</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.1891428094368777</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1.2403053815635614</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.291755017567279</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.3432234230291575</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.3908755274804334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.012221260456910372</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.011234919718700737</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.010453771638654644</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.009728572134835972</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.009058008087178574</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.008441599847089618</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.007878982300288238</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.007370888963237522</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.006915984235291453</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.006513313908708429</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.006162362255549783</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.0058627966293881605</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.005615462295731007</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0054191172593180586</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.005272752293869003</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.005175966700397133</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.005128367929322663</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.005130809018969658</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.005182698311650066</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.005282655304066259</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.00543033035213811</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.005625381105280913</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.005868109344982558</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.006158880432531272</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.0064961801059762615</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.006879596029107527</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.007309420469940458</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.007793389146413214</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.00835522608247285</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.008972422847771128</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0.009711166106525757</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02014933036985484</v>
+        <v>-0.029510935155306395</v>
       </c>
       <c r="D23" t="n">
-        <v>0.019348708401568188</v>
+        <v>-0.04194712285701857</v>
       </c>
       <c r="E23" t="n">
-        <v>0.018788574233599982</v>
+        <v>-0.050481774024196596</v>
       </c>
       <c r="F23" t="n">
-        <v>0.018434028123882618</v>
+        <v>-0.05885274726385929</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01828276813542162</v>
+        <v>-0.06705777035641691</v>
       </c>
       <c r="H23" t="n">
-        <v>0.018333801598811535</v>
+        <v>-0.07509488108891522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.018596361939103245</v>
+        <v>-0.08296519723829238</v>
       </c>
       <c r="J23" t="n">
-        <v>0.019062051368682702</v>
+        <v>-0.0906646536840516</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01974944931652498</v>
+        <v>-0.09819762357681529</v>
       </c>
       <c r="L23" t="n">
-        <v>0.020641047255580126</v>
+        <v>-0.10555802528081165</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02175073576489281</v>
+        <v>-0.11232646726558884</v>
       </c>
       <c r="N23" t="n">
-        <v>0.023066233074127623</v>
+        <v>-0.11936735157082562</v>
       </c>
       <c r="O23" t="n">
-        <v>0.024598578996945123</v>
+        <v>-0.1262363777207932</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02634074110072316</v>
+        <v>-0.1329309300495188</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02829946919192589</v>
+        <v>-0.13945247188459262</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03046979604753419</v>
+        <v>-0.1457989679292286</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03285701716494714</v>
+        <v>-0.15197150192557718</v>
       </c>
       <c r="T23" t="n">
-        <v>0.035460107275467875</v>
+        <v>-0.15796917540501176</v>
       </c>
       <c r="U23" t="n">
-        <v>0.038284217006607814</v>
+        <v>-0.16379325402543202</v>
       </c>
       <c r="V23" t="n">
-        <v>0.04133075659263747</v>
+        <v>-0.16944406584923222</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04459818856553261</v>
+        <v>-0.17492096484091996</v>
       </c>
       <c r="X23" t="n">
-        <v>0.048091139687382635</v>
+        <v>-0.1802252325515743</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.051802207870697656</v>
+        <v>-0.18535452110946446</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.055739708502135166</v>
+        <v>-0.1903113174288023</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.05989620478523462</v>
+        <v>-0.19509360671979037</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06428153833909823</v>
+        <v>-0.19970456343435572</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06888603734809476</v>
+        <v>-0.20416506120756878</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07372493587468153</v>
+        <v>-0.20879402519482967</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.07879579308032983</v>
+        <v>-0.2143564222307965</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.08410486953706119</v>
+        <v>-0.2198634713569351</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0896597293589554</v>
+        <v>-0.22699267070051404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.002447253532163425</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.0022710214525150795</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.0021209177740121104</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.001971277615518739</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.0018220941244900253</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-0.0016733604588264888</v>
-      </c>
-      <c r="I24" t="n">
-        <v>-0.0015250697892461903</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-0.001377215301387359</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.001229790197856377</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-0.0010827877011812493</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-9.362010540144996E-4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-7.900235193314801E-4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-6.442483876156534E-4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-4.988689742268577E-4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-3.5387862208212536E-4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-2.0927070315634755E-4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>-6.503861991354412E-5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7.882419332914678E-5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.223242691026133E-4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3.654681055499399E-4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.082621652514959E-4</v>
-      </c>
-      <c r="X24" t="n">
-        <v>6.507128741089028E-4</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>7.92826620285818E-4</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9.346097532035112E-4</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.0010760685825892664</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.0012172093775756599</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.0013581996816265593</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0015011935676792422</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.0016514349091145413</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.001802150120031387</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.0019675243778781615</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.07329139369925955</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.06996622154559336</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.0630421423681373</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0559530747809303</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.04869758925629172</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.041274583511213936</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.033686114735730466</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.025928855709099252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.018008088316926567</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.009918396746290668</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.0012411909103525187</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.007158397766384791</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.015723945151954345</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.024457330894620013</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.033356421531833304</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.042422525179829126</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.05165392717522446</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.06105085555026619</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0706114777417754</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.08033488002270309</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.09022108142491557</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1002683109485736</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.11047817221297998</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.12084780811914325</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.13137848002703112</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.14206674837554104</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1528928170255051</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.16356308035121211</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1733736902539901</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.18323312784148302</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.19032431456039933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.029510935155306395</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.04194712285701857</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.050481774024196596</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.05885274726385929</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.06705777035641691</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.07509488108891522</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.08296519723829238</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-0.0906646536840516</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.09819762357681529</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.10555802528081165</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.11232646726558884</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-0.11936735157082562</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-0.1262363777207932</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-0.1329309300495188</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.13945247188459262</v>
-      </c>
-      <c r="R27" t="n">
-        <v>-0.1457989679292286</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-0.15197150192557718</v>
-      </c>
-      <c r="T27" t="n">
-        <v>-0.15796917540501176</v>
-      </c>
-      <c r="U27" t="n">
-        <v>-0.16379325402543202</v>
-      </c>
-      <c r="V27" t="n">
-        <v>-0.16944406584923222</v>
-      </c>
-      <c r="W27" t="n">
-        <v>-0.17492096484091996</v>
-      </c>
-      <c r="X27" t="n">
-        <v>-0.1802252325515743</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-0.18535452110946446</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>-0.1903113174288023</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>-0.19509360671979037</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>-0.19970456343435572</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>-0.20416506120756878</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>-0.20879402519482967</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>-0.2143564222307965</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>-0.2198634713569351</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>-0.22699267070051404</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>5</v>
+      <c r="A28" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07329139369925955</v>
+        <v>-0.4741770071837611</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06996622154559336</v>
+        <v>-0.4520779488236282</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0630421423681373</v>
+        <v>-0.43325532607567774</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0559530747809303</v>
+        <v>-0.4144908275680119</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.04869758925629172</v>
+        <v>-0.3957835940087744</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.041274583511213936</v>
+        <v>-0.3771327674159459</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.033686114735730466</v>
+        <v>-0.3585374914147948</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.025928855709099252</v>
+        <v>-0.33999691150153716</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.018008088316926567</v>
+        <v>-0.32151017530015746</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.009918396746290668</v>
+        <v>-0.3030764329327585</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0012411909103525187</v>
+        <v>-0.2846948370450063</v>
       </c>
       <c r="N30" t="n">
-        <v>0.007158397766384791</v>
+        <v>-0.2663645428310011</v>
       </c>
       <c r="O30" t="n">
-        <v>0.015723945151954345</v>
+        <v>-0.24808470893428913</v>
       </c>
       <c r="P30" t="n">
-        <v>0.024457330894620013</v>
+        <v>-0.22985449711785153</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.033356421531833304</v>
+        <v>-0.2116730726002721</v>
       </c>
       <c r="R30" t="n">
-        <v>0.042422525179829126</v>
+        <v>-0.19353960424391725</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05165392717522446</v>
+        <v>-0.17545326473441283</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06105085555026619</v>
+        <v>-0.15741323075168534</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0706114777417754</v>
+        <v>-0.13941868313283529</v>
       </c>
       <c r="V30" t="n">
-        <v>0.08033488002270309</v>
+        <v>-0.1214688070271076</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09022108142491557</v>
+        <v>-0.1035627920432212</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1002683109485736</v>
+        <v>-0.0856998323893177</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.11047817221297998</v>
+        <v>-0.06787912700578436</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.12084780811914325</v>
+        <v>-0.05009987969120641</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.13137848002703112</v>
+        <v>-0.03236129922169437</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.14206674837554104</v>
+        <v>-0.014662599463833026</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1528928170255051</v>
+        <v>0.0030172291102311677</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.16356308035121211</v>
+        <v>0.020948301814619985</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.1733736902539901</v>
+        <v>0.03978818714712182</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.18323312784148302</v>
+        <v>0.058687494517588645</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.19032431456039933</v>
+        <v>0.07942500940541042</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.19739851980338136</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.1449194187413066</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.09347523541759775</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.04204941162064896</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009358324071441382</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.060748242666840674</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.11212061466602737</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.16347570997850924</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2148137978417024</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.26613514670394994</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.31744002421648465</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3687286972255732</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.42000143148791635</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.4712584917748883</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5225001417663527</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5737266439912228</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.6249382597707698</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.6761352491645983</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.7273178709191986</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.778486382418997</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.8296410396398193</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.8807820971046859</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.9319098078418571</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9830244233450486</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.034126193535741</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.0852153667275017</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.1362985791359093</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.1874611512625928</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.2389107872663105</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.290379192728189</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.3380312971794648</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>131</v>
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0022300323787072984</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0024062644583556438</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002556368136858613</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0027060082953519844</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0028551917863806975</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0030039254520442342</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0031522161216245327</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.003300070609483364</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.003447495713014346</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.003594498209689474</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0037410848568562236</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.003887262391539243</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.00403303752325507</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.004178416936643866</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.004323407288788598</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.004468015207714376</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.004612247290957179</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.00475611010419987</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.004899610179973336</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.005042754016420663</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.005185548076122219</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.005327998784979626</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0054701125311565416</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.005611895664074234</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.0057533544934599895</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.005894495288446383</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.006035485592497282</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.006178479478549965</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.006328720819985264</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.00647943603090211</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.006644810288748885</v>
       </c>
     </row>
     <row r="33">
@@ -37741,406 +37639,118 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.5547539296177634</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.5326548712576306</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.51383224850968</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.49506775000201425</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.4763605164427767</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-0.4577096898499482</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-0.4391144138487971</v>
-      </c>
-      <c r="J34" t="n">
-        <v>-0.4205738339355395</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-0.4020870977341598</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-0.3836533553667608</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-0.36527175947900864</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-0.3469414652650034</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-0.32866163136829146</v>
-      </c>
-      <c r="P34" t="n">
-        <v>-0.3104314195518538</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-0.2922499950342744</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.2741165266779196</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-0.25603018716841514</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-0.23799015318568767</v>
-      </c>
-      <c r="U34" t="n">
-        <v>-0.21999560556683762</v>
-      </c>
-      <c r="V34" t="n">
-        <v>-0.20204572946110994</v>
-      </c>
-      <c r="W34" t="n">
-        <v>-0.18413971447722355</v>
-      </c>
-      <c r="X34" t="n">
-        <v>-0.16627675482332005</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>-0.14845604943978669</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>-0.13067680212520874</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>-0.1129382216556967</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>-0.09523952189783536</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>-0.07755969332377116</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>-0.059628620619382344</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>-0.04078873528688051</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>-0.021889427916413684</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>-0.001151913028591911</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.22285010689388238</v>
+        <v>0.16513169242641346</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.17037100583180767</v>
+        <v>0.15291252881738682</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.11892682250809875</v>
+        <v>0.14458547298400773</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.06750099871115</v>
+        <v>0.13641265620135373</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.016093263019059667</v>
+        <v>0.12839634103114816</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03529665557633965</v>
+        <v>0.12053848048898767</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08666902757552633</v>
+        <v>0.1128379480615325</v>
       </c>
       <c r="J35" t="n">
-        <v>0.13802412288800822</v>
+        <v>0.1052988005942605</v>
       </c>
       <c r="K35" t="n">
-        <v>0.18936221075120138</v>
+        <v>0.09791665712331578</v>
       </c>
       <c r="L35" t="n">
-        <v>0.24068355961344892</v>
+        <v>0.09069759193340302</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2919884371259836</v>
+        <v>0.08406098966643183</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3432771101350722</v>
+        <v>0.07714244185704158</v>
       </c>
       <c r="O35" t="n">
-        <v>0.39454984439741536</v>
+        <v>0.0703862430184529</v>
       </c>
       <c r="P35" t="n">
-        <v>0.4458069046843873</v>
+        <v>0.06379500331759445</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.49704855467585174</v>
+        <v>0.0573672543915645</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5482750569007216</v>
+        <v>0.051105026965814995</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5994866726802688</v>
+        <v>0.04500723319106178</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6506836620740973</v>
+        <v>0.03907476789319851</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7018662838286976</v>
+        <v>0.033306362236170874</v>
       </c>
       <c r="V35" t="n">
-        <v>0.7530347953284959</v>
+        <v>0.027701685444162766</v>
       </c>
       <c r="W35" t="n">
-        <v>0.8041894525493183</v>
+        <v>0.022261381304110345</v>
       </c>
       <c r="X35" t="n">
-        <v>0.8553305100141849</v>
+        <v>0.016984166481352966</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.9064582207513561</v>
+        <v>0.011872387529101955</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.9575728362545476</v>
+        <v>0.006923556679751863</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.0086746064452399</v>
+        <v>0.0021396883348745316</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.0597637796370007</v>
+        <v>-0.0024823918804963985</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.110846992045408</v>
+        <v>-0.006963557059287501</v>
       </c>
       <c r="AD35" t="n">
-        <v>1.1620095641720918</v>
+        <v>-0.011622731349598792</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.2134592001758093</v>
+        <v>-0.017224880113680813</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.264927605637688</v>
+        <v>-0.022781220455556223</v>
       </c>
       <c r="AG35" t="n">
-        <v>1.3125797100889638</v>
+        <v>-0.029969248100109175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.012601260456910372</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.011614919718700737</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.010833771638654644</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.010108572134835972</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.009438008087178575</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.008821599847089618</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.008258982300288239</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.007750888963237522</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.007295984235291453</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0068933139087084296</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.006542362255549783</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.006242796629388161</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.005995462295731007</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.005799117259318059</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.005652752293869003</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.005555966700397133</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.005508367929322663</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0055108090189696585</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0055626983116500665</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.005662655304066259</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.00581033035213811</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.006005381105280913</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.006248109344982558</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.0065388804325312725</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.006876180105976262</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.007259596029107527</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.007689420469940458</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.008173389146413215</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.00873522608247285</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.009352422847771128</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0.010091166106525757</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.02026935981255678</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.019468737844270126</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.018908603676301917</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.01855405756658455</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.018402797578123554</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.01845383104151347</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.01871639138180518</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.019182080811384637</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.019869478759226913</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.020761076698282064</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.021870765207594744</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.023186262516829557</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.02471860843964706</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.026460770543425098</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.028419498634627827</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.030589825490236127</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.03297704660764908</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.035580136718169814</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.03840424644930975</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.0414507860353394</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.04471821800823455</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.04821116913008457</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.05192223731339958</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.055859737944837104</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.06001623422793655</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.06440156778180017</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.0690060667907967</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.07384496531738345</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.07891582252303175</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.08422489897976311</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.08977975880165734</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -38151,97 +37761,97 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0022300323787072984</v>
+        <v>0.1055340707096907</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0024062644583556438</v>
+        <v>0.10906918283041649</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002556368136858613</v>
+        <v>0.11619454446753416</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0027060082953519844</v>
+        <v>0.12347622719678177</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0028551917863806975</v>
+        <v>0.13091565115804965</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0030039254520442342</v>
+        <v>0.13851390966944527</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0031522161216245327</v>
+        <v>0.14626893699936283</v>
       </c>
       <c r="J38" t="n">
-        <v>0.003300070609483364</v>
+        <v>0.15418405225071527</v>
       </c>
       <c r="K38" t="n">
-        <v>0.003447495713014346</v>
+        <v>0.1622539658442068</v>
       </c>
       <c r="L38" t="n">
-        <v>0.003594498209689474</v>
+        <v>0.17048408632358344</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0037410848568562236</v>
+        <v>0.17929299693137757</v>
       </c>
       <c r="N38" t="n">
-        <v>0.003887262391539243</v>
+        <v>0.18781555982398118</v>
       </c>
       <c r="O38" t="n">
-        <v>0.00403303752325507</v>
+        <v>0.19649534487583772</v>
       </c>
       <c r="P38" t="n">
-        <v>0.004178416936643866</v>
+        <v>0.20533422616742816</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.004323407288788598</v>
+        <v>0.2143300650945</v>
       </c>
       <c r="R38" t="n">
-        <v>0.004468015207714376</v>
+        <v>0.22348416505791285</v>
       </c>
       <c r="S38" t="n">
-        <v>0.004612247290957179</v>
+        <v>0.23279480710546746</v>
       </c>
       <c r="T38" t="n">
-        <v>0.00475611010419987</v>
+        <v>0.2422622154073624</v>
       </c>
       <c r="U38" t="n">
-        <v>0.004899610179973336</v>
+        <v>0.2518845539653265</v>
       </c>
       <c r="V38" t="n">
-        <v>0.005042754016420663</v>
+        <v>0.2616609060443421</v>
       </c>
       <c r="W38" t="n">
-        <v>0.005185548076122219</v>
+        <v>0.2715912880955772</v>
       </c>
       <c r="X38" t="n">
-        <v>0.005327998784979626</v>
+        <v>0.2816739269658899</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0054701125311565416</v>
+        <v>0.29191042454878147</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.005611895664074234</v>
+        <v>0.3022979224470438</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0057533544934599895</v>
+        <v>0.3128376811500764</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.005894495288446383</v>
+        <v>0.32352626065389906</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.006035485592497282</v>
+        <v>0.33434386480417866</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.006178479478549965</v>
+        <v>0.3449968883877518</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.006328720819985264</v>
+        <v>0.35478148414618715</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.00647943603090211</v>
+        <v>0.3646061344550214</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.006644810288748885</v>
+        <v>0.3716537624564458</v>
       </c>
     </row>
     <row r="39">
@@ -38250,220 +37860,316 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>127</v>
+      <c r="A40" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.258166825911641</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.24605366464853062</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.23782807159350963</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.22975217307650314</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.22182822693557525</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.21405818168438612</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.20644090652960273</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.19898045425886063</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.19167244007281137</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.18452293464320277</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.1779513192217</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.1710931821755751</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.16439281507371337</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.1578528253618834</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.1514717421793312</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.1452515939770863</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.13919129085498258</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.13329172581167226</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.12755162840758885</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.12197066648721211</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.11654948268164857</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.11128679272433968</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.1061849424605753</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.10124144363883958</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.09645831040082888</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.09183236833574884</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.087342744538894</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.08267051527442543</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.07705071581637359</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.07147212992098576</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0.06425726294759466</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.6414760220115974</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.6193769636514644</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.6005543409035139</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5817898423958482</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.5630826088366107</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.5444317822437821</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.525836506242631</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.5072959263293734</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.48880919012799373</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.4703754477605947</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.4519938518728425</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.4336635576588373</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.41538372376212535</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.39715351194568776</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.37897208742810834</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.36083861907175346</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.3427522795622491</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-0.32471224557952155</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-0.3067176979606715</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.2887678218549439</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-0.27086180687105743</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.25299884721715393</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-0.2351781418336206</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.21739889451904265</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>-0.1996603140495306</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-0.18196161429166927</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-0.16428178571760507</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>-0.14635071301321625</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>-0.12751082768071442</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>-0.1086115203102476</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-0.08787400542242582</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.25024275010434993</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.19776364904227517</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.14631946571856627</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.09489364192161753</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.043485906229527166</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.007904012365872154</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.05927638436505883</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.11063147967754072</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.16196956754073386</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.21329091640298142</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.26459579391551613</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.3158844669246047</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.36715720118694783</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.41841426147391975</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4696559114653842</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.5208824136902541</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5720940294698013</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6232910188636298</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6744736406182301</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7256421521180285</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.7767968093388508</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8279378668037174</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.8790655775408885</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.9301801930440801</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.9812819632347725</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.0323711364265333</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.0834543488349406</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1.1346169209616244</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.186066556965342</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.2375349624272205</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.2851870668784964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.19095232770385587</v>
+        <v>0.015175330659806023</v>
       </c>
       <c r="D44" t="n">
-        <v>0.19458990940238818</v>
+        <v>0.015351562739454368</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2018135724577508</v>
+        <v>0.015501666417957336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2091893836546096</v>
+        <v>0.01565130657645071</v>
       </c>
       <c r="G44" t="n">
-        <v>0.21671875854516595</v>
+        <v>0.01580049006747942</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2244027860634463</v>
+        <v>0.015949223733142958</v>
       </c>
       <c r="I44" t="n">
-        <v>0.23223939629758422</v>
+        <v>0.016097514402723258</v>
       </c>
       <c r="J44" t="n">
-        <v>0.24023190437425715</v>
+        <v>0.016245368890582087</v>
       </c>
       <c r="K44" t="n">
-        <v>0.24837501694215186</v>
+        <v>0.01639279399411307</v>
       </c>
       <c r="L44" t="n">
-        <v>0.25667413897740005</v>
+        <v>0.016539796490788197</v>
       </c>
       <c r="M44" t="n">
-        <v>0.26554785035949535</v>
+        <v>0.01668638313795495</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2741310100865316</v>
+        <v>0.016832560672637966</v>
       </c>
       <c r="O44" t="n">
-        <v>0.2828671850795477</v>
+        <v>0.016978335804353793</v>
       </c>
       <c r="P44" t="n">
-        <v>0.29175824667065886</v>
+        <v>0.01712371521774259</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.30080205371241797</v>
+        <v>0.017268705569887324</v>
       </c>
       <c r="R44" t="n">
-        <v>0.30999990726778687</v>
+        <v>0.0174133134888131</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3193500862520776</v>
+        <v>0.017557545572055903</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3288528129085144</v>
+        <v>0.017701408385298593</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3385062495174593</v>
+        <v>0.017844908461072062</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3483094778282194</v>
+        <v>0.01798805229751939</v>
       </c>
       <c r="W44" t="n">
-        <v>0.35826251298205314</v>
+        <v>0.018130846357220943</v>
       </c>
       <c r="X44" t="n">
-        <v>0.36836358072173836</v>
+        <v>0.01827329706607835</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3786142820425794</v>
+        <v>0.018415410812255267</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.3890117578550978</v>
+        <v>0.018557193945172957</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.3995572681623835</v>
+        <v>0.018698652774558712</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.4102473726801315</v>
+        <v>0.018839793569545106</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.42106227517968153</v>
+        <v>0.018980783873596006</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.4317083705795448</v>
+        <v>0.01912377775964869</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.44148181195895997</v>
+        <v>0.01927401910108399</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.4512910822371123</v>
+        <v>0.019424734312000834</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.45831910530579417</v>
+        <v>0.01959010856984761</v>
       </c>
     </row>
     <row r="45">
@@ -38472,518 +38178,230 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>132</v>
+      <c r="A46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.36240616772381307</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3503977372409005</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3422719787644236</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.33429101375851106</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.32645709543430146</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.31877216791762625</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.311235096266634</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3038499293599546</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2966122787289368</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.2895282116159091</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.28301710608316444</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2762145475488086</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.2695648248729085</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.2630705430328952</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.25673022894027714</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2505459090590561</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.2445164917428442</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.23864286848496286</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.23292376758147973</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2273588558535347</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.22194877514997047</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.21669224066307918</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.21159159793814147</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.20664435866478803</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.20185253716701929</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.1972129594574947</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.1927047532960907</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.18800899585264652</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.18236072354792301</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.1767487215258938</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.16949549677454648</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-0.7970732792804593</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-0.7749742209203265</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.756151598172376</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.7373870996647102</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.7186798661054726</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-0.7000290395126442</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-0.6814337635114931</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-0.6628931835982355</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.6444064473968557</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.6259727050294568</v>
-      </c>
-      <c r="M48" t="n">
-        <v>-0.6075911091417046</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-0.5892608149276993</v>
-      </c>
-      <c r="O48" t="n">
-        <v>-0.5709809810309874</v>
-      </c>
-      <c r="P48" t="n">
-        <v>-0.5527507692145498</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-0.5345693446969704</v>
-      </c>
-      <c r="R48" t="n">
-        <v>-0.5164358763406155</v>
-      </c>
-      <c r="S48" t="n">
-        <v>-0.4983495368311111</v>
-      </c>
-      <c r="T48" t="n">
-        <v>-0.4803095028483836</v>
-      </c>
-      <c r="U48" t="n">
-        <v>-0.46231495522953353</v>
-      </c>
-      <c r="V48" t="n">
-        <v>-0.4443650791238059</v>
-      </c>
-      <c r="W48" t="n">
-        <v>-0.42645906413991946</v>
-      </c>
-      <c r="X48" t="n">
-        <v>-0.40859610448601597</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>-0.3907753991024826</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>-0.3729961517879047</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>-0.35525757131839264</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>-0.3375588715605313</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>-0.3198790429864671</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>-0.3019479702820783</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>-0.28310808494957646</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>-0.26420877757910965</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>-0.24347126269128785</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-0.29939078188311624</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-0.2469116808210415</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-0.1954674974973326</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-0.14404167370038384</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.0926339380082935</v>
-      </c>
-      <c r="H49" t="n">
-        <v>-0.04124401941289421</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.010128352586292466</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.06148344789877436</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.11282153576196755</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.16414288462421506</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.21544776213674977</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.26673643514583834</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.31800916940818147</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.36926622969515344</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.42050787968661785</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.4717343819114878</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.5229459976910349</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.5741429870848634</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0.6253256088394639</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.6764941203392622</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0.7276487775600844</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.7787898350249511</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0.8299175457621222</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0.8810321612653137</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.9321339314560061</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0.9832231046477669</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.0343063170561744</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.0854688891828579</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.1369185251865757</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.188386930648454</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1.23603903509973</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.013761260456910372</v>
+        <v>0.2869862269333301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.012774919718700737</v>
+        <v>0.2907255029281939</v>
       </c>
       <c r="E50" t="n">
-        <v>0.011993771638654643</v>
+        <v>0.2980463641479235</v>
       </c>
       <c r="F50" t="n">
-        <v>0.011268572134835972</v>
+        <v>0.3055148726398834</v>
       </c>
       <c r="G50" t="n">
-        <v>0.010598008087178574</v>
+        <v>0.3131324394383399</v>
       </c>
       <c r="H50" t="n">
-        <v>0.009981599847089618</v>
+        <v>0.3209001491789698</v>
       </c>
       <c r="I50" t="n">
-        <v>0.009418982300288238</v>
+        <v>0.3288159278713533</v>
       </c>
       <c r="J50" t="n">
-        <v>0.008910888963237521</v>
+        <v>0.3368830867836089</v>
       </c>
       <c r="K50" t="n">
-        <v>0.008455984235291453</v>
+        <v>0.34509632892604686</v>
       </c>
       <c r="L50" t="n">
-        <v>0.008053313908708429</v>
+        <v>0.3534610558567826</v>
       </c>
       <c r="M50" t="n">
-        <v>0.007702362255549783</v>
+        <v>0.36239584425781934</v>
       </c>
       <c r="N50" t="n">
-        <v>0.00740279662938816</v>
+        <v>0.37103555015044354</v>
       </c>
       <c r="O50" t="n">
-        <v>0.007155462295731007</v>
+        <v>0.37982373769971384</v>
       </c>
       <c r="P50" t="n">
-        <v>0.006959117259318058</v>
+        <v>0.38876227570272653</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.006812752293869003</v>
+        <v>0.39784902069810113</v>
       </c>
       <c r="R50" t="n">
-        <v>0.006715966700397133</v>
+        <v>0.4070852716560644</v>
       </c>
       <c r="S50" t="n">
-        <v>0.006668367929322663</v>
+        <v>0.4164693056204932</v>
       </c>
       <c r="T50" t="n">
-        <v>0.006670809018969658</v>
+        <v>0.4260013431845675</v>
       </c>
       <c r="U50" t="n">
-        <v>0.006722698311650066</v>
+        <v>0.4356795452000773</v>
       </c>
       <c r="V50" t="n">
-        <v>0.006822655304066259</v>
+        <v>0.4455029922092988</v>
       </c>
       <c r="W50" t="n">
-        <v>0.00697033035213811</v>
+        <v>0.4554716983680592</v>
       </c>
       <c r="X50" t="n">
-        <v>0.007165381105280913</v>
+        <v>0.46558388865535405</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.007408109344982558</v>
+        <v>0.4758411635243902</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.007698880432531272</v>
+        <v>0.4862406635653038</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.008036180105976261</v>
+        <v>0.49678364868252683</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.008419596029107527</v>
+        <v>0.5074666787148284</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.008849420469940458</v>
+        <v>0.5182699577783487</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.009333389146413214</v>
+        <v>0.5288998813581088</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.00989522608247285</v>
+        <v>0.538652603321539</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.010512422847771128</v>
+        <v>0.5484366075976599</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.011251166106525757</v>
+        <v>0.5554348193096929</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.020635765479752162</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.01983514351146551</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.019275009343497296</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.01892046323377993</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.018769203245318937</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.018820236708708853</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.019082797049000563</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.01954848647858002</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.020235884426422296</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.021127482365477446</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.022237170874790126</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.023552668184024936</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.025085014106842444</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.02682717621062048</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.02878590430182321</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.03095623115743151</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.03334345227484446</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.035946542385365196</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.038770652116505135</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0.041817191702534784</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.04508462367542993</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.048577574797279956</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0.05228864298059496</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.056226143612032486</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0.060382639895131936</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0.06476797344899556</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0.06937247245799208</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.07421137098457883</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.07928222819022714</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0.08459130464695849</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0.09014616446885272</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.015175330659806023</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.015351562739454368</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.015501666417957336</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.01565130657645071</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.01580049006747942</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.015949223733142958</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.016097514402723258</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.016245368890582087</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.01639279399411307</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.016539796490788197</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.01668638313795495</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.016832560672637966</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.016978335804353793</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.01712371521774259</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.017268705569887324</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.0174133134888131</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.017557545572055903</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.017701408385298593</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.017844908461072062</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0.01798805229751939</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.018130846357220943</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.01827329706607835</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0.018415410812255267</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.018557193945172957</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0.018698652774558712</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0.018839793569545106</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0.018980783873596006</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.01912377775964869</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.01927401910108399</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0.019424734312000834</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0.01959010856984761</v>
+      <c r="A52" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -38993,971 +38411,1067 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.8087750368394335</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.7866759784793007</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.7678533557313502</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.7490888572236843</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.7303816236644468</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.7117307970716183</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.6931355210704673</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.6745949411572096</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.6561082049558299</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.637674462588431</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.6192928667006787</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.6009625724866735</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.5826827385899616</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.564452526773524</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.5462711022559446</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.5281376338995897</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.5100512943900852</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.49201126040735776</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.4740167127885077</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.4560668366827801</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.43816082169889364</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.42029786204499014</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.4024771566614568</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.38469790934687886</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.3669593288773668</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.3492606291195055</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.33158080054544126</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.3136497278410525</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.29480984250855063</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.27591053513808383</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.255173020250262</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5420607283928515</v>
+        <v>-0.30308698040531845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5302569926760131</v>
+        <v>-0.2506078793432437</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5223271628792441</v>
+        <v>-0.19916369601953482</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5145333509173855</v>
+        <v>-0.14773787222258605</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5068778008800009</v>
+        <v>-0.09633013653049569</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4993624481995026</v>
+        <v>-0.044940217935096394</v>
       </c>
       <c r="I55" t="n">
-        <v>0.49198614966920146</v>
+        <v>0.006432154064090256</v>
       </c>
       <c r="J55" t="n">
-        <v>0.48475294633187205</v>
+        <v>0.05778724937657215</v>
       </c>
       <c r="K55" t="n">
-        <v>0.47765844231237325</v>
+        <v>0.10912533723976536</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4707086978762693</v>
+        <v>0.16044668610201285</v>
       </c>
       <c r="M55" t="n">
-        <v>0.4643230845391555</v>
+        <v>0.21175156361454758</v>
       </c>
       <c r="N55" t="n">
-        <v>0.4576371816028252</v>
+        <v>0.2630402366236362</v>
       </c>
       <c r="O55" t="n">
-        <v>0.45109527224171625</v>
+        <v>0.3143129708859793</v>
       </c>
       <c r="P55" t="n">
-        <v>0.4446999561785903</v>
+        <v>0.3655700311729512</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4384497555015043</v>
+        <v>0.4168116811644157</v>
       </c>
       <c r="R55" t="n">
-        <v>0.43234669228245826</v>
+        <v>0.4680381833892856</v>
       </c>
       <c r="S55" t="n">
-        <v>0.42638967091472996</v>
+        <v>0.5192497991688327</v>
       </c>
       <c r="T55" t="n">
-        <v>0.42057957936316387</v>
+        <v>0.5704467885626613</v>
       </c>
       <c r="U55" t="n">
-        <v>0.41491514282738257</v>
+        <v>0.6216294103172616</v>
       </c>
       <c r="V55" t="n">
-        <v>0.40939602546426107</v>
+        <v>0.6727979218170599</v>
       </c>
       <c r="W55" t="n">
-        <v>0.4040228668906898</v>
+        <v>0.7239525790378822</v>
       </c>
       <c r="X55" t="n">
-        <v>0.3987943804994284</v>
+        <v>0.7750936365027489</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3937129104687326</v>
+        <v>0.82622134723992</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.38877596755378324</v>
+        <v>0.8773359627431115</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.3839855655767506</v>
+        <v>0.9284377329338039</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.37933853048110894</v>
+        <v>0.9795269061255647</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.37481399039019697</v>
+        <v>1.030610118533972</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.37009302326994675</v>
+        <v>1.0817726906606557</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.36441066676980316</v>
+        <v>1.1332223266643733</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.3587557076949552</v>
+        <v>1.1846907321262519</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.351450655127057</v>
+        <v>1.2323428365775277</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.031879034551687065</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.032055266631335406</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.03220537030983838</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.03235501046833175</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03250419395936047</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.032652927625024</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0328012182946043</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.03294907278246313</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.033096497885994114</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.03324350038266924</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.03339008702983599</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.03353626456451901</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.03368203969623484</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.033827419109623634</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.03397240946176836</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.03411701738069414</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.034261249463936945</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.034405112277179635</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.034548612352953104</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.03469175618940043</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.03483455024910199</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.034977000957959394</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.035119114704136305</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.035260897837054</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.035402356666439753</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.03554349746142615</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.03568448776547705</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.035827481651529734</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.03597772299296503</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.036128438203881875</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.03629381246172865</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.45193229470931096</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.4558694435538511</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.46338012874057455</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.47103040306509264</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.4788216687026623</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.4867550018231237</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.49482832036380703</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5030449279145608</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.5113995202017798</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.5198974918943725</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.5289574131801807</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.5377141339816901</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.5466112127608181</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.5556505130074563</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.5648298863492144</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.5741506272417441</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.5836110086110019</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.5932112473291034</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.6029495009238104</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.6128248470105697</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.622837297215721</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.6329850743862366</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0.6432697772408688</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.6536885450329524</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0.6642426367278365</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0.674928611622971</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0.6857266736909678</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.6963432186711175</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.7060744010829034</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0.7158287059051542</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0.7227890597086009</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5609588899265237</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5491549016031535</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5412241425066828</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5334287245972447</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5257708920426746</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5182525803866317</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5108726465666424</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5036351318026613</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4965356404296794</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.4895802329563376</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.48318828117423995</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.47649536469410636</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.469945767032205</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.46354208828601434</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.45728285095117654</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4511700775401263</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.44520267291940147</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.4393815255599129</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.433705361200126</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.42817384456851476</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.4227876158862919</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.4175453891832356</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.4124495093072854</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.40749748771593736</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.40269133896627546</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.39802788976924897</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.39348626904819706</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.3887475556015376</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.3830467879436463</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.3773727537770462</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.3700479631130842</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>133</v>
+      <c r="A60" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.9967904577194535</v>
+        <v>0.4697114741612899</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.9746913993593207</v>
+        <v>0.4736491379373698</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9558687766113702</v>
+        <v>0.48115971586266226</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9371042781037043</v>
+        <v>0.4888092607380063</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.9183970445444668</v>
+        <v>0.49659917477421067</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.8997462179516383</v>
+        <v>0.5045305342069909</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.8811509419504873</v>
+        <v>0.5126012570698721</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.8626103620372296</v>
+        <v>0.5208146470792125</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.8441236258358499</v>
+        <v>0.529165400118225</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.825689883468451</v>
+        <v>0.5376589110429378</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.8073082875806987</v>
+        <v>0.5467137502586045</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.7889779933666935</v>
+        <v>0.5554647679354033</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.7706981594699815</v>
+        <v>0.5643555228132141</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.752467947653544</v>
+        <v>0.5733878786901464</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.7342865231359645</v>
+        <v>0.5825596875322685</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.7161530547796097</v>
+        <v>0.5918722441639154</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.6980667152701052</v>
+        <v>0.6013238219099329</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.6800266812873778</v>
+        <v>0.610914638071513</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.6620321336685278</v>
+        <v>0.6206428506356593</v>
       </c>
       <c r="V62" t="n">
-        <v>-0.6440822575628</v>
+        <v>0.6305075377072042</v>
       </c>
       <c r="W62" t="n">
-        <v>-0.6261762425789137</v>
+        <v>0.640508711431993</v>
       </c>
       <c r="X62" t="n">
-        <v>-0.6083132829250102</v>
+        <v>0.6506445952065975</v>
       </c>
       <c r="Y62" t="n">
-        <v>-0.5904925775414768</v>
+        <v>0.6609167883294375</v>
       </c>
       <c r="Z62" t="n">
-        <v>-0.5727133302268989</v>
+        <v>0.6713224306635546</v>
       </c>
       <c r="AA62" t="n">
-        <v>-0.5549747497573868</v>
+        <v>0.6818627818140142</v>
       </c>
       <c r="AB62" t="n">
-        <v>-0.5372760499995255</v>
+        <v>0.6925344017479605</v>
       </c>
       <c r="AC62" t="n">
-        <v>-0.5195962214254612</v>
+        <v>0.7033174951376465</v>
       </c>
       <c r="AD62" t="n">
-        <v>-0.5016651487210725</v>
+        <v>0.7139184584519146</v>
       </c>
       <c r="AE62" t="n">
-        <v>-0.4828252633885706</v>
+        <v>0.7236334469696772</v>
       </c>
       <c r="AF62" t="n">
-        <v>-0.4639259560181038</v>
+        <v>0.7333709464590297</v>
       </c>
       <c r="AG62" t="n">
-        <v>-0.443188441130282</v>
+        <v>0.7403138843097716</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-0.362474838793736</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.3099957377316613</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-0.25855155440795236</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-0.2071257306110036</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0.15571799491891325</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-0.10432807632351396</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-0.05295570432432728</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-0.0016006090118453886</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.04973747885134783</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.10105882771359531</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.15236370522613002</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.20365237823521862</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.2549251124975618</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.30618217278453363</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.35742382277599816</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.40865032500086806</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.4598619407804152</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0.5110589301742436</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0.5622415519288441</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.6134100634286423</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.6645647206494647</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0.7157057781143313</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.7668334888515025</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0.817948104354694</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0.8690498745453863</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0.9201390477371472</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0.9712222601455546</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>1.0223848322722382</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1.0738344682759557</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>1.1253028737378343</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>1.1729549781891102</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.015701260456910372</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.014714919718700738</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.013933771638654644</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.013208572134835972</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.012538008087178575</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.011921599847089619</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.011358982300288239</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.010850888963237522</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.010395984235291453</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.00999331390870843</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.009642362255549783</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.00934279662938816</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.009095462295731008</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.008899117259318058</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.008752752293869003</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.008655966700397134</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0.008608367929322663</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0.008610809018969658</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0.008662698311650067</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0.00876265530406626</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0.00891033035213811</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0.009105381105280913</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0.009348109344982558</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0.009638880432531272</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0.009976180105976262</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0.010359596029107528</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0.010789420469940457</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.011273389146413215</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0.01183522608247285</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0.012452422847771129</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0.013191166106525758</v>
+      <c r="A64" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.02124854737144099</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.020447925403154335</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.01988779123518613</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.019533245125468765</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.019381985137007767</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.019433018600397683</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.019695578940689393</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.02016126837026885</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.020848666318111126</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.021740264257166273</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.022849952766478956</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.02416545007571377</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.02569779599853127</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.027439958102309307</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.029398686193512037</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.03156901304912033</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.03395623416653329</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0.03655932427705402</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0.03938343400819396</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0.04242997359422362</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0.04569740556711876</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0.04919035668896878</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0.0529014248722838</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0.05683892550372131</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0.06099542178682077</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0.06538075534068438</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0.0699852543496809</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0.07482415287626767</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0.07989501008191598</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0.08520408653864733</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0.09075894636054155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.031879034551687065</v>
+        <v>-0.9760740516672698</v>
       </c>
       <c r="D66" t="n">
-        <v>0.032055266631335406</v>
+        <v>-0.9539749933071369</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03220537030983838</v>
+        <v>-0.9351523705591864</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03235501046833175</v>
+        <v>-0.9163878720515206</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03250419395936047</v>
+        <v>-0.8976806384922831</v>
       </c>
       <c r="H66" t="n">
-        <v>0.032652927625024</v>
+        <v>-0.8790298118994546</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0328012182946043</v>
+        <v>-0.8604345358983035</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03294907278246313</v>
+        <v>-0.8418939559850459</v>
       </c>
       <c r="K66" t="n">
-        <v>0.033096497885994114</v>
+        <v>-0.8234072197836662</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03324350038266924</v>
+        <v>-0.8049734774162672</v>
       </c>
       <c r="M66" t="n">
-        <v>0.03339008702983599</v>
+        <v>-0.786591881528515</v>
       </c>
       <c r="N66" t="n">
-        <v>0.03353626456451901</v>
+        <v>-0.7682615873145098</v>
       </c>
       <c r="O66" t="n">
-        <v>0.03368203969623484</v>
+        <v>-0.7499817534177978</v>
       </c>
       <c r="P66" t="n">
-        <v>0.033827419109623634</v>
+        <v>-0.7317515416013602</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.03397240946176836</v>
+        <v>-0.7135701170837808</v>
       </c>
       <c r="R66" t="n">
-        <v>0.03411701738069414</v>
+        <v>-0.6954366487274259</v>
       </c>
       <c r="S66" t="n">
-        <v>0.034261249463936945</v>
+        <v>-0.6773503092179215</v>
       </c>
       <c r="T66" t="n">
-        <v>0.034405112277179635</v>
+        <v>-0.659310275235194</v>
       </c>
       <c r="U66" t="n">
-        <v>0.034548612352953104</v>
+        <v>-0.641315727616344</v>
       </c>
       <c r="V66" t="n">
-        <v>0.03469175618940043</v>
+        <v>-0.6233658515106163</v>
       </c>
       <c r="W66" t="n">
-        <v>0.03483455024910199</v>
+        <v>-0.60545983652673</v>
       </c>
       <c r="X66" t="n">
-        <v>0.034977000957959394</v>
+        <v>-0.5875968768728265</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.035119114704136305</v>
+        <v>-0.569776171489293</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.035260897837054</v>
+        <v>-0.5519969241747151</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.035402356666439753</v>
+        <v>-0.5342583437052031</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.03554349746142615</v>
+        <v>-0.5165596439473418</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.03568448776547705</v>
+        <v>-0.4988798153732775</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.035827481651529734</v>
+        <v>-0.48094874266888876</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.03597772299296503</v>
+        <v>-0.4621088573363869</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.036128438203881875</v>
+        <v>-0.4432095499659201</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.03629381246172865</v>
+        <v>-0.4224720350780983</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.35593121070628697</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.3034521096442122</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.25200792632050334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.20058210252355457</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.14917436683146423</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.09778444823606494</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.046412076236878264</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.004943019075603627</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.05628110693879679</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.10760245580104433</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.15890733331357904</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.21019600632266763</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.2614687405850108</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.31272580087198265</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3639674508634471</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4151939530883171</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.46640556886786416</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.5176025582616927</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.5687851800162931</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.6199536915160914</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.6711083487369136</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.7222494062017804</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.7733771169389514</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.824491732442143</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.8755935026328353</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.9266826758245961</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.9777658882330036</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1.0289284603596873</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.0803780963634049</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.1318465018252835</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.1794986062765593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05141166672814245</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.05158789880779079</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.05173800248629377</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.05188764264478714</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05203682613581585</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.05218555980147939</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.052333850471059686</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.05248170495891852</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0526291300624495</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.052776132559124625</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.05292271920629137</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0530688967409744</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.053214671872690224</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.05336005128607902</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.05350504163822375</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.05364964955714953</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.05379388164039233</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.05393774445363502</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.05408124452940849</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.054224388365855816</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.054367182425557374</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.05450963313441478</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.05465174688059169</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.05479353001350939</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.05493498884289514</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.055076129637881534</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.05521711994193244</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.05536011382798512</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.05551035516942042</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0.05566107038033726</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0.055826444638184036</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.7780438722076599</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.7664872261142941</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.7587932167769407</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.7512239446168842</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.7437816427799351</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.7364682363050895</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.7292825721430849</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.722228682045446</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.715302161397557</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.7085090622777095</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.7022687485668274</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.6957167924850057</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.6892974706783005</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.6830133768947296</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.6768630278015326</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.6708484406040848</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.6649685153834667</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0.6592241363469663</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.6536140254914697</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0.6481378443260961</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.6427962303750856</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.6375878954937573</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0.6325151828782112</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0.6275756028568036</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0.6227711693802344</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0.6180987090758521</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0.6135373513061855</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0.6087681758316077</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0.6030262226511707</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0.5973002814747222</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0.589912864843483</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7605108676880514</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7489050305576526</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7411629728642912</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.733546797371061</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.726058739509774</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.7187007265495103</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7114716076150651</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.7043754165758876</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.6974077508790499</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.6905746646081952</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6842955235931653</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.6777059019464416</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.6712500781498485</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.6649306477304588</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6587461290777692</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.6526985410625316</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.6467867853742402</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.6410117477715543</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.635372151745616</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.6298676602426094</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.6244989121665809</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.6192646206953288</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.6141671302900403</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.6092039524867061</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.6043771023861493</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.5996834077082727</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.5951019988505382</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.5903139565505809</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.5845543217269954</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.5788118849514077</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.5714091595690107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6690234986773641</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.6732002614437842</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.6809402125191814</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.688809393525071</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.6968091959675073</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.7049406858525405</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.7132017714596206</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7215957472270933</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.7301173002366769</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.7387718170198495</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.7479778601346668</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.7568702723818425</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.7658926056098839</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.7750467172039577</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.7843304531959306</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.7937451029549658</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.8032889348300345</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.812962161625992</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.8227629373132642</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.8326903364600593</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.8427443681557246</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.852923253220609</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0.8632285888573095</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0.8736575133135491</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0.8842112850596546</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0.8948864634086702</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0.9056632528594163</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0.9162480501879803</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0.9259370114611821</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0.9356386237156484</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0.9425358160902717</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>134</v>
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6534308210470766</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.6575610965114511</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6652556082652566</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6730804001446569</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6810368658191682</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.6891260734070151</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.697345933248426</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.7056997417910328</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.7141821880742479</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.722798660535556</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7319677235872392</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.740824221832367</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.7498117088698448</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.7589320437831938</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.7681830742505079</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.7775660912349718</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7870793646272932</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.7967231087217053</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.8064954789255786</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.8163955511915648</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.8264233359408849</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.8365770552731268</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.84685830761743</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.8572642323953026</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.8677960891980441</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.8784504384068019</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.8892074855355787</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.8997736283226754</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.9094450237441078</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0.9191301596926373</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0.9260119661101887</v>
       </c>
     </row>
     <row r="75">
@@ -39966,508 +39480,316 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-1.0288013766399964</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-1.0067023182798636</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.987879695531913</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.9691151970242472</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.9504079634650097</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-0.9317571368721812</v>
-      </c>
-      <c r="I76" t="n">
-        <v>-0.9131618608710301</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-0.8946212809577725</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-0.8761345447563927</v>
-      </c>
-      <c r="L76" t="n">
-        <v>-0.8577008023889938</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.8393192065012416</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-0.8209889122872364</v>
-      </c>
-      <c r="O76" t="n">
-        <v>-0.8027090783905244</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-0.7844788665740868</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>-0.7662974420565074</v>
-      </c>
-      <c r="R76" t="n">
-        <v>-0.7481639737001525</v>
-      </c>
-      <c r="S76" t="n">
-        <v>-0.7300776341906481</v>
-      </c>
-      <c r="T76" t="n">
-        <v>-0.7120376002079206</v>
-      </c>
-      <c r="U76" t="n">
-        <v>-0.6940430525890706</v>
-      </c>
-      <c r="V76" t="n">
-        <v>-0.6760931764833429</v>
-      </c>
-      <c r="W76" t="n">
-        <v>-0.6581871614994566</v>
-      </c>
-      <c r="X76" t="n">
-        <v>-0.640324201845553</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-0.6225034964620196</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>-0.6047242491474417</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>-0.5869856686779297</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>-0.5692869689200684</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>-0.5516071403460041</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>-0.5336760676416153</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>-0.5148361823091134</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>-0.4959368749386467</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>-0.47519936005082486</v>
+      <c r="A76" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.37258603026323495</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.32010692920116024</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.2686627458774513</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.21723692208050255</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.1658291863884122</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-0.11443926779301292</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-0.06306689579382624</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-0.011711800481344348</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.03962628738184881</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.09094763624409635</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.14225251375663106</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.19354118676571969</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.24481392102806282</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.29607098131503473</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.34731263130649914</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.3985391335313691</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.4497507493109162</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.5009477387047447</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.552130360459345</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0.6032988719591434</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0.6544535291799657</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.7055945866448323</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0.7567222973820035</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0.807836912885195</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0.8589386830758874</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0.9100278562676481</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0.9611110686760556</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>1.0122736408027393</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1.0637232768064568</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>1.1151916822683354</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>1.1628437867196113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.018421260456910372</v>
+        <v>-1.143373066495106</v>
       </c>
       <c r="D78" t="n">
-        <v>0.017434919718700738</v>
+        <v>-1.1212740081349732</v>
       </c>
       <c r="E78" t="n">
-        <v>0.016653771638654644</v>
+        <v>-1.1024513853870226</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01592857213483597</v>
+        <v>-1.083686886879357</v>
       </c>
       <c r="G78" t="n">
-        <v>0.015258008087178573</v>
+        <v>-1.0649796533201195</v>
       </c>
       <c r="H78" t="n">
-        <v>0.014641599847089619</v>
+        <v>-1.046328826727291</v>
       </c>
       <c r="I78" t="n">
-        <v>0.014078982300288239</v>
+        <v>-1.0277335507261398</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01357088896323752</v>
+        <v>-1.0091929708128822</v>
       </c>
       <c r="K78" t="n">
-        <v>0.013115984235291454</v>
+        <v>-0.9907062346115024</v>
       </c>
       <c r="L78" t="n">
-        <v>0.012713313908708428</v>
+        <v>-0.9722724922441035</v>
       </c>
       <c r="M78" t="n">
-        <v>0.012362362255549783</v>
+        <v>-0.9538908963563513</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01206279662938816</v>
+        <v>-0.935560602142346</v>
       </c>
       <c r="O78" t="n">
-        <v>0.011815462295731008</v>
+        <v>-0.9172807682456341</v>
       </c>
       <c r="P78" t="n">
-        <v>0.011619117259318058</v>
+        <v>-0.8990505564291965</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.011472752293869003</v>
+        <v>-0.8808691319116171</v>
       </c>
       <c r="R78" t="n">
-        <v>0.011375966700397134</v>
+        <v>-0.8627356635552622</v>
       </c>
       <c r="S78" t="n">
-        <v>0.011328367929322663</v>
+        <v>-0.8446493240457578</v>
       </c>
       <c r="T78" t="n">
-        <v>0.011330809018969658</v>
+        <v>-0.8266092900630303</v>
       </c>
       <c r="U78" t="n">
-        <v>0.011382698311650067</v>
+        <v>-0.8086147424441803</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01148265530406626</v>
+        <v>-0.7906648663384526</v>
       </c>
       <c r="W78" t="n">
-        <v>0.01163033035213811</v>
+        <v>-0.7727588513545662</v>
       </c>
       <c r="X78" t="n">
-        <v>0.011825381105280912</v>
+        <v>-0.7548958917006627</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.012068109344982557</v>
+        <v>-0.7370751863171293</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.012358880432531272</v>
+        <v>-0.7192959390025514</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.01269618010597626</v>
+        <v>-0.7015573585330394</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.013079596029107528</v>
+        <v>-0.683858658775178</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.013509420469940457</v>
+        <v>-0.6661788302011138</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.013993389146413213</v>
+        <v>-0.648247757496725</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.014555226082472849</v>
+        <v>-0.6294078721642231</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.015172422847771129</v>
+        <v>-0.6105085647937564</v>
       </c>
       <c r="AG78" t="n">
-        <v>0.015911166106525758</v>
+        <v>-0.5897710499059345</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.022107705487623266</v>
+        <v>-0.40877544100725555</v>
       </c>
       <c r="D79" t="n">
-        <v>0.021307083519336613</v>
+        <v>-0.35629633994518084</v>
       </c>
       <c r="E79" t="n">
-        <v>0.020746949351368407</v>
+        <v>-0.30485215662147186</v>
       </c>
       <c r="F79" t="n">
-        <v>0.020392403241651036</v>
+        <v>-0.2534263328245232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02024114325319004</v>
+        <v>-0.20201859713243286</v>
       </c>
       <c r="H79" t="n">
-        <v>0.02029217671657996</v>
+        <v>-0.15062867853703352</v>
       </c>
       <c r="I79" t="n">
-        <v>0.020554737056871667</v>
+        <v>-0.09925630653784684</v>
       </c>
       <c r="J79" t="n">
-        <v>0.021020426486451124</v>
+        <v>-0.04790121122536495</v>
       </c>
       <c r="K79" t="n">
-        <v>0.021707824434293404</v>
+        <v>0.003436876637828268</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02259942237334855</v>
+        <v>0.05475822550007575</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02370911088266123</v>
+        <v>0.10606310301261046</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02502460819189604</v>
+        <v>0.15735177602169909</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02655695411471355</v>
+        <v>0.20862451028404222</v>
       </c>
       <c r="P79" t="n">
-        <v>0.028299116218491585</v>
+        <v>0.25988157057101413</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.030257844309694314</v>
+        <v>0.31112322056247854</v>
       </c>
       <c r="R79" t="n">
-        <v>0.03242817116530261</v>
+        <v>0.3623497227873485</v>
       </c>
       <c r="S79" t="n">
-        <v>0.03481539228271557</v>
+        <v>0.41356133856689564</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0374184823932363</v>
+        <v>0.46475832796072414</v>
       </c>
       <c r="U79" t="n">
-        <v>0.04024259212437624</v>
+        <v>0.5159409497153244</v>
       </c>
       <c r="V79" t="n">
-        <v>0.043289131710405895</v>
+        <v>0.5671094612151228</v>
       </c>
       <c r="W79" t="n">
-        <v>0.046556563683301036</v>
+        <v>0.6182641184359451</v>
       </c>
       <c r="X79" t="n">
-        <v>0.05004951480515105</v>
+        <v>0.6694051759008117</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.053760582988466074</v>
+        <v>0.7205328866379829</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.05769808361990359</v>
+        <v>0.7716475021411744</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.06185457990300304</v>
+        <v>0.8227492723318668</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.06623991345686667</v>
+        <v>0.8738384455236275</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.07084441246586319</v>
+        <v>0.924921657932035</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.07568331099244995</v>
+        <v>0.9760842300587187</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.08075416819809825</v>
+        <v>1.0275338660624362</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.0860632446548296</v>
+        <v>1.0790022715243148</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.09161810447672383</v>
+        <v>1.1266543759755907</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05141166672814245</v>
+        <v>0.0720249380009407</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05158789880779079</v>
+        <v>0.07220117008058904</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05173800248629377</v>
+        <v>0.07235127375909202</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05188764264478714</v>
+        <v>0.07250091391758538</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05203682613581585</v>
+        <v>0.0726500974086141</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05218555980147939</v>
+        <v>0.07279883107427763</v>
       </c>
       <c r="I80" t="n">
-        <v>0.052333850471059686</v>
+        <v>0.07294712174385794</v>
       </c>
       <c r="J80" t="n">
-        <v>0.05248170495891852</v>
+        <v>0.07309497623171676</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0526291300624495</v>
+        <v>0.07324240133524774</v>
       </c>
       <c r="L80" t="n">
-        <v>0.052776132559124625</v>
+        <v>0.07338940383192288</v>
       </c>
       <c r="M80" t="n">
-        <v>0.05292271920629137</v>
+        <v>0.07353599047908962</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0530688967409744</v>
+        <v>0.07368216801377264</v>
       </c>
       <c r="O80" t="n">
-        <v>0.053214671872690224</v>
+        <v>0.07382794314548848</v>
       </c>
       <c r="P80" t="n">
-        <v>0.05336005128607902</v>
+        <v>0.07397332255887727</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.05350504163822375</v>
+        <v>0.074118312911022</v>
       </c>
       <c r="R80" t="n">
-        <v>0.05364964955714953</v>
+        <v>0.07426292082994777</v>
       </c>
       <c r="S80" t="n">
-        <v>0.05379388164039233</v>
+        <v>0.07440715291319058</v>
       </c>
       <c r="T80" t="n">
-        <v>0.05393774445363502</v>
+        <v>0.07455101572643327</v>
       </c>
       <c r="U80" t="n">
-        <v>0.05408124452940849</v>
+        <v>0.07469451580220673</v>
       </c>
       <c r="V80" t="n">
-        <v>0.054224388365855816</v>
+        <v>0.07483765963865406</v>
       </c>
       <c r="W80" t="n">
-        <v>0.054367182425557374</v>
+        <v>0.07498045369835563</v>
       </c>
       <c r="X80" t="n">
-        <v>0.05450963313441478</v>
+        <v>0.07512290440721303</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.05465174688059169</v>
+        <v>0.07526501815338994</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.05479353001350939</v>
+        <v>0.07540680128630764</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.05493498884289514</v>
+        <v>0.07554826011569339</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.055076129637881534</v>
+        <v>0.07568940091067979</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.05521711994193244</v>
+        <v>0.07583039121473069</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.05536011382798512</v>
+        <v>0.07597338510078337</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.05551035516942042</v>
+        <v>0.07612362644221866</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.05566107038033726</v>
+        <v>0.07627434165313551</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.055826444638184036</v>
+        <v>0.0764397159109823</v>
       </c>
     </row>
     <row r="81">
@@ -40477,108 +39799,108 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8213905038043912</v>
+        <v>0.9605373355935429</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8098540316977754</v>
+        <v>0.9491233586895436</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8021783684598671</v>
+        <v>0.9415637044223948</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7946256136177889</v>
+        <v>0.9341204666651051</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7871979995123195</v>
+        <v>0.9267958724207448</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7798974504665958</v>
+        <v>0.9195918409914084</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7727228128047026</v>
+        <v>0.9125072139970478</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7656781177407481</v>
+        <v>0.905546018264779</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7587589602119642</v>
+        <v>0.8987038446621942</v>
       </c>
       <c r="L83" t="n">
-        <v>0.751971391937774</v>
+        <v>0.8919867411566282</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7457347765295362</v>
+        <v>0.8858140679250859</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7391846860270948</v>
+        <v>0.8793213938909602</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7327653969855814</v>
+        <v>0.8729529928109856</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7264795031514161</v>
+        <v>0.8667114559513741</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.7203255212795705</v>
+        <v>0.8605952979052007</v>
       </c>
       <c r="R83" t="n">
-        <v>0.7143054687524765</v>
+        <v>0.8546065342114185</v>
       </c>
       <c r="S83" t="n">
-        <v>0.7084182459175874</v>
+        <v>0.8487440636925059</v>
       </c>
       <c r="T83" t="n">
-        <v>0.7026647373378662</v>
+        <v>0.8430087697050338</v>
       </c>
       <c r="U83" t="n">
-        <v>0.6970436654551603</v>
+        <v>0.8373993738030957</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6915546923128137</v>
+        <v>0.8319155374609646</v>
       </c>
       <c r="W83" t="n">
-        <v>0.6861984560585295</v>
+        <v>0.8265578985759838</v>
       </c>
       <c r="X83" t="n">
-        <v>0.6809736692602972</v>
+        <v>0.8213251697845044</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.6758826759160599</v>
+        <v>0.8162196954715519</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.670922987245151</v>
+        <v>0.8112389875622406</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.6660966181783378</v>
+        <v>0.8063850620117867</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.6614003964120784</v>
+        <v>0.8016547478597121</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.6568134524670015</v>
+        <v>0.7970271772882598</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.6520168673505141</v>
+        <v>0.7921834332849224</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.6462456823975761</v>
+        <v>0.7863585594831165</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.64048868874275</v>
+        <v>0.7805413496341237</v>
       </c>
       <c r="AG83" t="n">
-        <v>0.6330684004407114</v>
+        <v>0.7730543207274714</v>
       </c>
     </row>
     <row r="84">
@@ -40588,108 +39910,108 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7093261823873435</v>
+        <v>0.8376195021758365</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7135235111290785</v>
+        <v>0.8419366132355839</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7212823486311072</v>
+        <v>0.8498092759408525</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7291687355944467</v>
+        <v>0.8578035254449807</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7371840626865569</v>
+        <v>0.8659207471583585</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7453293951568389</v>
+        <v>0.8741620013641882</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7536026406100738</v>
+        <v>0.8825251909921605</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7620070928919546</v>
+        <v>0.8910136055042156</v>
       </c>
       <c r="K86" t="n">
-        <v>0.7705374385735886</v>
+        <v>0.8996219273792612</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7791990637579116</v>
+        <v>0.9083555389197828</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7884105306565256</v>
+        <v>0.9176329988288691</v>
       </c>
       <c r="N86" t="n">
-        <v>0.7973066818057968</v>
+        <v>0.9265891464264799</v>
       </c>
       <c r="O86" t="n">
-        <v>0.806331068872004</v>
+        <v>0.9356675304547524</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8154855491402125</v>
+        <v>0.9448700055670151</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.8247679686243201</v>
+        <v>0.9541944154379657</v>
       </c>
       <c r="R86" t="n">
-        <v>0.8341796167576551</v>
+        <v>0.9636420474543796</v>
       </c>
       <c r="S86" t="n">
-        <v>0.8437187620354835</v>
+        <v>0.97321116835772</v>
       </c>
       <c r="T86" t="n">
-        <v>0.853385617491079</v>
+        <v>0.9829019897202901</v>
       </c>
       <c r="U86" t="n">
-        <v>0.8631783374053973</v>
+        <v>0.9927126646549814</v>
       </c>
       <c r="V86" t="n">
-        <v>0.873095996739274</v>
+        <v>1.0026422672475268</v>
       </c>
       <c r="W86" t="n">
-        <v>0.8831386050567606</v>
+        <v>1.0126908064798812</v>
       </c>
       <c r="X86" t="n">
-        <v>0.8933043837349658</v>
+        <v>1.0228565034400876</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.9035949306152732</v>
+        <v>1.0331409559735132</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.9140073846661888</v>
+        <v>1.0435413033456935</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.9245430051607844</v>
+        <v>1.0540588054197633</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.9351983522967698</v>
+        <v>1.0646900232764982</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.9459536315395108</v>
+        <v>1.075415163557291</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.9565152407134723</v>
+        <v>1.0859406255555373</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.9661793370156321</v>
+        <v>1.0955625682299772</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.9758544086945005</v>
+        <v>1.1051894818836292</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.9827233861825201</v>
+        <v>1.11200429929609</v>
       </c>
     </row>
     <row r="87">
@@ -40699,7 +40021,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
@@ -40715,97 +40037,97 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.0752411977265774</v>
+        <v>-1.3106720813229422</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.0531421393664446</v>
+        <v>-1.2885730229628094</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.0343195166184942</v>
+        <v>-1.2697504002148587</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.0155550181108284</v>
+        <v>-1.2509859017071931</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.9968477845515908</v>
+        <v>-1.2322786681479556</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.9781969579587624</v>
+        <v>-1.2136278415551272</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.9596016819576113</v>
+        <v>-1.195032565553976</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.9410611020443537</v>
+        <v>-1.1764919856407183</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.9225743658429739</v>
+        <v>-1.1580052494393387</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.904140623475575</v>
+        <v>-1.1395715070719397</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.8857590275878228</v>
+        <v>-1.1211899111841874</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.8674287333738175</v>
+        <v>-1.1028596169701823</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.8491488994771056</v>
+        <v>-1.0845797830734702</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.830918687660668</v>
+        <v>-1.0663495712570326</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.8127372631430886</v>
+        <v>-1.0481681467394532</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.7946037947867337</v>
+        <v>-1.0300346783830985</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.7765174552772293</v>
+        <v>-1.011948338873594</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.7584774212945018</v>
+        <v>-0.9939083048908665</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.7404828736756518</v>
+        <v>-0.9759137572720165</v>
       </c>
       <c r="V90" t="n">
-        <v>-0.7225329975699241</v>
+        <v>-0.9579638811662887</v>
       </c>
       <c r="W90" t="n">
-        <v>-0.7046269825860377</v>
+        <v>-0.9400578661824024</v>
       </c>
       <c r="X90" t="n">
-        <v>-0.6867640229321342</v>
+        <v>-0.9221949065284989</v>
       </c>
       <c r="Y90" t="n">
-        <v>-0.6689433175486008</v>
+        <v>-0.9043742011449655</v>
       </c>
       <c r="Z90" t="n">
-        <v>-0.6511640702340229</v>
+        <v>-0.8865949538303876</v>
       </c>
       <c r="AA90" t="n">
-        <v>-0.6334254897645109</v>
+        <v>-0.8688563733608755</v>
       </c>
       <c r="AB90" t="n">
-        <v>-0.6157267900066495</v>
+        <v>-0.8511576736030142</v>
       </c>
       <c r="AC90" t="n">
-        <v>-0.5980469614325853</v>
+        <v>-0.83347784502895</v>
       </c>
       <c r="AD90" t="n">
-        <v>-0.5801158887281965</v>
+        <v>-0.8155467723245612</v>
       </c>
       <c r="AE90" t="n">
-        <v>-0.5612760033956947</v>
+        <v>-0.7967068869920593</v>
       </c>
       <c r="AF90" t="n">
-        <v>-0.5423766960252279</v>
+        <v>-0.7778075796215925</v>
       </c>
       <c r="AG90" t="n">
-        <v>-0.521639181137406</v>
+        <v>-0.7570700647337707</v>
       </c>
     </row>
     <row r="91">
@@ -40816,97 +40138,97 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.38725483511639264</v>
+        <v>-0.46161967130822407</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.33477573405431793</v>
+        <v>-0.40914057024614936</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.28333155073060906</v>
+        <v>-0.3576963869224404</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2319057269336603</v>
+        <v>-0.3062705631254917</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.18049799124156996</v>
+        <v>-0.25486282743340133</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.12910807264617066</v>
+        <v>-0.20347290883800204</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.07773570064698399</v>
+        <v>-0.15210053683881536</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.026380605334502094</v>
+        <v>-0.10074544152633347</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02495748252869112</v>
+        <v>-0.04940735366314031</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0762788313909386</v>
+        <v>0.0019139951991072324</v>
       </c>
       <c r="M91" t="n">
-        <v>0.12758370890347331</v>
+        <v>0.05321887271164194</v>
       </c>
       <c r="N91" t="n">
-        <v>0.17887238191256194</v>
+        <v>0.10450754572073051</v>
       </c>
       <c r="O91" t="n">
-        <v>0.23014511617490507</v>
+        <v>0.1557802799830737</v>
       </c>
       <c r="P91" t="n">
-        <v>0.281402176461877</v>
+        <v>0.2070373402700456</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.33264382645334145</v>
+        <v>0.25827899026151</v>
       </c>
       <c r="R91" t="n">
-        <v>0.38387032867821136</v>
+        <v>0.30950549248638</v>
       </c>
       <c r="S91" t="n">
-        <v>0.4350819444577585</v>
+        <v>0.3607171082659271</v>
       </c>
       <c r="T91" t="n">
-        <v>0.48627893385158705</v>
+        <v>0.4119140976597556</v>
       </c>
       <c r="U91" t="n">
-        <v>0.5374615556061874</v>
+        <v>0.463096719414356</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5886300671059856</v>
+        <v>0.5142652309141543</v>
       </c>
       <c r="W91" t="n">
-        <v>0.639784724326808</v>
+        <v>0.5654198881349766</v>
       </c>
       <c r="X91" t="n">
-        <v>0.6909257817916746</v>
+        <v>0.6165609455998433</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.7420534925288458</v>
+        <v>0.6676886563370144</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.7931681080320373</v>
+        <v>0.718803271840206</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.8442698782227297</v>
+        <v>0.7699050420308983</v>
       </c>
       <c r="AB91" t="n">
-        <v>0.8953590514144905</v>
+        <v>0.820994215222659</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.9464422638228979</v>
+        <v>0.8720774276310664</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.9976048359495815</v>
+        <v>0.9232399997577501</v>
       </c>
       <c r="AE91" t="n">
-        <v>1.049054471953299</v>
+        <v>0.9746896357614678</v>
       </c>
       <c r="AF91" t="n">
-        <v>1.1005228774151776</v>
+        <v>1.0261580412233462</v>
       </c>
       <c r="AG91" t="n">
-        <v>1.1481749818664535</v>
+        <v>1.073810145674622</v>
       </c>
     </row>
     <row r="92">
@@ -40917,1263 +40239,319 @@
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>0.021921260456910372</v>
+        <v>0.09339002271978238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.020934919718700738</v>
+        <v>0.09356625479943072</v>
       </c>
       <c r="E92" t="n">
-        <v>0.020153771638654644</v>
+        <v>0.09371635847793369</v>
       </c>
       <c r="F92" t="n">
-        <v>0.019428572134835974</v>
+        <v>0.09386599863642706</v>
       </c>
       <c r="G92" t="n">
-        <v>0.018758008087178576</v>
+        <v>0.09401518212745577</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01814159984708962</v>
+        <v>0.09416391579311931</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01757898230028824</v>
+        <v>0.09431220646269961</v>
       </c>
       <c r="J92" t="n">
-        <v>0.017070888963237524</v>
+        <v>0.09446006095055844</v>
       </c>
       <c r="K92" t="n">
-        <v>0.016615984235291453</v>
+        <v>0.09460748605408942</v>
       </c>
       <c r="L92" t="n">
-        <v>0.016213313908708428</v>
+        <v>0.09475448855076456</v>
       </c>
       <c r="M92" t="n">
-        <v>0.015862362255549784</v>
+        <v>0.0949010751979313</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01556279662938816</v>
+        <v>0.09504725273261432</v>
       </c>
       <c r="O92" t="n">
-        <v>0.015315462295731008</v>
+        <v>0.09519302786433015</v>
       </c>
       <c r="P92" t="n">
-        <v>0.015119117259318058</v>
+        <v>0.09533840727771895</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.014972752293869004</v>
+        <v>0.09548339762986367</v>
       </c>
       <c r="R92" t="n">
-        <v>0.014875966700397134</v>
+        <v>0.09562800554878945</v>
       </c>
       <c r="S92" t="n">
-        <v>0.014828367929322663</v>
+        <v>0.09577223763203226</v>
       </c>
       <c r="T92" t="n">
-        <v>0.01483080901896966</v>
+        <v>0.09591610044527495</v>
       </c>
       <c r="U92" t="n">
-        <v>0.014882698311650067</v>
+        <v>0.09605960052104841</v>
       </c>
       <c r="V92" t="n">
-        <v>0.01498265530406626</v>
+        <v>0.09620274435749573</v>
       </c>
       <c r="W92" t="n">
-        <v>0.015130330352138111</v>
+        <v>0.0963455384171973</v>
       </c>
       <c r="X92" t="n">
-        <v>0.015325381105280913</v>
+        <v>0.0964879891260547</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.015568109344982558</v>
+        <v>0.09663010287223162</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.015858880432531273</v>
+        <v>0.09677188600514931</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.01619618010597626</v>
+        <v>0.09691334483453506</v>
       </c>
       <c r="AB92" t="n">
-        <v>0.016579596029107527</v>
+        <v>0.09705448562952146</v>
       </c>
       <c r="AC92" t="n">
-        <v>0.01700942046994046</v>
+        <v>0.09719547593357236</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.017493389146413213</v>
+        <v>0.09733846981962505</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.01805522608247285</v>
+        <v>0.09748871116106034</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.01867242284777113</v>
+        <v>0.09763942637197719</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.019411166106525757</v>
+        <v>0.09780480062982397</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.02321323982829899</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.022412617860012335</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.02185248369204413</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.02149793758232676</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.021346677593865767</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.021397711057255683</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.021660271397547393</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.022125960827126846</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.022813358774969126</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.02370495671402427</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.024814645223336953</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.02613014253257177</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.02766248845538927</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.029404650559167307</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.03136337865037003</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.03353370550597833</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.03592092662339129</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0.03852401673391202</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.04134812646505196</v>
-      </c>
-      <c r="V93" t="n">
-        <v>0.04439466605108162</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0.04766209802397676</v>
-      </c>
-      <c r="X93" t="n">
-        <v>0.05115504914582678</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>0.05486611732914179</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>0.05880361796057931</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>0.06296011424367876</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0.06734544779754238</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0.0719499468065389</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0.07678884533312567</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>0.08185970253877396</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0.08716877899550533</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0.09272363881739955</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0720249380009407</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.07220117008058904</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.07235127375909202</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.07250091391758538</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.0726500974086141</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.07279883107427763</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.07294712174385794</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.07309497623171676</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.07324240133524774</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.07338940383192288</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.07353599047908962</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.07368216801377264</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.07382794314548848</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.07397332255887727</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.074118312911022</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.07426292082994777</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.07440715291319058</v>
-      </c>
-      <c r="T94" t="n">
-        <v>0.07455101572643327</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.07469451580220673</v>
-      </c>
-      <c r="V94" t="n">
-        <v>0.07483765963865406</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0.07498045369835563</v>
-      </c>
-      <c r="X94" t="n">
-        <v>0.07512290440721303</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>0.07526501815338994</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>0.07540680128630764</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>0.07554826011569339</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0.07568940091067979</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0.07583039121473069</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0.07597338510078337</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>0.07612362644221866</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0.07627434165313551</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0.0764397159109823</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.1609395935366558</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.1497111858924847</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.1423276370746522</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.135051032373036</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.1278835906692461</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.1208272236059842</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.113880765606249</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.1070482367629948</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.1003252216727708</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.0937177624952936</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.0876452140636603</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.0812431404213212</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.0749558109092738</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.0687858128424188</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.0627316573271306</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.0567953568804451</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.0509758077678575</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.0452738912540094</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.0396883272662234</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.0342187761172388</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.0288658750081585</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.0236283363444212</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.0185085047454785</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.0135038928361995</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>1.0086165177368458</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.0038432101172252</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.9991631042550204</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.9942572856982204</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.9883608011056676</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0.9824624477188529</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0.9748847464821253</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.8818714184301042</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.8703678111741013</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.8627223649892279</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.8551971779298686</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.8477944809931872</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.8405161972878942</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.8333611720528917</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8263334355464071</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.8194285818791358</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.8126526620733501</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8064250391726797</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.7998812847786859</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.7934656751376881</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.7871808038167764</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.7810251875210874</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.7750008437127125</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.7691066729482556</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0.7633435601293124</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.7577102281658273</v>
-      </c>
-      <c r="V97" t="n">
-        <v>0.7522063396986827</v>
-      </c>
-      <c r="W97" t="n">
-        <v>0.7468325336025343</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.7415875233017009</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>0.7364736537797905</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>0.7314884373710886</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>0.7266338902505491</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0.7219068414879884</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>0.717286423106499</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0.7124537177449861</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>0.7066437684988583</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>0.7008453683919952</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>0.6933810334971642</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>128</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.7653940398453579</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.769624507687457</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.7774140515650853</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.7853287106826741</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.7933698743297373</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.8015386064964405</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.8098328136470954</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.8182557886057517</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.8268022170407476</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.8354774842711685</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8447001518437217</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.853605061748869</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.8626357652259994</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0.8717941192523252</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.8810779696529434</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.8904886057914403</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.9000242962124061</v>
-      </c>
-      <c r="T100" t="n">
-        <v>0.9096852541174988</v>
-      </c>
-      <c r="U100" t="n">
-        <v>0.9194696340751128</v>
-      </c>
-      <c r="V100" t="n">
-        <v>0.9293765114525605</v>
-      </c>
-      <c r="W100" t="n">
-        <v>0.939405896339392</v>
-      </c>
-      <c r="X100" t="n">
-        <v>0.9495560107572066</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>0.9598284533108422</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>0.9702203638511837</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>0.9807330026525647</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0.9913629310327909</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>1.0020903556961018</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>1.0126216758245554</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1.022253050091375</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>1.0318929683398963</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>1.0387243627158906</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>-1.1508291055634783</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-1.1287300472033455</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-1.109907424455395</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-1.0911429259477292</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1.0724356923884917</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-1.053784865795663</v>
-      </c>
-      <c r="I104" t="n">
-        <v>-1.035189589794512</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-1.0166490098812544</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-0.9981622736798746</v>
-      </c>
-      <c r="L104" t="n">
-        <v>-0.9797285313124757</v>
-      </c>
-      <c r="M104" t="n">
-        <v>-0.9613469354247235</v>
-      </c>
-      <c r="N104" t="n">
-        <v>-0.9430166412107183</v>
-      </c>
-      <c r="O104" t="n">
-        <v>-0.9247368073140063</v>
-      </c>
-      <c r="P104" t="n">
-        <v>-0.9065065954975687</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>-0.8883251709799893</v>
-      </c>
-      <c r="R104" t="n">
-        <v>-0.8701917026236344</v>
-      </c>
-      <c r="S104" t="n">
-        <v>-0.85210536311413</v>
-      </c>
-      <c r="T104" t="n">
-        <v>-0.8340653291314025</v>
-      </c>
-      <c r="U104" t="n">
-        <v>-0.8160707815125525</v>
-      </c>
-      <c r="V104" t="n">
-        <v>-0.7981209054068248</v>
-      </c>
-      <c r="W104" t="n">
-        <v>-0.7802148904229385</v>
-      </c>
-      <c r="X104" t="n">
-        <v>-0.762351930769035</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>-0.7445312253855015</v>
-      </c>
-      <c r="Z104" t="n">
-        <v>-0.7267519780709236</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>-0.7090133976014116</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>-0.6913146978435503</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>-0.673634869269486</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>-0.6557037965650973</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>-0.6368639112325953</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>-0.6179646038621286</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>-0.5972270889743068</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-0.41113055736025705</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-0.35865145629818235</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-0.3072072729744735</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.2557814491775247</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.20437371348543437</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-0.15298379489003497</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-0.10161142289084835</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-0.050256327578366455</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.001081760284826705</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.052403109147074245</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.10370798665960895</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.15499665966869752</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.20626939393104066</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0.25752645421801257</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.30876810420947703</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.359994606434347</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.4112062222138941</v>
-      </c>
-      <c r="T105" t="n">
-        <v>0.46240321160772263</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0.513585833362323</v>
-      </c>
-      <c r="V105" t="n">
-        <v>0.5647543448621213</v>
-      </c>
-      <c r="W105" t="n">
-        <v>0.6159090020829436</v>
-      </c>
-      <c r="X105" t="n">
-        <v>0.6670500595478103</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>0.7181777702849813</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>0.7692923857881729</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>0.8203941559788652</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>0.8714833291706261</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>0.9225665415790334</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0.9737291137057171</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1.0251787497094347</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>1.0766471551713133</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>1.1242992596225891</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.026201260456910375</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.02521491971870074</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.024433771638654643</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.023708572134835973</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.023038008087178576</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.02242159984708962</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.021858982300288238</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.021350888963237523</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.020895984235291452</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.02049331390870843</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.020142362255549783</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.019842796629388162</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.01959546229573101</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0.01939911725931806</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.019252752293869003</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.019155966700397133</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.019108367929322665</v>
-      </c>
-      <c r="T106" t="n">
-        <v>0.01911080901896966</v>
-      </c>
-      <c r="U106" t="n">
-        <v>0.019162698311650066</v>
-      </c>
-      <c r="V106" t="n">
-        <v>0.019262655304066262</v>
-      </c>
-      <c r="W106" t="n">
-        <v>0.01941033035213811</v>
-      </c>
-      <c r="X106" t="n">
-        <v>0.019605381105280914</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>0.01984810934498256</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>0.020138880432531273</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>0.020476180105976263</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>0.02085959602910753</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>0.021289420469940458</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>0.021773389146413216</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>0.02233522608247285</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>0.02295242284777113</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>0.02369116610652576</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.02456515039346816</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.023764528425181505</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.023204394257213296</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.02284984814749593</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.022698588159034937</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.02274962162242485</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.02301218196271656</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.023477871392296016</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.024165269340138292</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.025056867279193443</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.026166555788506126</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.027482053097740936</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.029014399020558444</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0.03075656112433648</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.0327152892155392</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.0348856160711475</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.03727283718856046</v>
-      </c>
-      <c r="T107" t="n">
-        <v>0.039875927299081196</v>
-      </c>
-      <c r="U107" t="n">
-        <v>0.042700037030221134</v>
-      </c>
-      <c r="V107" t="n">
-        <v>0.045746576616250784</v>
-      </c>
-      <c r="W107" t="n">
-        <v>0.049014008589145924</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0.052506959710995955</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>0.05621802789431096</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>0.06015552852574848</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>0.06431202480884793</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0.06869735836271156</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0.07330185737170808</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0.07814075589829483</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>0.08321161310394314</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0.08852068956067449</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0.09407554938256872</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
         <v>126</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.09339002271978238</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.09356625479943072</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.09371635847793369</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.09386599863642706</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.09401518212745577</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.09416391579311931</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.09431220646269961</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.09446006095055844</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.09460748605408942</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.09475448855076456</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.0949010751979313</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.09504725273261432</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.09519302786433015</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0.09533840727771895</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.09548339762986367</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.09562800554878945</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.09577223763203226</v>
-      </c>
-      <c r="T108" t="n">
-        <v>0.09591610044527495</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0.09605960052104841</v>
-      </c>
-      <c r="V108" t="n">
-        <v>0.09620274435749573</v>
-      </c>
-      <c r="W108" t="n">
-        <v>0.0963455384171973</v>
-      </c>
-      <c r="X108" t="n">
-        <v>0.0964879891260547</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>0.09663010287223162</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>0.09677188600514931</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>0.09691334483453506</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0.09705448562952146</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0.09719547593357236</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0.09733846981962505</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>0.09748871116106034</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0.09763942637197719</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0.09780480062982397</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>128</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9763828726140114</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9649441847817066</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.9573593610587068</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.9498904965447441</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.9425398194919019</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.9353092504735142</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.9281976324029364</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.9212089934227925</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.9143389257382191</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.9075934786760693</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.9013920137947733</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.8948701014209891</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.888472016736485</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0.8822003524542109</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.8760536246356103</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.8700338503095629</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.8641399298099619</v>
-      </c>
-      <c r="T111" t="n">
-        <v>0.8583727480262061</v>
-      </c>
-      <c r="U111" t="n">
-        <v>0.8527310280665555</v>
-      </c>
-      <c r="V111" t="n">
-        <v>0.8472144329807116</v>
-      </c>
-      <c r="W111" t="n">
-        <v>0.8418236022626326</v>
-      </c>
-      <c r="X111" t="n">
-        <v>0.8365572501663935</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>0.831417722715771</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>0.826402533495582</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>0.8215137001416131</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0.8167480533947432</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0.8120847271592762</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0.8072048061653854</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>0.8013433358097027</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0.7954891116271742</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0.7879646524113539</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>128</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8527319340197718</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.8570268324570673</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.8648768596210864</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.8728480517683925</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.8809417954331591</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.8891591520428748</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.8974980256919658</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.9059617070274989</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.9145448797338414</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.9232529273392147</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.9325044097926564</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.9414341676802322</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.9504857510302751</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0.959661015802342</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.968957806997324</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.9783774133480918</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.987918102962039</v>
-      </c>
-      <c r="T114" t="n">
-        <v>0.9975800887971711</v>
-      </c>
-      <c r="U114" t="n">
-        <v>1.007361525371782</v>
-      </c>
-      <c r="V114" t="n">
-        <v>1.017261488196641</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1.0272799876983032</v>
-      </c>
-      <c r="X114" t="n">
-        <v>1.0374152464289061</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>1.0476688637173335</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>1.0580379803319866</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>1.068523857658143</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>1.0791230583179252</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>1.089815790513198</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>1.1003084551168811</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1.1098972126862143</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>1.1194905551416108</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>1.1262714168988803</v>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.022178817441227</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.0266769880034263</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.0347220187831088</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0428799365326362</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.0511521186854402</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.0595396179721688</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.068040330194734</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.0766575381124197</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.085385917926923</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.0942308460892767</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.1036108758771532</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.1126608416114014</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.1218242874615945</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.1311030639352684</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.1404950109883</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.150001412715798</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.1596205329948717</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.1693525809609262</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.1791957077175261</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.1891489857687485</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.1992124229426397</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.209384239601138</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.219666033291346</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.2300549434083867</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>1.2405522303728298</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.2511544562507078</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.2618418290964422</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>1.2723207500441587</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.2818873803209432</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.2914502129256626</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.298192183761134</v>
       </c>
     </row>
   </sheetData>
@@ -42409,12 +40787,12 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -42455,7 +40833,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -42496,7 +40874,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -42537,13 +40915,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.020161965048033994</v>
+        <v>0.023741965048033994</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -42578,13 +40956,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.5622558863143565</v>
+        <v>2.316376519313378</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -42619,7 +40997,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -42660,7 +41038,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -42701,13 +41079,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.955414681370593</v>
+        <v>-5.057410471686517</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -42742,13 +41120,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>19.012892248115016</v>
+        <v>17.17419318063463</v>
       </c>
     </row>
     <row r="14">
@@ -42758,12 +41136,12 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -42804,7 +41182,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -42845,7 +41223,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -42886,13 +41264,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.020161965048033994</v>
+        <v>0.023741965048033994</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -42927,13 +41305,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>0.879029297713001</v>
+        <v>1.303347833634732</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -42968,7 +41346,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -43009,7 +41387,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -43050,13 +41428,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.486441503805343</v>
+        <v>-5.508364898240378</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -43091,13 +41469,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>20.73087579819923</v>
+        <v>18.75695249098844</v>
       </c>
     </row>
   </sheetData>
@@ -43227,7 +41605,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -43303,7 +41681,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -43313,7 +41691,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -43324,7 +41702,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -43335,7 +41713,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -43346,7 +41724,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -43362,7 +41740,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -43388,7 +41766,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -43419,7 +41797,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -43490,7 +41868,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -43561,7 +41939,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -43632,7 +42010,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -43708,362 +42086,362 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01584382278801519</v>
+        <v>-0.006070266639423634</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.009047480217285239</v>
+        <v>7.260759313063164E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.002251137646555287</v>
+        <v>0.007522418502036267</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0045452049241746645</v>
+        <v>0.01431876107276622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.011341547494904614</v>
+        <v>0.02111510364349617</v>
       </c>
       <c r="H19" t="n">
-        <v>0.018137890065634564</v>
+        <v>0.02791144621422612</v>
       </c>
       <c r="I19" t="n">
-        <v>0.024934232636364517</v>
+        <v>0.03470778878495607</v>
       </c>
       <c r="J19" t="n">
-        <v>0.031730575207094464</v>
+        <v>0.041504131355686015</v>
       </c>
       <c r="K19" t="n">
-        <v>0.038462630637368114</v>
+        <v>0.048236186785959666</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04483254189980711</v>
+        <v>0.05460609804839866</v>
       </c>
       <c r="M19" t="n">
-        <v>0.050635718708999286</v>
+        <v>0.06040927485759084</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05568008561181079</v>
+        <v>0.06545364176040235</v>
       </c>
       <c r="O19" t="n">
-        <v>0.059773567155107676</v>
+        <v>0.06954712330369923</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06272408788575606</v>
+        <v>0.07249764403434762</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.06433957235062207</v>
+        <v>0.07411312849921363</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06442794509657179</v>
+        <v>0.07420150124516335</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06279713067047132</v>
+        <v>0.07257068681906288</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05925505361918679</v>
+        <v>0.06902860976777835</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05360963848958425</v>
+        <v>0.06338319463817581</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04566880982852986</v>
+        <v>0.05544236597712141</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03524049218288969</v>
+        <v>0.04501404833148124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.030900138675647604</v>
+        <v>-0.024281066557694537</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.024103796104917655</v>
+        <v>-0.017484723986964587</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0173074535341877</v>
+        <v>-0.010688381416234636</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.010511110963457752</v>
+        <v>-0.003892038845504684</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.003714768392727802</v>
+        <v>0.0029043037252252657</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003081574178002148</v>
+        <v>0.009700646295955215</v>
       </c>
       <c r="I20" t="n">
-        <v>0.009877916748732101</v>
+        <v>0.01649698886668517</v>
       </c>
       <c r="J20" t="n">
-        <v>0.016674259319462047</v>
+        <v>0.023293331437415115</v>
       </c>
       <c r="K20" t="n">
-        <v>0.023406314749735698</v>
+        <v>0.030025386867688766</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02977622601217469</v>
+        <v>0.03639529813012776</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03557940282136687</v>
+        <v>0.04219847493931994</v>
       </c>
       <c r="N20" t="n">
-        <v>0.040623769724178374</v>
+        <v>0.04724284184213144</v>
       </c>
       <c r="O20" t="n">
-        <v>0.044717251267475264</v>
+        <v>0.05133632338542833</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04766777199812365</v>
+        <v>0.05428684411607672</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04928325646298966</v>
+        <v>0.055902328580942726</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04937162920893938</v>
+        <v>0.05599070132689245</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04774081478283891</v>
+        <v>0.05435988690079198</v>
       </c>
       <c r="T20" t="n">
-        <v>0.044198737731554374</v>
+        <v>0.05081780984950744</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03855332260195184</v>
+        <v>0.045172394719904904</v>
       </c>
       <c r="V20" t="n">
-        <v>0.030612493940897444</v>
+        <v>0.037231566058850515</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02018417629525727</v>
+        <v>0.02680324841321034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04259646151706838</v>
+        <v>-0.037403671338012284</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03580011894633843</v>
+        <v>-0.030607328767282335</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.029003776375608484</v>
+        <v>-0.023810986196552385</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02220743380487853</v>
+        <v>-0.01701464362582243</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01541109123414858</v>
+        <v>-0.010218301055092482</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.008614748663418631</v>
+        <v>-0.003421958484362532</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0018184060926886778</v>
+        <v>0.0033743840863674213</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0049779364780412685</v>
+        <v>0.010170726657097368</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01170999190831492</v>
+        <v>0.01690278208737102</v>
       </c>
       <c r="L21" t="n">
-        <v>0.018079903170753912</v>
+        <v>0.02327269334981001</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02388307997994609</v>
+        <v>0.02907587015900219</v>
       </c>
       <c r="N21" t="n">
-        <v>0.028927446882757592</v>
+        <v>0.03412023706181369</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03302092842605448</v>
+        <v>0.03821371860511058</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03597144915670287</v>
+        <v>0.04116423933575897</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.037586933621568876</v>
+        <v>0.042779723800624975</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0376753063675186</v>
+        <v>0.0428680965465747</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03604449194141813</v>
+        <v>0.04123728212047423</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03250241489013359</v>
+        <v>0.03769520506918969</v>
       </c>
       <c r="U21" t="n">
-        <v>0.026856999760531054</v>
+        <v>0.03204978993958715</v>
       </c>
       <c r="V21" t="n">
-        <v>0.018916171099476665</v>
+        <v>0.024108961278532764</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008487853453836493</v>
+        <v>0.013680643632892592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.044827219358980125</v>
+        <v>-0.05118099045264368</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03803087678825017</v>
+        <v>-0.04438464788191373</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.031234534217520225</v>
+        <v>-0.03758830531118378</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.024438191646790272</v>
+        <v>-0.03079196274045383</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.017641849076060322</v>
+        <v>-0.02399562016972388</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.010845506505330373</v>
+        <v>-0.01719927759899393</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.004049163934600419</v>
+        <v>-0.010402935028263977</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002747178636129527</v>
+        <v>-0.0036065924575340302</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009479234066403178</v>
+        <v>0.0031254629727396205</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01584914532884217</v>
+        <v>0.009495374235178614</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02165232213803435</v>
+        <v>0.015298551044370792</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02669668904084585</v>
+        <v>0.020342917947182293</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03079017058414274</v>
+        <v>0.024436399490479183</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03374069131479113</v>
+        <v>0.02738692022112757</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.035356175779657134</v>
+        <v>0.029002404685993577</v>
       </c>
       <c r="R22" t="n">
-        <v>0.035444548525606856</v>
+        <v>0.0290907774319433</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03381373409950639</v>
+        <v>0.02745996300584283</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03027165704822185</v>
+        <v>0.023917885954558293</v>
       </c>
       <c r="U22" t="n">
-        <v>0.024626241918619313</v>
+        <v>0.018272470824955755</v>
       </c>
       <c r="V22" t="n">
-        <v>0.016685413257564924</v>
+        <v>0.010331642163901367</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006257095611924751</v>
+        <v>-9.667548173880602E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04779061300977573</v>
+        <v>-0.06232246137359365</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04099427043904578</v>
+        <v>-0.0555261188028637</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.03419792786831583</v>
+        <v>-0.04872977623213375</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.02740158529758588</v>
+        <v>-0.0419334336614038</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02060524272685593</v>
+        <v>-0.03513709109067385</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01380890015612598</v>
+        <v>-0.0283407485199439</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.007012557585396026</v>
+        <v>-0.021544405949213946</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.1621501466607962E-4</v>
+        <v>-0.014748063378484</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006515840415607571</v>
+        <v>-0.008016007948210349</v>
       </c>
       <c r="L23" t="n">
-        <v>0.012885751678046564</v>
+        <v>-0.001646096685771356</v>
       </c>
       <c r="M23" t="n">
-        <v>0.018688928487238743</v>
+        <v>0.004157080123420823</v>
       </c>
       <c r="N23" t="n">
-        <v>0.023733295390050244</v>
+        <v>0.009201447026232323</v>
       </c>
       <c r="O23" t="n">
-        <v>0.027826776933347133</v>
+        <v>0.013294928569529213</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03077729766399552</v>
+        <v>0.0162454493001776</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03239278212886153</v>
+        <v>0.017860933765043607</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03248115487481125</v>
+        <v>0.01794930651099333</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03085034044871078</v>
+        <v>0.01631849208489286</v>
       </c>
       <c r="T23" t="n">
-        <v>0.027308263397426244</v>
+        <v>0.012776415033608324</v>
       </c>
       <c r="U23" t="n">
-        <v>0.021662848267823706</v>
+        <v>0.007130999904005786</v>
       </c>
       <c r="V23" t="n">
-        <v>0.013722019606769317</v>
+        <v>-8.098287570486029E-4</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0032937019611291446</v>
+        <v>-0.011238146402688776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -44139,7 +42517,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -44148,36 +42526,36 @@
         <v>0.015007503751875938</v>
       </c>
       <c r="D26" t="n">
-        <v>1.965982991495752</v>
+        <v>0.4202101050525261</v>
       </c>
       <c r="E26" t="n">
-        <v>3.8869434717358775</v>
+        <v>1.6658329164582324</v>
       </c>
       <c r="F26" t="n">
-        <v>5.762881440720323</v>
+        <v>3.721860930465242</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503751875937885</v>
+        <v>6.003001500750331</v>
       </c>
       <c r="H26" t="n">
-        <v>8.974487243621745</v>
+        <v>7.608804402201015</v>
       </c>
       <c r="I26" t="n">
-        <v>9.859929964982456</v>
+        <v>9.259629814907399</v>
       </c>
       <c r="J26" t="n">
-        <v>9.919959979989962</v>
+        <v>10.955477738869433</v>
       </c>
       <c r="K26" t="n">
-        <v>10.130065032516232</v>
+        <v>12.456228114057076</v>
       </c>
       <c r="L26" t="n">
-        <v>10.550275137568772</v>
+        <v>13.926963481740966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -44220,7 +42598,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -44230,7 +42608,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -44241,7 +42619,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -44252,7 +42630,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -44263,7 +42641,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -44279,7 +42657,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -44305,7 +42683,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -44336,7 +42714,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -44407,7 +42785,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -44478,7 +42856,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -44549,7 +42927,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -44625,362 +43003,362 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.014755117193438836</v>
+        <v>-0.005653149297268698</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.008425784149286533</v>
+        <v>6.761837468836048E-4</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0020964511051342304</v>
+        <v>0.007005516791035908</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0042328819390180725</v>
+        <v>0.01333484983518821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.010562214983170375</v>
+        <v>0.019664182879340512</v>
       </c>
       <c r="H44" t="n">
-        <v>0.016891548027322675</v>
+        <v>0.025993515923492812</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02322088107147498</v>
+        <v>0.03232284896764512</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02955021411562728</v>
+        <v>0.03865218201179742</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0358196774992718</v>
+        <v>0.04492164539544194</v>
       </c>
       <c r="L44" t="n">
-        <v>0.04175188139012759</v>
+        <v>0.05085384928629773</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0471562938895307</v>
+        <v>0.05625826178570084</v>
       </c>
       <c r="N44" t="n">
-        <v>0.05185403797651893</v>
+        <v>0.06095600587268906</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05566623663013004</v>
+        <v>0.06476820452630018</v>
       </c>
       <c r="P44" t="n">
-        <v>0.058414012829401826</v>
+        <v>0.06751598072557197</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05991848955337205</v>
+        <v>0.06902045744954219</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06000078978107849</v>
+        <v>0.06910275767724863</v>
       </c>
       <c r="S44" t="n">
-        <v>0.05848203649155895</v>
+        <v>0.06758400438772909</v>
       </c>
       <c r="T44" t="n">
-        <v>0.055183352663851215</v>
+        <v>0.06428532056002136</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04992586127699303</v>
+        <v>0.05902782917316316</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04253068531002217</v>
+        <v>0.051632653206192314</v>
       </c>
       <c r="W44" t="n">
-        <v>0.032818947741976495</v>
+        <v>0.041920915638146636</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.028776840889534396</v>
+        <v>-0.022612597189074792</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.022447507845382093</v>
+        <v>-0.01628326414492249</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.01611817480122979</v>
+        <v>-0.009953931100770187</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.009788841757077487</v>
+        <v>-0.0036245980566178837</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.003459508712925184</v>
+        <v>0.002704734987534419</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002869824331227115</v>
+        <v>0.009034068031686718</v>
       </c>
       <c r="I45" t="n">
-        <v>0.009199157375379421</v>
+        <v>0.015363401075839025</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01552849041953172</v>
+        <v>0.021692734119991324</v>
       </c>
       <c r="K45" t="n">
-        <v>0.021797953803176243</v>
+        <v>0.027962197503635846</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02773015769403203</v>
+        <v>0.03389440139449164</v>
       </c>
       <c r="M45" t="n">
-        <v>0.033134570193435145</v>
+        <v>0.03929881389389475</v>
       </c>
       <c r="N45" t="n">
-        <v>0.037832314280423364</v>
+        <v>0.043996557980882964</v>
       </c>
       <c r="O45" t="n">
-        <v>0.041644512934034476</v>
+        <v>0.047808756634494076</v>
       </c>
       <c r="P45" t="n">
-        <v>0.04439228913330626</v>
+        <v>0.05055653283376586</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.045896765857276485</v>
+        <v>0.052061009557736085</v>
       </c>
       <c r="R45" t="n">
-        <v>0.04597906608498293</v>
+        <v>0.05214330978544253</v>
       </c>
       <c r="S45" t="n">
-        <v>0.044460312795463384</v>
+        <v>0.050624556495922984</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04116162896775565</v>
+        <v>0.04732587266821525</v>
       </c>
       <c r="U45" t="n">
-        <v>0.035904137580897465</v>
+        <v>0.042068381281357065</v>
       </c>
       <c r="V45" t="n">
-        <v>0.028508961613926617</v>
+        <v>0.034673205314386224</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01879722404588094</v>
+        <v>0.024961467746340543</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.03966945289148161</v>
+        <v>-0.034833484408492196</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.033340119847329305</v>
+        <v>-0.028504151364339893</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.027010786803177006</v>
+        <v>-0.02217481832018759</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.020681453759024703</v>
+        <v>-0.015845485276035288</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0143521207148724</v>
+        <v>-0.009516152231882985</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.008022787670720101</v>
+        <v>-0.0031868191877306856</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0016934546265677947</v>
+        <v>0.0031425138564216207</v>
       </c>
       <c r="J46" t="n">
-        <v>0.004635878417584505</v>
+        <v>0.00947184690057392</v>
       </c>
       <c r="K46" t="n">
-        <v>0.010905341801229027</v>
+        <v>0.015741310284218442</v>
       </c>
       <c r="L46" t="n">
-        <v>0.016837545692084815</v>
+        <v>0.02167351417507423</v>
       </c>
       <c r="M46" t="n">
-        <v>0.02224195819148793</v>
+        <v>0.027077926674477344</v>
       </c>
       <c r="N46" t="n">
-        <v>0.026939702278476148</v>
+        <v>0.03177567076146556</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03075190093208726</v>
+        <v>0.035587869415076676</v>
       </c>
       <c r="P46" t="n">
-        <v>0.03349967713135905</v>
+        <v>0.03833564561434846</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03500415385532927</v>
+        <v>0.039840122338318684</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03508645408303571</v>
+        <v>0.03992242256602513</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03356770079351617</v>
+        <v>0.038403669276505584</v>
       </c>
       <c r="T46" t="n">
-        <v>0.030269016965808436</v>
+        <v>0.03510498544879785</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02501152557895025</v>
+        <v>0.029847494061939664</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0176163496119794</v>
+        <v>0.022452318094968816</v>
       </c>
       <c r="W46" t="n">
-        <v>0.007904612043933723</v>
+        <v>0.012740580526923138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.04174692458679044</v>
+        <v>-0.0476640973778296</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03541759154263814</v>
+        <v>-0.041334764333677304</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.029088258498485835</v>
+        <v>-0.035005431289525</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.022758925454333532</v>
+        <v>-0.028676098245372695</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01642959241018123</v>
+        <v>-0.022346765201220392</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.01010025936602893</v>
+        <v>-0.016017432157068093</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0037709263218766234</v>
+        <v>-0.009688099112915786</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002558406722275676</v>
+        <v>-0.003358766068763487</v>
       </c>
       <c r="K47" t="n">
-        <v>0.008827870105920198</v>
+        <v>0.0029106973148810347</v>
       </c>
       <c r="L47" t="n">
-        <v>0.014760073996775987</v>
+        <v>0.008842901205736824</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0201644864961791</v>
+        <v>0.014247313705139937</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02486223058316732</v>
+        <v>0.018945057792128156</v>
       </c>
       <c r="O47" t="n">
-        <v>0.02867442923677843</v>
+        <v>0.02275725644573927</v>
       </c>
       <c r="P47" t="n">
-        <v>0.03142220543605022</v>
+        <v>0.025505032645011055</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03292668216002044</v>
+        <v>0.027009509368981277</v>
       </c>
       <c r="R47" t="n">
-        <v>0.033008982387726885</v>
+        <v>0.02709180959668772</v>
       </c>
       <c r="S47" t="n">
-        <v>0.03149022909820734</v>
+        <v>0.025573056307168177</v>
       </c>
       <c r="T47" t="n">
-        <v>0.028191545270499607</v>
+        <v>0.022274372479460444</v>
       </c>
       <c r="U47" t="n">
-        <v>0.02293405388364142</v>
+        <v>0.017016881092602257</v>
       </c>
       <c r="V47" t="n">
-        <v>0.015538877916670572</v>
+        <v>0.00962170512563141</v>
       </c>
       <c r="W47" t="n">
-        <v>0.005827140348624894</v>
+        <v>-9.003244241426872E-5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.044506689145685716</v>
+        <v>-0.05803998401487662</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.038177356101533416</v>
+        <v>-0.05171065097072432</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.03184802305738111</v>
+        <v>-0.04538131792657201</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.025518690013228807</v>
+        <v>-0.039051984882419705</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.019189356969076504</v>
+        <v>-0.032722651838267405</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.012860023924924205</v>
+        <v>-0.026393318794115106</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.006530690880771899</v>
+        <v>-0.0200639857499628</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.0135783661959922E-4</v>
+        <v>-0.0137346527058105</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006068105547024923</v>
+        <v>-0.0074651893221659785</v>
       </c>
       <c r="L48" t="n">
-        <v>0.012000309437880712</v>
+        <v>-0.0015329854313101896</v>
       </c>
       <c r="M48" t="n">
-        <v>0.017404721937283825</v>
+        <v>0.003871427068092924</v>
       </c>
       <c r="N48" t="n">
-        <v>0.022102466024272044</v>
+        <v>0.008569171155081143</v>
       </c>
       <c r="O48" t="n">
-        <v>0.025914664677883156</v>
+        <v>0.012381369808692255</v>
       </c>
       <c r="P48" t="n">
-        <v>0.028662440877154943</v>
+        <v>0.015129146007964042</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.030166917601125165</v>
+        <v>0.016633622731934264</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03024921782883161</v>
+        <v>0.01671592295964071</v>
       </c>
       <c r="S48" t="n">
-        <v>0.028730464539312064</v>
+        <v>0.015197169670121163</v>
       </c>
       <c r="T48" t="n">
-        <v>0.025431780711604332</v>
+        <v>0.011898485842413431</v>
       </c>
       <c r="U48" t="n">
-        <v>0.020174289324746145</v>
+        <v>0.006640994455555244</v>
       </c>
       <c r="V48" t="n">
-        <v>0.012779113357775297</v>
+        <v>-7.541815114156039E-4</v>
       </c>
       <c r="W48" t="n">
-        <v>0.003067375789729619</v>
+        <v>-0.010465919079461282</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -45056,7 +43434,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -45065,36 +43443,36 @@
         <v>0.015007503751875938</v>
       </c>
       <c r="D51" t="n">
-        <v>1.965982991495752</v>
+        <v>0.4202101050525261</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8869434717358775</v>
+        <v>1.6658329164582324</v>
       </c>
       <c r="F51" t="n">
-        <v>5.762881440720323</v>
+        <v>3.721860930465242</v>
       </c>
       <c r="G51" t="n">
-        <v>7.503751875937885</v>
+        <v>6.003001500750331</v>
       </c>
       <c r="H51" t="n">
-        <v>8.974487243621745</v>
+        <v>7.608804402201015</v>
       </c>
       <c r="I51" t="n">
-        <v>9.859929964982456</v>
+        <v>9.259629814907399</v>
       </c>
       <c r="J51" t="n">
-        <v>9.919959979989962</v>
+        <v>10.955477738869433</v>
       </c>
       <c r="K51" t="n">
-        <v>10.130065032516232</v>
+        <v>12.456228114057076</v>
       </c>
       <c r="L51" t="n">
-        <v>10.550275137568772</v>
+        <v>13.926963481740966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
